--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R923"/>
+  <dimension ref="A1:R928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K906" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M906" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="Q906" t="n">
         <v>10</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K907" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L907" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M907" t="n">
-        <v>5308</v>
+        <v>7743</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,20 +65733,20 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K908" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L908" t="n">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="M908" t="n">
-        <v>4644</v>
+        <v>6171</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
@@ -65755,10 +65755,10 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="Q908" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,20 +65805,20 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K909" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L909" t="n">
         <v>6500</v>
       </c>
-      <c r="L909" t="n">
-        <v>7000</v>
-      </c>
       <c r="M909" t="n">
-        <v>6750</v>
+        <v>6231</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,10 +65827,10 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>450</v>
+        <v>346</v>
       </c>
       <c r="Q909" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,29 +65868,29 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K910" t="n">
         <v>5500</v>
       </c>
       <c r="L910" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="M910" t="n">
-        <v>5500</v>
+        <v>5662</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="Q910" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65952,17 +65952,17 @@
         <v>60</v>
       </c>
       <c r="K911" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M911" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,20 +66021,20 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K912" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L912" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M912" t="n">
-        <v>6000</v>
+        <v>5308</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="Q912" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,20 +66093,20 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K913" t="n">
         <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M913" t="n">
-        <v>4775</v>
+        <v>4644</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66115,10 +66115,10 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>239</v>
+        <v>464</v>
       </c>
       <c r="Q913" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,20 +66165,20 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K914" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L914" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M914" t="n">
-        <v>5773</v>
+        <v>6750</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
@@ -66187,10 +66187,10 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>577</v>
+        <v>450</v>
       </c>
       <c r="Q914" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K915" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L915" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M915" t="n">
-        <v>7773</v>
+        <v>5500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>518</v>
+        <v>367</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K916" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L916" t="n">
         <v>6000</v>
       </c>
       <c r="M916" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66381,7 +66381,7 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K917" t="n">
         <v>6000</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K918" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L918" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M918" t="n">
-        <v>5500</v>
+        <v>4775</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66534,7 +66534,7 @@
         <v>6000</v>
       </c>
       <c r="M919" t="n">
-        <v>5727</v>
+        <v>5773</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q919" t="n">
         <v>10</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K920" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L920" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M920" t="n">
-        <v>7239</v>
+        <v>7773</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K921" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L921" t="n">
         <v>6000</v>
       </c>
       <c r="M921" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66816,13 +66816,13 @@
         <v>70</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M923" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,12 +66835,372 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
       </c>
       <c r="R923" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>3</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D924" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E924" t="n">
+        <v>5</v>
+      </c>
+      <c r="F924" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J924" t="n">
+        <v>110</v>
+      </c>
+      <c r="K924" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L924" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M924" t="n">
+        <v>5727</v>
+      </c>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O924" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P924" t="n">
+        <v>573</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>10</v>
+      </c>
+      <c r="R924" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>3</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D925" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E925" t="n">
+        <v>5</v>
+      </c>
+      <c r="F925" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J925" t="n">
+        <v>115</v>
+      </c>
+      <c r="K925" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L925" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M925" t="n">
+        <v>7239</v>
+      </c>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O925" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P925" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>15</v>
+      </c>
+      <c r="R925" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>3</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D926" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E926" t="n">
+        <v>5</v>
+      </c>
+      <c r="F926" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J926" t="n">
+        <v>60</v>
+      </c>
+      <c r="K926" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L926" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M926" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O926" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P926" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>18</v>
+      </c>
+      <c r="R926" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>3</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D927" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E927" t="n">
+        <v>5</v>
+      </c>
+      <c r="F927" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J927" t="n">
+        <v>60</v>
+      </c>
+      <c r="K927" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L927" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M927" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O927" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P927" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>18</v>
+      </c>
+      <c r="R927" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>3</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D928" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E928" t="n">
+        <v>5</v>
+      </c>
+      <c r="F928" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G928" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J928" t="n">
+        <v>70</v>
+      </c>
+      <c r="K928" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L928" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M928" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O928" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P928" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>20</v>
+      </c>
+      <c r="R928" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R928"/>
+  <dimension ref="A1:R932"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L841" t="n">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="M841" t="n">
-        <v>4124</v>
+        <v>6157</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>412</v>
+        <v>616</v>
       </c>
       <c r="Q841" t="n">
         <v>10</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E842" t="n">
         <v>5</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="K842" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L842" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M842" t="n">
-        <v>5765</v>
+        <v>7259</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>384</v>
+        <v>484</v>
       </c>
       <c r="Q842" t="n">
         <v>15</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E843" t="n">
         <v>5</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K843" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L843" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M843" t="n">
-        <v>5103</v>
+        <v>6000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,20 +61125,20 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>5800</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M844" t="n">
-        <v>5000</v>
+        <v>5914</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
@@ -61147,10 +61147,10 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Q844" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,20 +61197,20 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="K845" t="n">
         <v>4000</v>
       </c>
       <c r="L845" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M845" t="n">
-        <v>4257</v>
+        <v>4124</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
@@ -61219,10 +61219,10 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>213</v>
+        <v>412</v>
       </c>
       <c r="Q845" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -61269,20 +61269,20 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="K846" t="n">
         <v>5500</v>
       </c>
       <c r="L846" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M846" t="n">
-        <v>5500</v>
+        <v>5765</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
@@ -61291,10 +61291,10 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="Q846" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,20 +61341,20 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="K847" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L847" t="n">
-        <v>6500</v>
+        <v>5300</v>
       </c>
       <c r="M847" t="n">
-        <v>6250</v>
+        <v>5103</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
@@ -61363,10 +61363,10 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="Q847" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61416,13 +61416,13 @@
         <v>80</v>
       </c>
       <c r="K848" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L848" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M848" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E849" t="n">
         <v>5</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,20 +61485,20 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K849" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L849" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M849" t="n">
-        <v>6000</v>
+        <v>4257</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -61507,10 +61507,10 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,20 +61557,20 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K850" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L850" t="n">
         <v>5500</v>
       </c>
       <c r="M850" t="n">
-        <v>5231</v>
+        <v>5500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
@@ -61579,10 +61579,10 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>262</v>
+        <v>550</v>
       </c>
       <c r="Q850" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,20 +61629,20 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K851" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L851" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M851" t="n">
-        <v>4737</v>
+        <v>6250</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
@@ -61651,10 +61651,10 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="Q851" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,20 +61701,20 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K852" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L852" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M852" t="n">
-        <v>6773</v>
+        <v>5500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
@@ -61723,10 +61723,10 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>452</v>
+        <v>306</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61773,7 +61773,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K853" t="n">
         <v>6000</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E854" t="n">
         <v>5</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,20 +61845,20 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K854" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L854" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M854" t="n">
-        <v>6000</v>
+        <v>5231</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -61867,10 +61867,10 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,20 +61917,20 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K855" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L855" t="n">
         <v>5000</v>
       </c>
-      <c r="L855" t="n">
-        <v>5500</v>
-      </c>
       <c r="M855" t="n">
-        <v>5214</v>
+        <v>4737</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
@@ -61939,10 +61939,10 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="Q855" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,20 +61989,20 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K856" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L856" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M856" t="n">
-        <v>5911</v>
+        <v>6773</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
@@ -62011,10 +62011,10 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>591</v>
+        <v>452</v>
       </c>
       <c r="Q856" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,20 +62061,20 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K857" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L857" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M857" t="n">
-        <v>8241</v>
+        <v>6000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -62083,10 +62083,10 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>549</v>
+        <v>333</v>
       </c>
       <c r="Q857" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,20 +62205,20 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K859" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L859" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M859" t="n">
-        <v>6239</v>
+        <v>5214</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
@@ -62227,10 +62227,10 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="Q859" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,20 +62277,20 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="K860" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="L860" t="n">
         <v>6000</v>
       </c>
       <c r="M860" t="n">
-        <v>6000</v>
+        <v>5911</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>300</v>
+        <v>591</v>
       </c>
       <c r="Q860" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,20 +62349,20 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K861" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L861" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M861" t="n">
-        <v>5714</v>
+        <v>8241</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
@@ -62371,10 +62371,10 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="Q861" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,20 +62421,20 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K862" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L862" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M862" t="n">
-        <v>7808</v>
+        <v>6000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
@@ -62443,10 +62443,10 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>521</v>
+        <v>333</v>
       </c>
       <c r="Q862" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K863" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L863" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M863" t="n">
-        <v>5731</v>
+        <v>6239</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,7 +62565,7 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K864" t="n">
         <v>6000</v>
@@ -62578,7 +62578,7 @@
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
@@ -62587,10 +62587,10 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q864" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,7 +62637,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K865" t="n">
         <v>5500</v>
@@ -62646,11 +62646,11 @@
         <v>6000</v>
       </c>
       <c r="M865" t="n">
-        <v>5773</v>
+        <v>5714</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
@@ -62659,10 +62659,10 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>289</v>
+        <v>571</v>
       </c>
       <c r="Q865" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,20 +62709,20 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>585</v>
+        <v>130</v>
       </c>
       <c r="K866" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L866" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M866" t="n">
-        <v>5937</v>
+        <v>7808</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,10 +62731,10 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="Q866" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,20 +62781,20 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>643</v>
+        <v>130</v>
       </c>
       <c r="K867" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L867" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M867" t="n">
-        <v>8034</v>
+        <v>5731</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
@@ -62803,10 +62803,10 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>536</v>
+        <v>318</v>
       </c>
       <c r="Q867" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,7 +62853,7 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K868" t="n">
         <v>6000</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62925,20 +62925,20 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K869" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L869" t="n">
         <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>6000</v>
+        <v>5773</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,10 +62947,10 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="Q869" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -62997,20 +62997,20 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="K870" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L870" t="n">
         <v>6500</v>
       </c>
       <c r="M870" t="n">
-        <v>6080</v>
+        <v>5937</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
@@ -63019,10 +63019,10 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>338</v>
+        <v>594</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,20 +63069,20 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="K871" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L871" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="M871" t="n">
-        <v>5966</v>
+        <v>8034</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
@@ -63091,10 +63091,10 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>298</v>
+        <v>536</v>
       </c>
       <c r="Q871" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,20 +63141,20 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K872" t="n">
         <v>6000</v>
       </c>
       <c r="L872" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M872" t="n">
-        <v>6262</v>
+        <v>6000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -63163,10 +63163,10 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>626</v>
+        <v>333</v>
       </c>
       <c r="Q872" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,20 +63213,20 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K873" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L873" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M873" t="n">
-        <v>7545</v>
+        <v>6000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
@@ -63235,10 +63235,10 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>503</v>
+        <v>333</v>
       </c>
       <c r="Q873" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="K874" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L874" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M874" t="n">
-        <v>7000</v>
+        <v>6080</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,20 +63357,20 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L875" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M875" t="n">
-        <v>6262</v>
+        <v>5966</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
@@ -63379,10 +63379,10 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="Q875" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63442,7 +63442,7 @@
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
@@ -63451,10 +63451,10 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>348</v>
+        <v>626</v>
       </c>
       <c r="Q876" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,20 +63501,20 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K877" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L877" t="n">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="M877" t="n">
-        <v>6156</v>
+        <v>7545</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
@@ -63523,10 +63523,10 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="Q877" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,20 +63573,20 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K878" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L878" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M878" t="n">
-        <v>3727</v>
+        <v>7000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
@@ -63595,10 +63595,10 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="Q878" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,20 +63645,20 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L879" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="M879" t="n">
-        <v>5144</v>
+        <v>6262</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
@@ -63667,10 +63667,10 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,20 +63717,20 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K880" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L880" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M880" t="n">
-        <v>4500</v>
+        <v>6262</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
@@ -63739,10 +63739,10 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="Q880" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,20 +63789,20 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K881" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L881" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M881" t="n">
-        <v>4500</v>
+        <v>6156</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
@@ -63811,10 +63811,10 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,20 +63861,20 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="K882" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L882" t="n">
         <v>4000</v>
       </c>
       <c r="M882" t="n">
-        <v>4000</v>
+        <v>3727</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
@@ -63883,10 +63883,10 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="Q882" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,20 +63933,20 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K883" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L883" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M883" t="n">
-        <v>5762</v>
+        <v>5144</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
@@ -63955,10 +63955,10 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>576</v>
+        <v>343</v>
       </c>
       <c r="Q883" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K884" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L884" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M884" t="n">
-        <v>6738</v>
+        <v>4500</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64080,17 +64080,17 @@
         <v>60</v>
       </c>
       <c r="K885" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L885" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M885" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
@@ -64099,10 +64099,10 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K886" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M886" t="n">
-        <v>5739</v>
+        <v>4000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64230,7 +64230,7 @@
         <v>6000</v>
       </c>
       <c r="M887" t="n">
-        <v>5738</v>
+        <v>5762</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q887" t="n">
         <v>10</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K888" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L888" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>9231</v>
+        <v>6738</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>615</v>
+        <v>449</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K889" t="n">
         <v>6000</v>
       </c>
       <c r="L889" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M889" t="n">
-        <v>6240</v>
+        <v>6000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64428,7 +64428,7 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
@@ -64437,20 +64437,20 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K890" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L890" t="n">
         <v>6000</v>
       </c>
       <c r="M890" t="n">
-        <v>6000</v>
+        <v>5739</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
@@ -64459,10 +64459,10 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Q890" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,7 +64509,7 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K891" t="n">
         <v>5500</v>
@@ -64518,11 +64518,11 @@
         <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>5761</v>
+        <v>5738</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
@@ -64531,10 +64531,10 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>288</v>
+        <v>574</v>
       </c>
       <c r="Q891" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,20 +64581,20 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K892" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="L892" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M892" t="n">
-        <v>5727</v>
+        <v>9231</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,10 +64603,10 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="Q892" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,20 +64653,20 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K893" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L893" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M893" t="n">
-        <v>7738</v>
+        <v>6240</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
@@ -64675,10 +64675,10 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>516</v>
+        <v>347</v>
       </c>
       <c r="Q893" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K895" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L895" t="n">
         <v>6000</v>
       </c>
       <c r="M895" t="n">
-        <v>6000</v>
+        <v>5761</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K896" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L896" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M896" t="n">
-        <v>4246</v>
+        <v>5727</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>425</v>
+        <v>573</v>
       </c>
       <c r="Q896" t="n">
         <v>10</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K897" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L897" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M897" t="n">
-        <v>5740</v>
+        <v>7738</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>383</v>
+        <v>516</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K898" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="L898" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="M898" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,20 +65085,20 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K899" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L899" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M899" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65107,10 +65107,10 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q899" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="K900" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L900" t="n">
         <v>4500</v>
       </c>
       <c r="M900" t="n">
-        <v>4500</v>
+        <v>4246</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>225</v>
+        <v>425</v>
       </c>
       <c r="Q900" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65220,29 +65220,29 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="K901" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L901" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>4000</v>
+        <v>5740</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="Q901" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,29 +65292,29 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K902" t="n">
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="L902" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="M902" t="n">
-        <v>6250</v>
+        <v>5200</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
@@ -65323,10 +65323,10 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>625</v>
+        <v>289</v>
       </c>
       <c r="Q902" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,20 +65373,20 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K903" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L903" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M903" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
@@ -65395,10 +65395,10 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>550</v>
+        <v>306</v>
       </c>
       <c r="Q903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,20 +65445,20 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K904" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M904" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
@@ -65467,10 +65467,10 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65508,29 +65508,29 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K905" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L905" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M905" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
@@ -65539,10 +65539,10 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>361</v>
+        <v>167</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K906" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L906" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M906" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q906" t="n">
         <v>10</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="K907" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L907" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M907" t="n">
-        <v>7743</v>
+        <v>8250</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K908" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L908" t="n">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="M908" t="n">
-        <v>6171</v>
+        <v>6500</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K909" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L909" t="n">
         <v>6500</v>
       </c>
       <c r="M909" t="n">
-        <v>6231</v>
+        <v>6500</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,20 +65877,20 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K910" t="n">
         <v>5500</v>
       </c>
       <c r="L910" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>5662</v>
+        <v>5750</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="Q910" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,20 +65949,20 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="K911" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L911" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M911" t="n">
-        <v>5000</v>
+        <v>7743</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="Q911" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,20 +66021,20 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K912" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L912" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="M912" t="n">
-        <v>5308</v>
+        <v>6171</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,20 +66093,20 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K913" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L913" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M913" t="n">
-        <v>4644</v>
+        <v>6231</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66115,10 +66115,10 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>464</v>
+        <v>346</v>
       </c>
       <c r="Q913" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,20 +66165,20 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K914" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L914" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M914" t="n">
-        <v>6750</v>
+        <v>5662</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
@@ -66187,10 +66187,10 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>450</v>
+        <v>283</v>
       </c>
       <c r="Q914" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66228,29 +66228,29 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
         <v>60</v>
       </c>
       <c r="K915" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L915" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M915" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
@@ -66259,10 +66259,10 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="Q915" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,20 +66309,20 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K916" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L916" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M916" t="n">
-        <v>6000</v>
+        <v>5308</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
@@ -66331,10 +66331,10 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="Q916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,20 +66381,20 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K917" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L917" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M917" t="n">
-        <v>6000</v>
+        <v>4644</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
@@ -66403,10 +66403,10 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="Q917" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,20 +66453,20 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K918" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L918" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M918" t="n">
-        <v>4775</v>
+        <v>6750</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
@@ -66475,10 +66475,10 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="Q918" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66516,29 +66516,29 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K919" t="n">
         <v>5500</v>
       </c>
       <c r="L919" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M919" t="n">
-        <v>5773</v>
+        <v>5500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>577</v>
+        <v>367</v>
       </c>
       <c r="Q919" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,20 +66597,20 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K920" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L920" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M920" t="n">
-        <v>7773</v>
+        <v>6000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,10 +66619,10 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>518</v>
+        <v>333</v>
       </c>
       <c r="Q920" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K921" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L921" t="n">
         <v>6000</v>
       </c>
       <c r="M921" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,20 +66741,20 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K922" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L922" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M922" t="n">
-        <v>6000</v>
+        <v>4775</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="Q922" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,20 +66813,20 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K923" t="n">
         <v>5500</v>
       </c>
       <c r="L923" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M923" t="n">
-        <v>5500</v>
+        <v>5773</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>275</v>
+        <v>577</v>
       </c>
       <c r="Q923" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66888,17 +66888,17 @@
         <v>110</v>
       </c>
       <c r="K924" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L924" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M924" t="n">
-        <v>5727</v>
+        <v>7773</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="Q924" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,20 +66957,20 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K925" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L925" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>7239</v>
+        <v>5750</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="Q925" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,20 +67101,20 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K927" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L927" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M927" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
@@ -67123,10 +67123,10 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="Q927" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67164,43 +67164,331 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J928" t="n">
+        <v>110</v>
+      </c>
+      <c r="K928" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L928" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M928" t="n">
+        <v>5727</v>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O928" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P928" t="n">
+        <v>573</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>10</v>
+      </c>
+      <c r="R928" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>3</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D929" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E929" t="n">
+        <v>5</v>
+      </c>
+      <c r="F929" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G929" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J929" t="n">
+        <v>115</v>
+      </c>
+      <c r="K929" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L929" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M929" t="n">
+        <v>7239</v>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O929" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P929" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>15</v>
+      </c>
+      <c r="R929" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>3</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D930" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E930" t="n">
+        <v>5</v>
+      </c>
+      <c r="F930" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G930" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J930" t="n">
+        <v>60</v>
+      </c>
+      <c r="K930" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L930" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M930" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N930" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O930" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P930" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>18</v>
+      </c>
+      <c r="R930" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>3</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D931" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E931" t="n">
+        <v>5</v>
+      </c>
+      <c r="F931" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J931" t="n">
+        <v>60</v>
+      </c>
+      <c r="K931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O931" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P931" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>18</v>
+      </c>
+      <c r="R931" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>3</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D932" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E932" t="n">
+        <v>5</v>
+      </c>
+      <c r="F932" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I928" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J928" t="n">
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J932" t="n">
         <v>70</v>
       </c>
-      <c r="K928" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L928" t="n">
-        <v>6000</v>
-      </c>
-      <c r="M928" t="n">
-        <v>6000</v>
-      </c>
-      <c r="N928" t="inlineStr">
+      <c r="K932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N932" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O928" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P928" t="n">
+      <c r="O932" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P932" t="n">
         <v>300</v>
       </c>
-      <c r="Q928" t="n">
+      <c r="Q932" t="n">
         <v>20</v>
       </c>
-      <c r="R928" t="inlineStr">
+      <c r="R932" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R962"/>
+  <dimension ref="A1:R966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L891" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M891" t="n">
-        <v>6144</v>
+        <v>4731</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>614</v>
+        <v>473</v>
       </c>
       <c r="Q891" t="n">
         <v>10</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K892" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L892" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M892" t="n">
-        <v>7260</v>
+        <v>5739</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K893" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L893" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M893" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64728,13 +64728,13 @@
         <v>60</v>
       </c>
       <c r="K894" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L894" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M894" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,20 +64797,20 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K895" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L895" t="n">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="M895" t="n">
-        <v>5000</v>
+        <v>6144</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
@@ -64819,10 +64819,10 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>250</v>
+        <v>614</v>
       </c>
       <c r="Q895" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,20 +64869,20 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K896" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L896" t="n">
-        <v>4300</v>
+        <v>7500</v>
       </c>
       <c r="M896" t="n">
-        <v>4157</v>
+        <v>7260</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
@@ -64891,10 +64891,10 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="Q896" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,20 +64941,20 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K897" t="n">
         <v>6000</v>
       </c>
       <c r="L897" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
@@ -64963,10 +64963,10 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q897" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65088,17 +65088,17 @@
         <v>60</v>
       </c>
       <c r="K899" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L899" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M899" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65110,7 +65110,7 @@
         <v>250</v>
       </c>
       <c r="Q899" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K900" t="n">
         <v>4000</v>
       </c>
       <c r="L900" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M900" t="n">
-        <v>4000</v>
+        <v>4157</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="Q900" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,20 +65229,20 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K901" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L901" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M901" t="n">
-        <v>4157</v>
+        <v>6250</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q901" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,20 +65301,20 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="K902" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L902" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M902" t="n">
-        <v>5776</v>
+        <v>5000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
@@ -65323,10 +65323,10 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65376,13 +65376,13 @@
         <v>60</v>
       </c>
       <c r="K903" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L903" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M903" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65448,17 +65448,17 @@
         <v>60</v>
       </c>
       <c r="K904" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L904" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M904" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
@@ -65467,10 +65467,10 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65526,11 +65526,11 @@
         <v>4300</v>
       </c>
       <c r="M905" t="n">
-        <v>4143</v>
+        <v>4157</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
@@ -65539,10 +65539,10 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>207</v>
+        <v>416</v>
       </c>
       <c r="Q905" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,20 +65589,20 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="K906" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L906" t="n">
         <v>6000</v>
       </c>
       <c r="M906" t="n">
-        <v>6000</v>
+        <v>5776</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
@@ -65611,10 +65611,10 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>600</v>
+        <v>385</v>
       </c>
       <c r="Q906" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,20 +65661,20 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="K907" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L907" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M907" t="n">
-        <v>7258</v>
+        <v>5000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>484</v>
+        <v>278</v>
       </c>
       <c r="Q907" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65736,13 +65736,13 @@
         <v>60</v>
       </c>
       <c r="K908" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L908" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M908" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,20 +65805,20 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K909" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L909" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M909" t="n">
-        <v>6000</v>
+        <v>4143</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,10 +65827,10 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,20 +65877,20 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K910" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>5286</v>
+        <v>6000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>264</v>
+        <v>600</v>
       </c>
       <c r="Q910" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,20 +65949,20 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K911" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M911" t="n">
-        <v>5792</v>
+        <v>7258</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>579</v>
+        <v>484</v>
       </c>
       <c r="Q911" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,20 +66021,20 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K912" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L912" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M912" t="n">
-        <v>7292</v>
+        <v>6000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K913" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L913" t="n">
         <v>6000</v>
       </c>
       <c r="M913" t="n">
-        <v>5773</v>
+        <v>6000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K914" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L914" t="n">
         <v>5500</v>
       </c>
       <c r="M914" t="n">
-        <v>5500</v>
+        <v>5286</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K915" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L915" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>4727</v>
+        <v>5792</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="Q915" t="n">
         <v>10</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K916" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L916" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M916" t="n">
-        <v>6727</v>
+        <v>7292</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K917" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L917" t="n">
         <v>6000</v>
       </c>
       <c r="M917" t="n">
-        <v>6000</v>
+        <v>5773</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,20 +66453,20 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K918" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L918" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M918" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
@@ -66475,10 +66475,10 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="Q918" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66528,17 +66528,17 @@
         <v>110</v>
       </c>
       <c r="K919" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L919" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>4391</v>
+        <v>4727</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="Q919" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,20 +66597,20 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K920" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L920" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M920" t="n">
-        <v>4762</v>
+        <v>6727</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,10 +66619,10 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="Q920" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,20 +66669,20 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K921" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L921" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M921" t="n">
-        <v>6762</v>
+        <v>6000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
@@ -66691,10 +66691,10 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="Q921" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K922" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L922" t="n">
         <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,20 +66813,20 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M923" t="n">
-        <v>6000</v>
+        <v>4391</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="Q923" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,20 +66885,20 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K924" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L924" t="n">
         <v>5000</v>
       </c>
-      <c r="L924" t="n">
-        <v>5500</v>
-      </c>
       <c r="M924" t="n">
-        <v>5227</v>
+        <v>4762</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="Q924" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,20 +66957,20 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K925" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L925" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M925" t="n">
-        <v>3904</v>
+        <v>6762</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="Q925" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,20 +67029,20 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K926" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L926" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M926" t="n">
-        <v>5273</v>
+        <v>5738</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="Q926" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
         <v>50</v>
       </c>
       <c r="K927" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L927" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,20 +67173,20 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K928" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M928" t="n">
-        <v>4783</v>
+        <v>5227</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,20 +67245,20 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K929" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="L929" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M929" t="n">
-        <v>4500</v>
+        <v>3904</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
@@ -67267,10 +67267,10 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,20 +67317,20 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K930" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L930" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M930" t="n">
-        <v>4129</v>
+        <v>5273</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
@@ -67339,10 +67339,10 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>206</v>
+        <v>352</v>
       </c>
       <c r="Q930" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,29 +67380,29 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K931" t="n">
         <v>4500</v>
       </c>
       <c r="L931" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M931" t="n">
-        <v>4656</v>
+        <v>4500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>466</v>
+        <v>250</v>
       </c>
       <c r="Q931" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67464,17 +67464,17 @@
         <v>115</v>
       </c>
       <c r="K932" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L932" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>6783</v>
+        <v>4783</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K933" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L933" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M933" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,20 +67605,20 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K934" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M934" t="n">
-        <v>6000</v>
+        <v>4129</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
@@ -67627,10 +67627,10 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>333</v>
+        <v>206</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,20 +67677,20 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K935" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L935" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M935" t="n">
-        <v>5265</v>
+        <v>4656</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
@@ -67699,10 +67699,10 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="Q935" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,20 +67749,20 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K936" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L936" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>5762</v>
+        <v>6783</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
@@ -67771,10 +67771,10 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>576</v>
+        <v>452</v>
       </c>
       <c r="Q936" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,20 +67821,20 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K937" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L937" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M937" t="n">
-        <v>6738</v>
+        <v>6000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
@@ -67843,10 +67843,10 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="Q937" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,7 +67893,7 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K938" t="n">
         <v>6000</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="K939" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L939" t="n">
         <v>5500</v>
       </c>
-      <c r="L939" t="n">
-        <v>6000</v>
-      </c>
       <c r="M939" t="n">
-        <v>5739</v>
+        <v>5265</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K940" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L940" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>6236</v>
+        <v>5762</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="Q940" t="n">
         <v>10</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K941" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L941" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M941" t="n">
-        <v>8792</v>
+        <v>6738</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>586</v>
+        <v>449</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K942" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L942" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M942" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,20 +68253,20 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K943" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L943" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M943" t="n">
-        <v>6500</v>
+        <v>5739</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
@@ -68275,10 +68275,10 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="Q943" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,20 +68325,20 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K944" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L944" t="n">
         <v>6500</v>
       </c>
-      <c r="L944" t="n">
-        <v>7000</v>
-      </c>
       <c r="M944" t="n">
-        <v>6750</v>
+        <v>6236</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>338</v>
+        <v>624</v>
       </c>
       <c r="Q944" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,20 +68397,20 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K945" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M945" t="n">
-        <v>5750</v>
+        <v>8792</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
@@ -68419,10 +68419,10 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="Q945" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,20 +68469,20 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K946" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L946" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M946" t="n">
-        <v>7227</v>
+        <v>6500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
@@ -68491,10 +68491,10 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>482</v>
+        <v>361</v>
       </c>
       <c r="Q946" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="K947" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L947" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M947" t="n">
-        <v>5739</v>
+        <v>6500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,20 +68613,20 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K948" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L948" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M948" t="n">
-        <v>6238</v>
+        <v>6750</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
@@ -68635,10 +68635,10 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="Q948" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,20 +68685,20 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K949" t="n">
         <v>5500</v>
       </c>
       <c r="L949" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M949" t="n">
-        <v>5500</v>
+        <v>5750</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
@@ -68707,10 +68707,10 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>275</v>
+        <v>575</v>
       </c>
       <c r="Q949" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,20 +68757,20 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K950" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L950" t="n">
-        <v>4200</v>
+        <v>7500</v>
       </c>
       <c r="M950" t="n">
-        <v>4095</v>
+        <v>7227</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
@@ -68779,10 +68779,10 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="Q950" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,7 +68829,7 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K951" t="n">
         <v>5500</v>
@@ -68838,11 +68838,11 @@
         <v>6000</v>
       </c>
       <c r="M951" t="n">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L952" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M952" t="n">
-        <v>5000</v>
+        <v>6238</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68976,17 +68976,17 @@
         <v>60</v>
       </c>
       <c r="K953" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L953" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M953" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
@@ -68995,10 +68995,10 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q953" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,20 +69045,20 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K954" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L954" t="n">
         <v>4200</v>
       </c>
-      <c r="L954" t="n">
-        <v>4300</v>
-      </c>
       <c r="M954" t="n">
-        <v>4254</v>
+        <v>4095</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
@@ -69067,10 +69067,10 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>213</v>
+        <v>410</v>
       </c>
       <c r="Q954" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,20 +69117,20 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K955" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L955" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>6231</v>
+        <v>5737</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
@@ -69139,10 +69139,10 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>623</v>
+        <v>382</v>
       </c>
       <c r="Q955" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,20 +69189,20 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K956" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L956" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M956" t="n">
-        <v>8731</v>
+        <v>5000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
@@ -69211,10 +69211,10 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>582</v>
+        <v>278</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K957" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L957" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>6233</v>
+        <v>5000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K958" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="L958" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M958" t="n">
-        <v>6000</v>
+        <v>4254</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,7 +69405,7 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K959" t="n">
         <v>6000</v>
@@ -69414,7 +69414,7 @@
         <v>6500</v>
       </c>
       <c r="M959" t="n">
-        <v>6238</v>
+        <v>6231</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q959" t="n">
         <v>10</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K960" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L960" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M960" t="n">
-        <v>7227</v>
+        <v>8731</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>482</v>
+        <v>582</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K961" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L961" t="n">
         <v>6500</v>
       </c>
       <c r="M961" t="n">
-        <v>6500</v>
+        <v>6233</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K962" t="n">
         <v>6000</v>
       </c>
       <c r="L962" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M962" t="n">
-        <v>6238</v>
+        <v>6000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,12 +69643,300 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q962" t="n">
         <v>20</v>
       </c>
       <c r="R962" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>3</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D963" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E963" t="n">
+        <v>5</v>
+      </c>
+      <c r="F963" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J963" t="n">
+        <v>105</v>
+      </c>
+      <c r="K963" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L963" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M963" t="n">
+        <v>6238</v>
+      </c>
+      <c r="N963" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O963" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P963" t="n">
+        <v>624</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>10</v>
+      </c>
+      <c r="R963" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>3</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D964" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E964" t="n">
+        <v>5</v>
+      </c>
+      <c r="F964" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J964" t="n">
+        <v>110</v>
+      </c>
+      <c r="K964" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L964" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M964" t="n">
+        <v>7227</v>
+      </c>
+      <c r="N964" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O964" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P964" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>15</v>
+      </c>
+      <c r="R964" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>3</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D965" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E965" t="n">
+        <v>5</v>
+      </c>
+      <c r="F965" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J965" t="n">
+        <v>60</v>
+      </c>
+      <c r="K965" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L965" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M965" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N965" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O965" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P965" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>18</v>
+      </c>
+      <c r="R965" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>3</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D966" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E966" t="n">
+        <v>5</v>
+      </c>
+      <c r="F966" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J966" t="n">
+        <v>105</v>
+      </c>
+      <c r="K966" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L966" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M966" t="n">
+        <v>6238</v>
+      </c>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O966" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P966" t="n">
+        <v>312</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>20</v>
+      </c>
+      <c r="R966" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R971"/>
+  <dimension ref="A1:R976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E750" t="n">
         <v>5</v>
@@ -54360,13 +54360,13 @@
         <v>140</v>
       </c>
       <c r="K750" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L750" t="n">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="M750" t="n">
-        <v>4171</v>
+        <v>4750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="Q750" t="n">
         <v>10</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E751" t="n">
         <v>5</v>
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K751" t="n">
         <v>5500</v>
       </c>
       <c r="L751" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M751" t="n">
-        <v>5638</v>
+        <v>5750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q751" t="n">
         <v>15</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E752" t="n">
         <v>5</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K752" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L752" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M752" t="n">
-        <v>5227</v>
+        <v>4269</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E753" t="n">
         <v>5</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K753" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L753" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>5500</v>
+        <v>4769</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E754" t="n">
         <v>5</v>
@@ -54648,13 +54648,13 @@
         <v>130</v>
       </c>
       <c r="K754" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L754" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M754" t="n">
-        <v>4408</v>
+        <v>4769</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Q754" t="n">
         <v>20</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E755" t="n">
         <v>5</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K755" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L755" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="M755" t="n">
-        <v>6762</v>
+        <v>4171</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>676</v>
+        <v>417</v>
       </c>
       <c r="Q755" t="n">
         <v>10</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E756" t="n">
         <v>5</v>
@@ -54792,13 +54792,13 @@
         <v>130</v>
       </c>
       <c r="K756" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L756" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M756" t="n">
-        <v>8769</v>
+        <v>5638</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>585</v>
+        <v>376</v>
       </c>
       <c r="Q756" t="n">
         <v>15</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E757" t="n">
         <v>5</v>
@@ -54861,16 +54861,16 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K757" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L757" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M757" t="n">
-        <v>6250</v>
+        <v>5227</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E758" t="n">
         <v>5</v>
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K758" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L758" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M758" t="n">
-        <v>6227</v>
+        <v>5500</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E759" t="n">
         <v>5</v>
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K759" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L759" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M759" t="n">
-        <v>6281</v>
+        <v>4408</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E760" t="n">
         <v>5</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K760" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L760" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M760" t="n">
-        <v>4737</v>
+        <v>6762</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>474</v>
+        <v>676</v>
       </c>
       <c r="Q760" t="n">
         <v>10</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E761" t="n">
         <v>5</v>
@@ -55149,16 +55149,16 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K761" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L761" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M761" t="n">
-        <v>6773</v>
+        <v>8769</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>452</v>
+        <v>585</v>
       </c>
       <c r="Q761" t="n">
         <v>15</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E762" t="n">
         <v>5</v>
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K762" t="n">
         <v>6000</v>
       </c>
       <c r="L762" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M762" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E763" t="n">
         <v>5</v>
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K763" t="n">
         <v>6000</v>
       </c>
       <c r="L763" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M763" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E764" t="n">
         <v>5</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K764" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L764" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M764" t="n">
-        <v>5214</v>
+        <v>6281</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="Q764" t="n">
         <v>20</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E765" t="n">
         <v>5</v>
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K765" t="n">
         <v>4500</v>
       </c>
       <c r="L765" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M765" t="n">
-        <v>4500</v>
+        <v>4737</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="Q765" t="n">
         <v>10</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E766" t="n">
         <v>5</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L766" t="n">
         <v>7000</v>
       </c>
       <c r="M766" t="n">
-        <v>7000</v>
+        <v>6773</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Q766" t="n">
         <v>15</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E767" t="n">
         <v>5</v>
@@ -55572,16 +55572,16 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K767" t="n">
         <v>6000</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E768" t="n">
         <v>5</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,7 +55653,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K768" t="n">
         <v>6000</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E769" t="n">
         <v>5</v>
@@ -55716,7 +55716,7 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -55725,20 +55725,20 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K769" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L769" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M769" t="n">
-        <v>6000</v>
+        <v>5214</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
@@ -55747,10 +55747,10 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="Q769" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55788,7 +55788,7 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -55797,20 +55797,20 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K770" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L770" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M770" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
@@ -55819,10 +55819,10 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q770" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E771" t="n">
         <v>5</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,20 +55869,20 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K771" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L771" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M771" t="n">
-        <v>5267</v>
+        <v>7000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
@@ -55891,10 +55891,10 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="Q771" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E772" t="n">
         <v>5</v>
@@ -55937,24 +55937,24 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K772" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L772" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M772" t="n">
-        <v>7292</v>
+        <v>6000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="Q772" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="K773" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L773" t="n">
         <v>6000</v>
       </c>
       <c r="M773" t="n">
-        <v>5727</v>
+        <v>6000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E774" t="n">
         <v>5</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K774" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L774" t="n">
         <v>6000</v>
       </c>
       <c r="M774" t="n">
-        <v>5786</v>
+        <v>6000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E775" t="n">
         <v>5</v>
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K775" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L775" t="n">
         <v>5000</v>
       </c>
       <c r="M775" t="n">
-        <v>4763</v>
+        <v>5000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E776" t="n">
         <v>5</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K776" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L776" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M776" t="n">
-        <v>4265</v>
+        <v>5267</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>426</v>
+        <v>527</v>
       </c>
       <c r="Q776" t="n">
         <v>10</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E777" t="n">
         <v>5</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="K777" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L777" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M777" t="n">
-        <v>5773</v>
+        <v>7292</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="Q777" t="n">
         <v>15</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E778" t="n">
         <v>5</v>
@@ -56364,25 +56364,25 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K778" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L778" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M778" t="n">
-        <v>5000</v>
+        <v>5727</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E779" t="n">
         <v>5</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L779" t="n">
         <v>6000</v>
       </c>
       <c r="M779" t="n">
-        <v>6000</v>
+        <v>5786</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E780" t="n">
         <v>5</v>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,20 +56517,20 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="K780" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L780" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M780" t="n">
-        <v>6000</v>
+        <v>4763</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
@@ -56539,10 +56539,10 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="Q780" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56580,7 +56580,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -56589,20 +56589,20 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K781" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L781" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M781" t="n">
-        <v>6000</v>
+        <v>4265</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
@@ -56611,10 +56611,10 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>333</v>
+        <v>426</v>
       </c>
       <c r="Q781" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,20 +56661,20 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K782" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="L782" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M782" t="n">
-        <v>4903</v>
+        <v>5773</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
@@ -56683,10 +56683,10 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="Q782" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,20 +56733,20 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K783" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L783" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M783" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
@@ -56755,10 +56755,10 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q783" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E784" t="n">
         <v>5</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,32 +56805,32 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K784" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L784" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M784" t="n">
-        <v>4239</v>
+        <v>6000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E785" t="n">
         <v>5</v>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,32 +56877,32 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="K785" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L785" t="n">
         <v>6000</v>
       </c>
       <c r="M785" t="n">
-        <v>5740</v>
+        <v>6000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="Q785" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E786" t="n">
         <v>5</v>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K786" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L786" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M786" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E787" t="n">
         <v>5</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,20 +57021,20 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K787" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="L787" t="n">
         <v>5000</v>
       </c>
       <c r="M787" t="n">
-        <v>5000</v>
+        <v>4903</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
@@ -57043,10 +57043,10 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="Q787" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E788" t="n">
         <v>5</v>
@@ -57089,24 +57089,24 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K788" t="n">
         <v>4000</v>
       </c>
       <c r="L788" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="M788" t="n">
-        <v>4150</v>
+        <v>4000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
@@ -57115,10 +57115,10 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="Q788" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E789" t="n">
         <v>5</v>
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K789" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L789" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M789" t="n">
-        <v>6227</v>
+        <v>4239</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>623</v>
+        <v>424</v>
       </c>
       <c r="Q789" t="n">
         <v>10</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E790" t="n">
         <v>5</v>
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K790" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L790" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M790" t="n">
-        <v>7239</v>
+        <v>5740</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="Q790" t="n">
         <v>15</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E791" t="n">
         <v>5</v>
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E792" t="n">
         <v>5</v>
@@ -57381,16 +57381,16 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K792" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L792" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E793" t="n">
         <v>5</v>
@@ -57453,16 +57453,16 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K793" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L793" t="n">
-        <v>6300</v>
+        <v>4300</v>
       </c>
       <c r="M793" t="n">
-        <v>6138</v>
+        <v>4150</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E794" t="n">
         <v>5</v>
@@ -57525,7 +57525,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K794" t="n">
         <v>6000</v>
@@ -57534,7 +57534,7 @@
         <v>6500</v>
       </c>
       <c r="M794" t="n">
-        <v>6269</v>
+        <v>6227</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q794" t="n">
         <v>10</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E795" t="n">
         <v>5</v>
@@ -57600,13 +57600,13 @@
         <v>115</v>
       </c>
       <c r="K795" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L795" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M795" t="n">
-        <v>8739</v>
+        <v>7239</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="Q795" t="n">
         <v>15</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E796" t="n">
         <v>5</v>
@@ -57669,7 +57669,7 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K796" t="n">
         <v>6000</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E797" t="n">
         <v>5</v>
@@ -57741,7 +57741,7 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K797" t="n">
         <v>6000</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E798" t="n">
         <v>5</v>
@@ -57816,13 +57816,13 @@
         <v>130</v>
       </c>
       <c r="K798" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M798" t="n">
-        <v>5908</v>
+        <v>6138</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E799" t="n">
         <v>5</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M799" t="n">
-        <v>4234</v>
+        <v>6269</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>423</v>
+        <v>627</v>
       </c>
       <c r="Q799" t="n">
         <v>10</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E800" t="n">
         <v>5</v>
@@ -57960,13 +57960,13 @@
         <v>115</v>
       </c>
       <c r="K800" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L800" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M800" t="n">
-        <v>5717</v>
+        <v>8739</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>381</v>
+        <v>583</v>
       </c>
       <c r="Q800" t="n">
         <v>15</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E802" t="n">
         <v>5</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,20 +58101,20 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K802" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L802" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M802" t="n">
-        <v>4625</v>
+        <v>6000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
@@ -58123,10 +58123,10 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="Q802" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E803" t="n">
         <v>5</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,20 +58173,20 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K803" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="L803" t="n">
         <v>6000</v>
       </c>
       <c r="M803" t="n">
-        <v>5735</v>
+        <v>5908</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
@@ -58195,10 +58195,10 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>574</v>
+        <v>295</v>
       </c>
       <c r="Q803" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E804" t="n">
         <v>5</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,20 +58245,20 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K804" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M804" t="n">
-        <v>6269</v>
+        <v>4234</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O804" t="inlineStr">
@@ -58267,10 +58267,10 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q804" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R804" t="inlineStr">
         <is>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E805" t="n">
         <v>5</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,20 +58317,20 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K805" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L805" t="n">
         <v>6000</v>
       </c>
       <c r="M805" t="n">
-        <v>6000</v>
+        <v>5717</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
@@ -58339,10 +58339,10 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="Q805" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R805" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E806" t="n">
         <v>5</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M806" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E807" t="n">
         <v>5</v>
@@ -58464,13 +58464,13 @@
         <v>120</v>
       </c>
       <c r="K807" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L807" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M807" t="n">
-        <v>5750</v>
+        <v>4625</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E808" t="n">
         <v>5</v>
@@ -58533,7 +58533,7 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="K808" t="n">
         <v>5500</v>
@@ -58542,7 +58542,7 @@
         <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>5721</v>
+        <v>5735</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q808" t="n">
         <v>10</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E809" t="n">
         <v>5</v>
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K809" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L809" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M809" t="n">
-        <v>7773</v>
+        <v>6269</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="Q809" t="n">
         <v>15</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E810" t="n">
         <v>5</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E811" t="n">
         <v>5</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,20 +58749,20 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K811" t="n">
         <v>6000</v>
       </c>
       <c r="L811" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M811" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
@@ -58771,10 +58771,10 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="Q811" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E812" t="n">
         <v>5</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,7 +58821,7 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K812" t="n">
         <v>5500</v>
@@ -58830,11 +58830,11 @@
         <v>6000</v>
       </c>
       <c r="M812" t="n">
-        <v>5738</v>
+        <v>5750</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
@@ -58843,10 +58843,10 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>574</v>
+        <v>288</v>
       </c>
       <c r="Q812" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E813" t="n">
         <v>5</v>
@@ -58884,7 +58884,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -58893,20 +58893,20 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K813" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L813" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="M813" t="n">
-        <v>9231</v>
+        <v>5721</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
@@ -58915,10 +58915,10 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="Q813" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E814" t="n">
         <v>5</v>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,20 +58965,20 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K814" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L814" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M814" t="n">
-        <v>6240</v>
+        <v>7773</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
@@ -58987,10 +58987,10 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>347</v>
+        <v>518</v>
       </c>
       <c r="Q814" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E815" t="n">
         <v>5</v>
@@ -59037,7 +59037,7 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K815" t="n">
         <v>6000</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E816" t="n">
         <v>5</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K816" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L816" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M816" t="n">
-        <v>5761</v>
+        <v>6250</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E817" t="n">
         <v>5</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K817" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L817" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M817" t="n">
-        <v>6239</v>
+        <v>5738</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="Q817" t="n">
         <v>10</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E818" t="n">
         <v>5</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K818" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L818" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="M818" t="n">
-        <v>7260</v>
+        <v>9231</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="Q818" t="n">
         <v>15</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E819" t="n">
         <v>5</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K819" t="n">
         <v>6000</v>
       </c>
       <c r="L819" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M819" t="n">
-        <v>6000</v>
+        <v>6240</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E820" t="n">
         <v>5</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E821" t="n">
         <v>5</v>
@@ -59469,7 +59469,7 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="K821" t="n">
         <v>5500</v>
@@ -59478,7 +59478,7 @@
         <v>6000</v>
       </c>
       <c r="M821" t="n">
-        <v>5750</v>
+        <v>5761</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E822" t="n">
         <v>5</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K822" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L822" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M822" t="n">
-        <v>5773</v>
+        <v>6239</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>577</v>
+        <v>624</v>
       </c>
       <c r="Q822" t="n">
         <v>10</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E823" t="n">
         <v>5</v>
@@ -59613,7 +59613,7 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K823" t="n">
         <v>7000</v>
@@ -59622,7 +59622,7 @@
         <v>7500</v>
       </c>
       <c r="M823" t="n">
-        <v>7239</v>
+        <v>7260</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q823" t="n">
         <v>15</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E824" t="n">
         <v>5</v>
@@ -59685,7 +59685,7 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K824" t="n">
         <v>6000</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E825" t="n">
         <v>5</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E826" t="n">
         <v>5</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K826" t="n">
         <v>5500</v>
       </c>
       <c r="L826" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="M826" t="n">
-        <v>5650</v>
+        <v>5750</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E827" t="n">
         <v>5</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K827" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L827" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M827" t="n">
-        <v>6262</v>
+        <v>5773</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="Q827" t="n">
         <v>10</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E828" t="n">
         <v>5</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K828" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L828" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M828" t="n">
-        <v>8704</v>
+        <v>7239</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>580</v>
+        <v>483</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E829" t="n">
         <v>5</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E830" t="n">
         <v>5</v>
@@ -60117,7 +60117,7 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K830" t="n">
         <v>6000</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E831" t="n">
         <v>5</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K831" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L831" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="M831" t="n">
-        <v>6262</v>
+        <v>5650</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E832" t="n">
         <v>5</v>
@@ -60261,7 +60261,7 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K832" t="n">
         <v>6000</v>
@@ -60270,7 +60270,7 @@
         <v>6500</v>
       </c>
       <c r="M832" t="n">
-        <v>6286</v>
+        <v>6262</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q832" t="n">
         <v>10</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E833" t="n">
         <v>5</v>
@@ -60333,7 +60333,7 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K833" t="n">
         <v>8500</v>
@@ -60342,7 +60342,7 @@
         <v>9000</v>
       </c>
       <c r="M833" t="n">
-        <v>8745</v>
+        <v>8704</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q833" t="n">
         <v>15</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E834" t="n">
         <v>5</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K834" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L834" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M834" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E835" t="n">
         <v>5</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,20 +60477,20 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="K835" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L835" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>6741</v>
+        <v>6000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
@@ -60499,10 +60499,10 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q835" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E836" t="n">
         <v>5</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,7 +60549,7 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K836" t="n">
         <v>6000</v>
@@ -60558,11 +60558,11 @@
         <v>6500</v>
       </c>
       <c r="M836" t="n">
-        <v>6229</v>
+        <v>6262</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
@@ -60571,10 +60571,10 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>623</v>
+        <v>313</v>
       </c>
       <c r="Q836" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E837" t="n">
         <v>5</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,20 +60621,20 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="K837" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L837" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M837" t="n">
-        <v>8765</v>
+        <v>6286</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
@@ -60643,10 +60643,10 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="Q837" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E838" t="n">
         <v>5</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,20 +60693,20 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="K838" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L838" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M838" t="n">
-        <v>6500</v>
+        <v>8745</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
@@ -60715,10 +60715,10 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="Q838" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,20 +60765,20 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K839" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L839" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M839" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
@@ -60787,10 +60787,10 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q839" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E840" t="n">
         <v>5</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,20 +60837,20 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="K840" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L840" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M840" t="n">
-        <v>5500</v>
+        <v>6741</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
@@ -60859,10 +60859,10 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>550</v>
+        <v>337</v>
       </c>
       <c r="Q840" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E841" t="n">
         <v>5</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,7 +60909,7 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K841" t="n">
         <v>6000</v>
@@ -60918,11 +60918,11 @@
         <v>6500</v>
       </c>
       <c r="M841" t="n">
-        <v>6250</v>
+        <v>6229</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
@@ -60931,10 +60931,10 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>417</v>
+        <v>623</v>
       </c>
       <c r="Q841" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E842" t="n">
         <v>5</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,20 +60981,20 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K842" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L842" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M842" t="n">
-        <v>5500</v>
+        <v>8765</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
@@ -61003,10 +61003,10 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>306</v>
+        <v>584</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E843" t="n">
         <v>5</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K843" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L843" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M843" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61128,13 +61128,13 @@
         <v>130</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L844" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M844" t="n">
-        <v>5231</v>
+        <v>5769</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K845" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L845" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="M845" t="n">
-        <v>6150</v>
+        <v>5500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="Q845" t="n">
         <v>10</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K846" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L846" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M846" t="n">
-        <v>7200</v>
+        <v>6250</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="Q846" t="n">
         <v>15</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K847" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L847" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M847" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61413,7 +61413,7 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K848" t="n">
         <v>6000</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E849" t="n">
         <v>5</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,20 +61485,20 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K849" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L849" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M849" t="n">
-        <v>6000</v>
+        <v>5231</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -61507,10 +61507,10 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,20 +61557,20 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K850" t="n">
         <v>6000</v>
       </c>
       <c r="L850" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M850" t="n">
-        <v>6000</v>
+        <v>6150</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
@@ -61579,10 +61579,10 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>300</v>
+        <v>615</v>
       </c>
       <c r="Q850" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,20 +61629,20 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K851" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L851" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M851" t="n">
-        <v>5273</v>
+        <v>7200</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
@@ -61651,10 +61651,10 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="Q851" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,20 +61701,20 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K852" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L852" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M852" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
@@ -61723,10 +61723,10 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61773,7 +61773,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K853" t="n">
         <v>6000</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E854" t="n">
         <v>5</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E855" t="n">
         <v>5</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K855" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L855" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M855" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -61992,13 +61992,13 @@
         <v>110</v>
       </c>
       <c r="K856" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L856" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M856" t="n">
-        <v>4136</v>
+        <v>5273</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="Q856" t="n">
         <v>10</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K857" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L857" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M857" t="n">
-        <v>5759</v>
+        <v>8250</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K858" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L858" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M858" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K859" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L859" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M859" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K860" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L860" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M860" t="n">
-        <v>4138</v>
+        <v>5500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K861" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M861" t="n">
-        <v>6238</v>
+        <v>4136</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>624</v>
+        <v>414</v>
       </c>
       <c r="Q861" t="n">
         <v>10</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K862" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L862" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M862" t="n">
-        <v>7773</v>
+        <v>5759</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>518</v>
+        <v>384</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K863" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L863" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M863" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K864" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L864" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M864" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K865" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L865" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M865" t="n">
-        <v>5773</v>
+        <v>4138</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K866" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L866" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M866" t="n">
-        <v>4144</v>
+        <v>6238</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>414</v>
+        <v>624</v>
       </c>
       <c r="Q866" t="n">
         <v>10</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K867" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L867" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M867" t="n">
-        <v>6000</v>
+        <v>7773</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>400</v>
+        <v>518</v>
       </c>
       <c r="Q867" t="n">
         <v>15</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62856,13 +62856,13 @@
         <v>60</v>
       </c>
       <c r="K868" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L868" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M868" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K869" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L869" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K870" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L870" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M870" t="n">
-        <v>4143</v>
+        <v>5773</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K871" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L871" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M871" t="n">
-        <v>5786</v>
+        <v>4144</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>579</v>
+        <v>414</v>
       </c>
       <c r="Q871" t="n">
         <v>10</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K872" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L872" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M872" t="n">
-        <v>7231</v>
+        <v>6000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K873" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L873" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M873" t="n">
-        <v>6144</v>
+        <v>5000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K874" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L874" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M874" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L875" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M875" t="n">
-        <v>6000</v>
+        <v>4143</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63504,13 +63504,13 @@
         <v>130</v>
       </c>
       <c r="K877" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L877" t="n">
         <v>7500</v>
       </c>
-      <c r="L877" t="n">
-        <v>8000</v>
-      </c>
       <c r="M877" t="n">
-        <v>7731</v>
+        <v>7231</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K878" t="n">
         <v>6000</v>
       </c>
       <c r="L878" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M878" t="n">
-        <v>6231</v>
+        <v>6144</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K879" t="n">
         <v>6000</v>
       </c>
       <c r="L879" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M879" t="n">
-        <v>6162</v>
+        <v>6000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K880" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L880" t="n">
         <v>6000</v>
       </c>
       <c r="M880" t="n">
-        <v>5908</v>
+        <v>6000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K881" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L881" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M881" t="n">
-        <v>6262</v>
+        <v>5786</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="Q881" t="n">
         <v>10</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K882" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L882" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>8762</v>
+        <v>7731</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63933,7 +63933,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K883" t="n">
         <v>6000</v>
@@ -63942,7 +63942,7 @@
         <v>6500</v>
       </c>
       <c r="M883" t="n">
-        <v>6260</v>
+        <v>6231</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K884" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L884" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M884" t="n">
-        <v>6500</v>
+        <v>6162</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K885" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="L885" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>8739</v>
+        <v>5908</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K886" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L886" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M886" t="n">
-        <v>4136</v>
+        <v>6262</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>414</v>
+        <v>626</v>
       </c>
       <c r="Q886" t="n">
         <v>10</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K887" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L887" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M887" t="n">
-        <v>5763</v>
+        <v>8762</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K888" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L888" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M888" t="n">
-        <v>5000</v>
+        <v>6260</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64368,13 +64368,13 @@
         <v>60</v>
       </c>
       <c r="K889" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L889" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M889" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K890" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L890" t="n">
-        <v>4300</v>
+        <v>9000</v>
       </c>
       <c r="M890" t="n">
-        <v>4164</v>
+        <v>8739</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>208</v>
+        <v>437</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K891" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L891" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M891" t="n">
-        <v>3727</v>
+        <v>4136</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Q891" t="n">
         <v>10</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K892" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L892" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M892" t="n">
-        <v>5144</v>
+        <v>5763</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64653,20 +64653,20 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K893" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L893" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M893" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
@@ -64675,10 +64675,10 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q893" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64728,17 +64728,17 @@
         <v>60</v>
       </c>
       <c r="K894" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L894" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q894" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K895" t="n">
         <v>4000</v>
       </c>
       <c r="L895" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M895" t="n">
-        <v>4000</v>
+        <v>4164</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K896" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L896" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M896" t="n">
-        <v>4731</v>
+        <v>3727</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="Q896" t="n">
         <v>10</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K897" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L897" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M897" t="n">
-        <v>5739</v>
+        <v>5144</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65013,20 +65013,20 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K898" t="n">
         <v>4500</v>
       </c>
       <c r="L898" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M898" t="n">
-        <v>4650</v>
+        <v>4500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
@@ -65035,10 +65035,10 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Q898" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65098,7 +65098,7 @@
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
@@ -65107,10 +65107,10 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q899" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K900" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L900" t="n">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="M900" t="n">
-        <v>6144</v>
+        <v>4000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>614</v>
+        <v>200</v>
       </c>
       <c r="Q900" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,20 +65229,20 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K901" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L901" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M901" t="n">
-        <v>7260</v>
+        <v>4731</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,10 +65251,10 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,20 +65301,20 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K902" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L902" t="n">
         <v>6000</v>
       </c>
       <c r="M902" t="n">
-        <v>6000</v>
+        <v>5739</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
@@ -65323,10 +65323,10 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="Q902" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L903" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M903" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65448,17 +65448,17 @@
         <v>60</v>
       </c>
       <c r="K904" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M904" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
@@ -65470,7 +65470,7 @@
         <v>250</v>
       </c>
       <c r="Q904" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K905" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L905" t="n">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="M905" t="n">
-        <v>4157</v>
+        <v>6144</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>416</v>
+        <v>614</v>
       </c>
       <c r="Q905" t="n">
         <v>10</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K906" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L906" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M906" t="n">
-        <v>6250</v>
+        <v>7260</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K907" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L907" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M907" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65736,13 +65736,13 @@
         <v>60</v>
       </c>
       <c r="K908" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L908" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M908" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65808,13 +65808,13 @@
         <v>60</v>
       </c>
       <c r="K909" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L909" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M909" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K911" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M911" t="n">
-        <v>5776</v>
+        <v>6250</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66021,7 +66021,7 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K912" t="n">
         <v>5000</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66096,13 +66096,13 @@
         <v>60</v>
       </c>
       <c r="K913" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M913" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K914" t="n">
         <v>4000</v>
       </c>
       <c r="L914" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="M914" t="n">
-        <v>4143</v>
+        <v>4000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K915" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L915" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M915" t="n">
-        <v>6000</v>
+        <v>4157</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>600</v>
+        <v>416</v>
       </c>
       <c r="Q915" t="n">
         <v>10</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="K916" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L916" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M916" t="n">
-        <v>7258</v>
+        <v>5776</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66384,13 +66384,13 @@
         <v>60</v>
       </c>
       <c r="K917" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L917" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M917" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66456,13 +66456,13 @@
         <v>60</v>
       </c>
       <c r="K918" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L918" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M918" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K919" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L919" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="M919" t="n">
-        <v>5286</v>
+        <v>4143</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K920" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L920" t="n">
         <v>6000</v>
       </c>
       <c r="M920" t="n">
-        <v>5792</v>
+        <v>6000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="Q920" t="n">
         <v>10</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66669,7 +66669,7 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K921" t="n">
         <v>7000</v>
@@ -66678,7 +66678,7 @@
         <v>7500</v>
       </c>
       <c r="M921" t="n">
-        <v>7292</v>
+        <v>7258</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K922" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L922" t="n">
         <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>5773</v>
+        <v>6000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,20 +66813,20 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K923" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L923" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M923" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="Q923" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,20 +66885,20 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K924" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L924" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M924" t="n">
-        <v>4727</v>
+        <v>5286</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>473</v>
+        <v>264</v>
       </c>
       <c r="Q924" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,20 +66957,20 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K925" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L925" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>6727</v>
+        <v>5792</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="Q925" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,20 +67029,20 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K926" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L926" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M926" t="n">
-        <v>6000</v>
+        <v>7292</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K927" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L927" t="n">
         <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>6000</v>
+        <v>5773</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K928" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L928" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M928" t="n">
-        <v>4391</v>
+        <v>5500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67245,7 +67245,7 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K929" t="n">
         <v>4500</v>
@@ -67254,7 +67254,7 @@
         <v>5000</v>
       </c>
       <c r="M929" t="n">
-        <v>4762</v>
+        <v>4727</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q929" t="n">
         <v>10</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67317,7 +67317,7 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K930" t="n">
         <v>6500</v>
@@ -67326,7 +67326,7 @@
         <v>7000</v>
       </c>
       <c r="M930" t="n">
-        <v>6762</v>
+        <v>6727</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K931" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L931" t="n">
         <v>6000</v>
       </c>
       <c r="M931" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67461,7 +67461,7 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K932" t="n">
         <v>6000</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67536,13 +67536,13 @@
         <v>110</v>
       </c>
       <c r="K933" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L933" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M933" t="n">
-        <v>5227</v>
+        <v>4391</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K934" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M934" t="n">
-        <v>3904</v>
+        <v>4762</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="Q934" t="n">
         <v>10</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K935" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L935" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M935" t="n">
-        <v>5273</v>
+        <v>6762</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K936" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L936" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M936" t="n">
-        <v>4500</v>
+        <v>5738</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K937" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M937" t="n">
-        <v>4783</v>
+        <v>6000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,20 +67893,20 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K938" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L938" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M938" t="n">
-        <v>4500</v>
+        <v>5227</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
@@ -67915,10 +67915,10 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,20 +67965,20 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K939" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L939" t="n">
         <v>4000</v>
       </c>
-      <c r="L939" t="n">
-        <v>4300</v>
-      </c>
       <c r="M939" t="n">
-        <v>4129</v>
+        <v>3904</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
@@ -67987,10 +67987,10 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="Q939" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,20 +68037,20 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K940" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L940" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M940" t="n">
-        <v>4656</v>
+        <v>5273</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,10 +68059,10 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="Q940" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68105,24 +68105,24 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K941" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L941" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M941" t="n">
-        <v>6783</v>
+        <v>4500</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>452</v>
+        <v>250</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L942" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>6000</v>
+        <v>4783</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K943" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L943" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M943" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="K944" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L944" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="M944" t="n">
-        <v>5265</v>
+        <v>4129</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K945" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M945" t="n">
-        <v>5762</v>
+        <v>4656</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>576</v>
+        <v>466</v>
       </c>
       <c r="Q945" t="n">
         <v>10</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68469,7 +68469,7 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K946" t="n">
         <v>6500</v>
@@ -68478,7 +68478,7 @@
         <v>7000</v>
       </c>
       <c r="M946" t="n">
-        <v>6738</v>
+        <v>6783</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,20 +68613,20 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K948" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L948" t="n">
         <v>6000</v>
       </c>
       <c r="M948" t="n">
-        <v>5739</v>
+        <v>6000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
@@ -68635,10 +68635,10 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q948" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,20 +68685,20 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="K949" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L949" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M949" t="n">
-        <v>6236</v>
+        <v>5265</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
@@ -68707,10 +68707,10 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>624</v>
+        <v>263</v>
       </c>
       <c r="Q949" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,20 +68757,20 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K950" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L950" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M950" t="n">
-        <v>8792</v>
+        <v>5762</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
@@ -68779,10 +68779,10 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,20 +68829,20 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K951" t="n">
         <v>6500</v>
       </c>
       <c r="L951" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M951" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K952" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L952" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M952" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K953" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L953" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M953" t="n">
-        <v>6750</v>
+        <v>5739</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K954" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L954" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M954" t="n">
-        <v>5750</v>
+        <v>6236</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="Q954" t="n">
         <v>10</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K955" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L955" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M955" t="n">
-        <v>7227</v>
+        <v>8792</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K956" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L956" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M956" t="n">
-        <v>5739</v>
+        <v>6500</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K957" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L957" t="n">
         <v>6500</v>
       </c>
       <c r="M957" t="n">
-        <v>6238</v>
+        <v>6500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K958" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L958" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M958" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K959" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L959" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M959" t="n">
-        <v>4095</v>
+        <v>5750</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="Q959" t="n">
         <v>10</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K960" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L960" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M960" t="n">
-        <v>5737</v>
+        <v>7227</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>382</v>
+        <v>482</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K961" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L961" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M961" t="n">
-        <v>5000</v>
+        <v>5739</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K962" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L962" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M962" t="n">
-        <v>5000</v>
+        <v>6238</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K963" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="L963" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M963" t="n">
-        <v>4254</v>
+        <v>5500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K964" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L964" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="M964" t="n">
-        <v>6231</v>
+        <v>4095</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>623</v>
+        <v>410</v>
       </c>
       <c r="Q964" t="n">
         <v>10</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K965" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L965" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M965" t="n">
-        <v>8731</v>
+        <v>5737</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K966" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L966" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M966" t="n">
-        <v>6233</v>
+        <v>5000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69984,17 +69984,17 @@
         <v>60</v>
       </c>
       <c r="K967" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L967" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M967" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
@@ -70003,10 +70003,10 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q967" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,20 +70053,20 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K968" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="L968" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M968" t="n">
-        <v>6238</v>
+        <v>4254</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>624</v>
+        <v>213</v>
       </c>
       <c r="Q968" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,20 +70125,20 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K969" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L969" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M969" t="n">
-        <v>7227</v>
+        <v>6231</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>482</v>
+        <v>623</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,20 +70197,20 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K970" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L970" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M970" t="n">
-        <v>6500</v>
+        <v>8731</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>361</v>
+        <v>582</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,7 +70269,7 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K971" t="n">
         <v>6000</v>
@@ -70278,25 +70278,385 @@
         <v>6500</v>
       </c>
       <c r="M971" t="n">
+        <v>6233</v>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P971" t="n">
+        <v>346</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>18</v>
+      </c>
+      <c r="R971" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>3</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D972" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E972" t="n">
+        <v>5</v>
+      </c>
+      <c r="F972" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
+        <v>60</v>
+      </c>
+      <c r="K972" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L972" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M972" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O972" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P972" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>20</v>
+      </c>
+      <c r="R972" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>3</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D973" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E973" t="n">
+        <v>5</v>
+      </c>
+      <c r="F973" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>105</v>
+      </c>
+      <c r="K973" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L973" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M973" t="n">
         <v>6238</v>
       </c>
-      <c r="N971" t="inlineStr">
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P973" t="n">
+        <v>624</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>10</v>
+      </c>
+      <c r="R973" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>3</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D974" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E974" t="n">
+        <v>5</v>
+      </c>
+      <c r="F974" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J974" t="n">
+        <v>110</v>
+      </c>
+      <c r="K974" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L974" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M974" t="n">
+        <v>7227</v>
+      </c>
+      <c r="N974" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O974" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P974" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>15</v>
+      </c>
+      <c r="R974" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>3</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D975" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E975" t="n">
+        <v>5</v>
+      </c>
+      <c r="F975" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J975" t="n">
+        <v>60</v>
+      </c>
+      <c r="K975" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L975" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M975" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N975" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O975" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P975" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>18</v>
+      </c>
+      <c r="R975" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>3</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D976" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E976" t="n">
+        <v>5</v>
+      </c>
+      <c r="F976" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J976" t="n">
+        <v>105</v>
+      </c>
+      <c r="K976" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L976" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M976" t="n">
+        <v>6238</v>
+      </c>
+      <c r="N976" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O971" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P971" t="n">
+      <c r="O976" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P976" t="n">
         <v>312</v>
       </c>
-      <c r="Q971" t="n">
+      <c r="Q976" t="n">
         <v>20</v>
       </c>
-      <c r="R971" t="inlineStr">
+      <c r="R976" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="K870" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L870" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M870" t="n">
-        <v>5500</v>
+        <v>4769</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="Q870" t="n">
         <v>10</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K871" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L871" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M871" t="n">
-        <v>6250</v>
+        <v>5761</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K872" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L872" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M872" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K873" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L873" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M873" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K874" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L874" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M874" t="n">
-        <v>5231</v>
+        <v>4239</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L875" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="M875" t="n">
-        <v>6150</v>
+        <v>5500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="Q875" t="n">
         <v>10</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K876" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L876" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M876" t="n">
-        <v>7200</v>
+        <v>6250</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="Q876" t="n">
         <v>15</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K877" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L877" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M877" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63573,7 +63573,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K878" t="n">
         <v>6000</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,20 +63645,20 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K879" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L879" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M879" t="n">
-        <v>6000</v>
+        <v>5231</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
@@ -63667,10 +63667,10 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,20 +63717,20 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K880" t="n">
         <v>6000</v>
       </c>
       <c r="L880" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M880" t="n">
-        <v>6000</v>
+        <v>6150</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
@@ -63739,10 +63739,10 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>300</v>
+        <v>615</v>
       </c>
       <c r="Q880" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,20 +63789,20 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K881" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L881" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M881" t="n">
-        <v>5273</v>
+        <v>7200</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
@@ -63811,10 +63811,10 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="Q881" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,20 +63861,20 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K882" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L882" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M882" t="n">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
@@ -63883,10 +63883,10 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63933,7 +63933,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K883" t="n">
         <v>6000</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K885" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L885" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64152,13 +64152,13 @@
         <v>110</v>
       </c>
       <c r="K886" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L886" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M886" t="n">
-        <v>4136</v>
+        <v>5273</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="Q886" t="n">
         <v>10</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K887" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L887" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M887" t="n">
-        <v>5759</v>
+        <v>8250</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K888" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L888" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M888" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K889" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L889" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M889" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K890" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L890" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M890" t="n">
-        <v>4138</v>
+        <v>5500</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L891" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M891" t="n">
-        <v>6238</v>
+        <v>4136</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>624</v>
+        <v>414</v>
       </c>
       <c r="Q891" t="n">
         <v>10</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K892" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L892" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M892" t="n">
-        <v>7773</v>
+        <v>5759</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>518</v>
+        <v>384</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K893" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L893" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M893" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K895" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L895" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M895" t="n">
-        <v>5773</v>
+        <v>4138</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K896" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L896" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M896" t="n">
-        <v>4144</v>
+        <v>6238</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>414</v>
+        <v>624</v>
       </c>
       <c r="Q896" t="n">
         <v>10</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K897" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L897" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M897" t="n">
-        <v>6000</v>
+        <v>7773</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>400</v>
+        <v>518</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65016,13 +65016,13 @@
         <v>60</v>
       </c>
       <c r="K898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M898" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K899" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L899" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M899" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K900" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L900" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M900" t="n">
-        <v>4143</v>
+        <v>5773</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K901" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L901" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M901" t="n">
-        <v>5786</v>
+        <v>4144</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>579</v>
+        <v>414</v>
       </c>
       <c r="Q901" t="n">
         <v>10</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K902" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L902" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M902" t="n">
-        <v>7231</v>
+        <v>6000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L903" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M903" t="n">
-        <v>6144</v>
+        <v>5000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K905" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L905" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M905" t="n">
-        <v>6000</v>
+        <v>4143</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E907" t="n">
         <v>5</v>
@@ -65664,13 +65664,13 @@
         <v>130</v>
       </c>
       <c r="K907" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L907" t="n">
         <v>7500</v>
       </c>
-      <c r="L907" t="n">
-        <v>8000</v>
-      </c>
       <c r="M907" t="n">
-        <v>7731</v>
+        <v>7231</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K908" t="n">
         <v>6000</v>
       </c>
       <c r="L908" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M908" t="n">
-        <v>6231</v>
+        <v>6144</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K909" t="n">
         <v>6000</v>
       </c>
       <c r="L909" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M909" t="n">
-        <v>6162</v>
+        <v>6000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K910" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
         <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>5908</v>
+        <v>6000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K911" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L911" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M911" t="n">
-        <v>6262</v>
+        <v>5786</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="Q911" t="n">
         <v>10</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K912" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L912" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M912" t="n">
-        <v>8762</v>
+        <v>7731</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="Q912" t="n">
         <v>15</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66093,7 +66093,7 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K913" t="n">
         <v>6000</v>
@@ -66102,7 +66102,7 @@
         <v>6500</v>
       </c>
       <c r="M913" t="n">
-        <v>6260</v>
+        <v>6231</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K914" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L914" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="M914" t="n">
-        <v>6500</v>
+        <v>6162</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K915" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="L915" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>8739</v>
+        <v>5908</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K916" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L916" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M916" t="n">
-        <v>4136</v>
+        <v>6262</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>414</v>
+        <v>626</v>
       </c>
       <c r="Q916" t="n">
         <v>10</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K917" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L917" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M917" t="n">
-        <v>5763</v>
+        <v>8762</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K918" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L918" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M918" t="n">
-        <v>5000</v>
+        <v>6260</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66528,13 +66528,13 @@
         <v>60</v>
       </c>
       <c r="K919" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L919" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M919" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="L920" t="n">
-        <v>4300</v>
+        <v>9000</v>
       </c>
       <c r="M920" t="n">
-        <v>4164</v>
+        <v>8739</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>208</v>
+        <v>437</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="K921" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L921" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M921" t="n">
-        <v>3727</v>
+        <v>4136</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Q921" t="n">
         <v>10</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K922" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L922" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>5144</v>
+        <v>5763</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66813,20 +66813,20 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K923" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L923" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M923" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q923" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66888,17 +66888,17 @@
         <v>60</v>
       </c>
       <c r="K924" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L924" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M924" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q924" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K925" t="n">
         <v>4000</v>
       </c>
       <c r="L925" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M925" t="n">
-        <v>4000</v>
+        <v>4164</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K926" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L926" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M926" t="n">
-        <v>4731</v>
+        <v>3727</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="Q926" t="n">
         <v>10</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K927" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M927" t="n">
-        <v>5739</v>
+        <v>5144</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67173,20 +67173,20 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K928" t="n">
         <v>4500</v>
       </c>
       <c r="L928" t="n">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="M928" t="n">
-        <v>4650</v>
+        <v>4500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67258,7 +67258,7 @@
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
@@ -67267,10 +67267,10 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,20 +67317,20 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K930" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="M930" t="n">
-        <v>6144</v>
+        <v>4000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
@@ -67339,10 +67339,10 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>614</v>
+        <v>200</v>
       </c>
       <c r="Q930" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,20 +67389,20 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K931" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L931" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M931" t="n">
-        <v>7260</v>
+        <v>4731</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q931" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,20 +67461,20 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K932" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L932" t="n">
         <v>6000</v>
       </c>
       <c r="M932" t="n">
-        <v>6000</v>
+        <v>5739</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K933" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L933" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M933" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67608,17 +67608,17 @@
         <v>60</v>
       </c>
       <c r="K934" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L934" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M934" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
@@ -67630,7 +67630,7 @@
         <v>250</v>
       </c>
       <c r="Q934" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L935" t="n">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="M935" t="n">
-        <v>4157</v>
+        <v>6144</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>416</v>
+        <v>614</v>
       </c>
       <c r="Q935" t="n">
         <v>10</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K936" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L936" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M936" t="n">
-        <v>6250</v>
+        <v>7260</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M937" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67896,13 +67896,13 @@
         <v>60</v>
       </c>
       <c r="K938" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L938" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M938" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67968,13 +67968,13 @@
         <v>60</v>
       </c>
       <c r="K939" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L939" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M939" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K941" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L941" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M941" t="n">
-        <v>5776</v>
+        <v>6250</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,7 +68181,7 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K942" t="n">
         <v>5000</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68256,13 +68256,13 @@
         <v>60</v>
       </c>
       <c r="K943" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L943" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M943" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K944" t="n">
         <v>4000</v>
       </c>
       <c r="L944" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="M944" t="n">
-        <v>4143</v>
+        <v>4000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K945" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M945" t="n">
-        <v>6000</v>
+        <v>4157</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>600</v>
+        <v>416</v>
       </c>
       <c r="Q945" t="n">
         <v>10</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="K946" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L946" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M946" t="n">
-        <v>7258</v>
+        <v>5776</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68544,13 +68544,13 @@
         <v>60</v>
       </c>
       <c r="K947" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L947" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M947" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68616,13 +68616,13 @@
         <v>60</v>
       </c>
       <c r="K948" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L948" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M948" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K949" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L949" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="M949" t="n">
-        <v>5286</v>
+        <v>4143</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K950" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L950" t="n">
         <v>6000</v>
       </c>
       <c r="M950" t="n">
-        <v>5792</v>
+        <v>6000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="Q950" t="n">
         <v>10</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68829,7 +68829,7 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K951" t="n">
         <v>7000</v>
@@ -68838,7 +68838,7 @@
         <v>7500</v>
       </c>
       <c r="M951" t="n">
-        <v>7292</v>
+        <v>7258</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q951" t="n">
         <v>15</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K952" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L952" t="n">
         <v>6000</v>
       </c>
       <c r="M952" t="n">
-        <v>5773</v>
+        <v>6000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,20 +68973,20 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K953" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L953" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M953" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
@@ -68995,10 +68995,10 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="Q953" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,20 +69045,20 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K954" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L954" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M954" t="n">
-        <v>4727</v>
+        <v>5286</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
@@ -69067,10 +69067,10 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>473</v>
+        <v>264</v>
       </c>
       <c r="Q954" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,20 +69117,20 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K955" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L955" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>6727</v>
+        <v>5792</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
@@ -69139,10 +69139,10 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>448</v>
+        <v>579</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,20 +69189,20 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K956" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L956" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M956" t="n">
-        <v>6000</v>
+        <v>7292</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
@@ -69211,10 +69211,10 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K957" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L957" t="n">
         <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>6000</v>
+        <v>5773</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K958" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L958" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M958" t="n">
-        <v>4391</v>
+        <v>5500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,7 +69405,7 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K959" t="n">
         <v>4500</v>
@@ -69414,7 +69414,7 @@
         <v>5000</v>
       </c>
       <c r="M959" t="n">
-        <v>4762</v>
+        <v>4727</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q959" t="n">
         <v>10</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K960" t="n">
         <v>6500</v>
@@ -69486,7 +69486,7 @@
         <v>7000</v>
       </c>
       <c r="M960" t="n">
-        <v>6762</v>
+        <v>6727</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K961" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L961" t="n">
         <v>6000</v>
       </c>
       <c r="M961" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K962" t="n">
         <v>6000</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69696,13 +69696,13 @@
         <v>110</v>
       </c>
       <c r="K963" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="L963" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M963" t="n">
-        <v>5227</v>
+        <v>4391</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K964" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L964" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M964" t="n">
-        <v>3904</v>
+        <v>4762</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="Q964" t="n">
         <v>10</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K965" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L965" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M965" t="n">
-        <v>5273</v>
+        <v>6762</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K966" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L966" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M966" t="n">
-        <v>4500</v>
+        <v>5738</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K967" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L967" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M967" t="n">
-        <v>4783</v>
+        <v>6000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,20 +70053,20 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K968" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L968" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M968" t="n">
-        <v>4500</v>
+        <v>5227</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,20 +70125,20 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K969" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L969" t="n">
         <v>4000</v>
       </c>
-      <c r="L969" t="n">
-        <v>4300</v>
-      </c>
       <c r="M969" t="n">
-        <v>4129</v>
+        <v>3904</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="Q969" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,20 +70197,20 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K970" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L970" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M970" t="n">
-        <v>4656</v>
+        <v>5273</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="Q970" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70265,24 +70265,24 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K971" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L971" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M971" t="n">
-        <v>6783</v>
+        <v>4500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
@@ -70291,10 +70291,10 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>452</v>
+        <v>250</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K972" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L972" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M972" t="n">
-        <v>6000</v>
+        <v>4783</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K973" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L973" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M973" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="K974" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L974" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="M974" t="n">
-        <v>5265</v>
+        <v>4129</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="Q974" t="n">
         <v>20</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K975" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L975" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M975" t="n">
-        <v>5762</v>
+        <v>4656</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>576</v>
+        <v>466</v>
       </c>
       <c r="Q975" t="n">
         <v>10</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,7 +70629,7 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K976" t="n">
         <v>6500</v>
@@ -70638,7 +70638,7 @@
         <v>7000</v>
       </c>
       <c r="M976" t="n">
-        <v>6738</v>
+        <v>6783</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q976" t="n">
         <v>15</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,20 +70773,20 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K978" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L978" t="n">
         <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>5739</v>
+        <v>6000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
@@ -70795,10 +70795,10 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Q978" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,20 +70845,20 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="K979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L979" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M979" t="n">
-        <v>6236</v>
+        <v>5265</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
@@ -70867,10 +70867,10 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>624</v>
+        <v>263</v>
       </c>
       <c r="Q979" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,20 +70917,20 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K980" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L980" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M980" t="n">
-        <v>8792</v>
+        <v>5762</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
@@ -70939,10 +70939,10 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K981" t="n">
         <v>6500</v>
       </c>
       <c r="L981" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M981" t="n">
-        <v>6500</v>
+        <v>6738</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>361</v>
+        <v>449</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K982" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L982" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M982" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K983" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L983" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M983" t="n">
-        <v>6750</v>
+        <v>5739</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K984" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L984" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M984" t="n">
-        <v>5750</v>
+        <v>6236</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="Q984" t="n">
         <v>10</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K985" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L985" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M985" t="n">
-        <v>7227</v>
+        <v>8792</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K986" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L986" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M986" t="n">
-        <v>5739</v>
+        <v>6500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K987" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L987" t="n">
         <v>6500</v>
       </c>
       <c r="M987" t="n">
-        <v>6238</v>
+        <v>6500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K988" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L988" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M988" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K989" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L989" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M989" t="n">
-        <v>4095</v>
+        <v>5750</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="Q989" t="n">
         <v>10</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K990" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L990" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M990" t="n">
-        <v>5737</v>
+        <v>7227</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>382</v>
+        <v>482</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K991" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L991" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M991" t="n">
-        <v>5000</v>
+        <v>5739</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K992" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L992" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M992" t="n">
-        <v>5000</v>
+        <v>6238</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K993" t="n">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="L993" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M993" t="n">
-        <v>4254</v>
+        <v>5500</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="Q993" t="n">
         <v>20</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K994" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L994" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="M994" t="n">
-        <v>6231</v>
+        <v>4095</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>623</v>
+        <v>410</v>
       </c>
       <c r="Q994" t="n">
         <v>10</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K995" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L995" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M995" t="n">
-        <v>8731</v>
+        <v>5737</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="Q995" t="n">
         <v>15</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K996" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L996" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M996" t="n">
-        <v>6233</v>
+        <v>5000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72144,17 +72144,17 @@
         <v>60</v>
       </c>
       <c r="K997" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L997" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M997" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
@@ -72163,10 +72163,10 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q997" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,20 +72213,20 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K998" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="L998" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M998" t="n">
-        <v>6238</v>
+        <v>4254</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>624</v>
+        <v>213</v>
       </c>
       <c r="Q998" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,20 +72285,20 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K999" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L999" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M999" t="n">
-        <v>7227</v>
+        <v>6231</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
@@ -72307,10 +72307,10 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>482</v>
+        <v>623</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,20 +72357,20 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1000" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1000" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M1000" t="n">
-        <v>6500</v>
+        <v>8731</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>361</v>
+        <v>582</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,7 +72429,7 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K1001" t="n">
         <v>6000</v>
@@ -72438,25 +72438,385 @@
         <v>6500</v>
       </c>
       <c r="M1001" t="n">
+        <v>6233</v>
+      </c>
+      <c r="N1001" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1001" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1001" t="n">
+        <v>346</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1001" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1002" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1002" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1002" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1002" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1002" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1002" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1003" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1003" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1003" t="n">
         <v>6238</v>
       </c>
-      <c r="N1001" t="inlineStr">
+      <c r="N1003" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1003" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1003" t="n">
+        <v>624</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1003" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1004" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1004" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>7227</v>
+      </c>
+      <c r="N1004" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1004" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1004" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1004" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1005" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1005" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1005" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1005" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1005" t="n">
+        <v>361</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1005" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1006" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1006" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>6238</v>
+      </c>
+      <c r="N1006" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1001" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P1001" t="n">
+      <c r="O1006" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1006" t="n">
         <v>312</v>
       </c>
-      <c r="Q1001" t="n">
+      <c r="Q1006" t="n">
         <v>20</v>
       </c>
-      <c r="R1001" t="inlineStr">
+      <c r="R1006" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1011"/>
+  <dimension ref="A1:R1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E842" t="n">
         <v>5</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K842" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L842" t="n">
         <v>4500</v>
       </c>
-      <c r="L842" t="n">
-        <v>5000</v>
-      </c>
       <c r="M842" t="n">
-        <v>4731</v>
+        <v>4240</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="Q842" t="n">
         <v>10</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E843" t="n">
         <v>5</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="K843" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L843" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M843" t="n">
-        <v>6259</v>
+        <v>5242</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="Q843" t="n">
         <v>15</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E844" t="n">
         <v>5</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K844" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L844" t="n">
         <v>4500</v>
       </c>
-      <c r="L844" t="n">
-        <v>4800</v>
-      </c>
       <c r="M844" t="n">
-        <v>4638</v>
+        <v>4241</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E845" t="n">
         <v>5</v>
@@ -61197,7 +61197,7 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K845" t="n">
         <v>4000</v>
@@ -61206,7 +61206,7 @@
         <v>4500</v>
       </c>
       <c r="M845" t="n">
-        <v>4231</v>
+        <v>4240</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E846" t="n">
         <v>5</v>
@@ -61272,13 +61272,13 @@
         <v>130</v>
       </c>
       <c r="K846" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L846" t="n">
         <v>4500</v>
       </c>
-      <c r="L846" t="n">
-        <v>5000</v>
-      </c>
       <c r="M846" t="n">
-        <v>4731</v>
+        <v>4269</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E847" t="n">
         <v>5</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K847" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L847" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M847" t="n">
-        <v>6000</v>
+        <v>4731</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="Q847" t="n">
         <v>10</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E848" t="n">
         <v>5</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="K848" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L848" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M848" t="n">
-        <v>7725</v>
+        <v>6259</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E849" t="n">
         <v>5</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K849" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L849" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M849" t="n">
-        <v>6000</v>
+        <v>4638</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E850" t="n">
         <v>5</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K850" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L850" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M850" t="n">
-        <v>6000</v>
+        <v>4231</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E851" t="n">
         <v>5</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K851" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L851" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>6000</v>
+        <v>4731</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E852" t="n">
         <v>5</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K852" t="n">
         <v>6000</v>
       </c>
       <c r="L852" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M852" t="n">
-        <v>6138</v>
+        <v>6000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="Q852" t="n">
         <v>10</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E853" t="n">
         <v>5</v>
@@ -61773,7 +61773,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K853" t="n">
         <v>7500</v>
@@ -61782,7 +61782,7 @@
         <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>7760</v>
+        <v>7725</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E854" t="n">
         <v>5</v>
@@ -61845,7 +61845,7 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K854" t="n">
         <v>6000</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E855" t="n">
         <v>5</v>
@@ -61917,7 +61917,7 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K855" t="n">
         <v>6000</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E856" t="n">
         <v>5</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E857" t="n">
         <v>5</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K857" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L857" t="n">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="M857" t="n">
-        <v>5143</v>
+        <v>6138</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>514</v>
+        <v>614</v>
       </c>
       <c r="Q857" t="n">
         <v>10</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E858" t="n">
         <v>5</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K858" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="L858" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M858" t="n">
-        <v>8788</v>
+        <v>7760</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="Q858" t="n">
         <v>15</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E859" t="n">
         <v>5</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K859" t="n">
         <v>6000</v>
       </c>
       <c r="L859" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M859" t="n">
-        <v>6217</v>
+        <v>6000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E860" t="n">
         <v>5</v>
@@ -62277,7 +62277,7 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K860" t="n">
         <v>6000</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E861" t="n">
         <v>5</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K861" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L861" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M861" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E862" t="n">
         <v>5</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K862" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L862" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M862" t="n">
-        <v>5773</v>
+        <v>5143</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>577</v>
+        <v>514</v>
       </c>
       <c r="Q862" t="n">
         <v>10</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E863" t="n">
         <v>5</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K863" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L863" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M863" t="n">
-        <v>7239</v>
+        <v>8788</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>483</v>
+        <v>586</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E864" t="n">
         <v>5</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K864" t="n">
         <v>6000</v>
       </c>
       <c r="L864" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M864" t="n">
-        <v>6000</v>
+        <v>6217</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E865" t="n">
         <v>5</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E866" t="n">
         <v>5</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K866" t="n">
         <v>5500</v>
       </c>
       <c r="L866" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="M866" t="n">
-        <v>5650</v>
+        <v>5500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E867" t="n">
         <v>5</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K867" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L867" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M867" t="n">
-        <v>6262</v>
+        <v>5773</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>626</v>
+        <v>577</v>
       </c>
       <c r="Q867" t="n">
         <v>10</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E868" t="n">
         <v>5</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K868" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L868" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M868" t="n">
-        <v>8762</v>
+        <v>7239</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>584</v>
+        <v>483</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E869" t="n">
         <v>5</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K869" t="n">
         <v>6000</v>
       </c>
       <c r="L869" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>6260</v>
+        <v>6000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E870" t="n">
         <v>5</v>
@@ -63000,13 +63000,13 @@
         <v>60</v>
       </c>
       <c r="K870" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L870" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M870" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E871" t="n">
         <v>5</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K871" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L871" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M871" t="n">
-        <v>8739</v>
+        <v>5650</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>437</v>
+        <v>282</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E872" t="n">
         <v>5</v>
@@ -63141,7 +63141,7 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K872" t="n">
         <v>6000</v>
@@ -63150,7 +63150,7 @@
         <v>6500</v>
       </c>
       <c r="M872" t="n">
-        <v>6227</v>
+        <v>6262</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q872" t="n">
         <v>10</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E873" t="n">
         <v>5</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K873" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L873" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M873" t="n">
-        <v>7239</v>
+        <v>8762</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E874" t="n">
         <v>5</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K874" t="n">
         <v>6000</v>
       </c>
       <c r="L874" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M874" t="n">
-        <v>6000</v>
+        <v>6260</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E875" t="n">
         <v>5</v>
@@ -63360,13 +63360,13 @@
         <v>60</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L875" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M875" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E876" t="n">
         <v>5</v>
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K876" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L876" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="M876" t="n">
-        <v>6138</v>
+        <v>8739</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>307</v>
+        <v>437</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E877" t="n">
         <v>5</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K877" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L877" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M877" t="n">
-        <v>4143</v>
+        <v>6227</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>414</v>
+        <v>623</v>
       </c>
       <c r="Q877" t="n">
         <v>10</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E878" t="n">
         <v>5</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K878" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L878" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M878" t="n">
-        <v>5250</v>
+        <v>7239</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>350</v>
+        <v>483</v>
       </c>
       <c r="Q878" t="n">
         <v>15</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E879" t="n">
         <v>5</v>
@@ -63648,13 +63648,13 @@
         <v>60</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L879" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M879" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E880" t="n">
         <v>5</v>
@@ -63720,13 +63720,13 @@
         <v>60</v>
       </c>
       <c r="K880" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L880" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M880" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E881" t="n">
         <v>5</v>
@@ -63792,13 +63792,13 @@
         <v>130</v>
       </c>
       <c r="K881" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L881" t="n">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="M881" t="n">
-        <v>4138</v>
+        <v>6138</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>207</v>
+        <v>307</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E882" t="n">
         <v>5</v>
@@ -63864,13 +63864,13 @@
         <v>105</v>
       </c>
       <c r="K882" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L882" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="M882" t="n">
-        <v>6762</v>
+        <v>4143</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>676</v>
+        <v>414</v>
       </c>
       <c r="Q882" t="n">
         <v>10</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E883" t="n">
         <v>5</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K883" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L883" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M883" t="n">
-        <v>8769</v>
+        <v>5250</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>585</v>
+        <v>350</v>
       </c>
       <c r="Q883" t="n">
         <v>15</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E884" t="n">
         <v>5</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K884" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L884" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M884" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E885" t="n">
         <v>5</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K885" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E886" t="n">
         <v>5</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K886" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L886" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M886" t="n">
-        <v>6281</v>
+        <v>4138</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E887" t="n">
         <v>5</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K887" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L887" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="M887" t="n">
-        <v>6144</v>
+        <v>6762</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>614</v>
+        <v>676</v>
       </c>
       <c r="Q887" t="n">
         <v>10</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E888" t="n">
         <v>5</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K888" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L888" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M888" t="n">
-        <v>7260</v>
+        <v>8769</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E889" t="n">
         <v>5</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K889" t="n">
         <v>6000</v>
       </c>
       <c r="L889" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M889" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E890" t="n">
         <v>5</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K890" t="n">
         <v>6000</v>
       </c>
       <c r="L890" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M890" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E891" t="n">
         <v>5</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K891" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L891" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M891" t="n">
-        <v>5000</v>
+        <v>6281</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E892" t="n">
         <v>5</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K892" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L892" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M892" t="n">
-        <v>5727</v>
+        <v>6144</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q892" t="n">
         <v>10</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E893" t="n">
         <v>5</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K893" t="n">
         <v>7000</v>
       </c>
       <c r="L893" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="M893" t="n">
-        <v>7155</v>
+        <v>7260</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E894" t="n">
         <v>5</v>
@@ -64725,7 +64725,7 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K894" t="n">
         <v>6000</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E895" t="n">
         <v>5</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E896" t="n">
         <v>5</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K896" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L896" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M896" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E897" t="n">
         <v>5</v>
@@ -64944,13 +64944,13 @@
         <v>110</v>
       </c>
       <c r="K897" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L897" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>6136</v>
+        <v>5727</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="Q897" t="n">
         <v>10</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E898" t="n">
         <v>5</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K898" t="n">
         <v>7000</v>
       </c>
       <c r="L898" t="n">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="M898" t="n">
-        <v>7227</v>
+        <v>7155</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E899" t="n">
         <v>5</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K899" t="n">
         <v>6000</v>
       </c>
       <c r="L899" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M899" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E900" t="n">
         <v>5</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K900" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L900" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M900" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E901" t="n">
         <v>5</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K901" t="n">
         <v>6000</v>
       </c>
       <c r="L901" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>6125</v>
+        <v>6000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E902" t="n">
         <v>5</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K902" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L902" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M902" t="n">
-        <v>4246</v>
+        <v>6136</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>425</v>
+        <v>614</v>
       </c>
       <c r="Q902" t="n">
         <v>10</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E903" t="n">
         <v>5</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K903" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L903" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M903" t="n">
-        <v>5740</v>
+        <v>7227</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E904" t="n">
         <v>5</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K904" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="L904" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="M904" t="n">
-        <v>5200</v>
+        <v>6227</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E905" t="n">
         <v>5</v>
@@ -65520,13 +65520,13 @@
         <v>50</v>
       </c>
       <c r="K905" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L905" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M905" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E906" t="n">
         <v>5</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K906" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L906" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M906" t="n">
-        <v>4500</v>
+        <v>6125</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65652,29 +65652,29 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K907" t="n">
         <v>4000</v>
       </c>
       <c r="L907" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M907" t="n">
-        <v>4000</v>
+        <v>4246</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="Q907" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E908" t="n">
         <v>5</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,20 +65733,20 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K908" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L908" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M908" t="n">
-        <v>6235</v>
+        <v>5740</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
@@ -65755,10 +65755,10 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>624</v>
+        <v>383</v>
       </c>
       <c r="Q908" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E909" t="n">
         <v>5</v>
@@ -65801,24 +65801,24 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K909" t="n">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="L909" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="M909" t="n">
-        <v>8769</v>
+        <v>5200</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,10 +65827,10 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="Q909" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E910" t="n">
         <v>5</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K910" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L910" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M910" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E911" t="n">
         <v>5</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,20 +65949,20 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K911" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M911" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E912" t="n">
         <v>5</v>
@@ -66017,24 +66017,24 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K912" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M912" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
@@ -66043,10 +66043,10 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="Q912" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E913" t="n">
         <v>5</v>
@@ -66093,7 +66093,7 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="K913" t="n">
         <v>6000</v>
@@ -66102,7 +66102,7 @@
         <v>6500</v>
       </c>
       <c r="M913" t="n">
-        <v>6239</v>
+        <v>6235</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E914" t="n">
         <v>5</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K914" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L914" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M914" t="n">
-        <v>7260</v>
+        <v>8769</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E915" t="n">
         <v>5</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K915" t="n">
         <v>6000</v>
       </c>
       <c r="L915" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M915" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E916" t="n">
         <v>5</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E917" t="n">
         <v>5</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K917" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L917" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M917" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E918" t="n">
         <v>5</v>
@@ -66453,7 +66453,7 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K918" t="n">
         <v>6000</v>
@@ -66462,7 +66462,7 @@
         <v>6500</v>
       </c>
       <c r="M918" t="n">
-        <v>6238</v>
+        <v>6239</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K919" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M919" t="n">
-        <v>8238</v>
+        <v>7260</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,7 +66597,7 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K920" t="n">
         <v>6000</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66682,7 +66682,7 @@
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
@@ -66691,10 +66691,10 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q921" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,20 +66741,20 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K922" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L922" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>5269</v>
+        <v>5750</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>527</v>
+        <v>288</v>
       </c>
       <c r="Q922" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,20 +66813,20 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K923" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L923" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M923" t="n">
-        <v>7269</v>
+        <v>6238</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
@@ -66835,10 +66835,10 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="Q923" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,20 +66885,20 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K924" t="n">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="L924" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M924" t="n">
-        <v>5904</v>
+        <v>8238</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="Q924" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L926" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M926" t="n">
-        <v>5240</v>
+        <v>6000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K927" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M927" t="n">
-        <v>6250</v>
+        <v>5269</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>625</v>
+        <v>527</v>
       </c>
       <c r="Q927" t="n">
         <v>10</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K928" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L928" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M928" t="n">
-        <v>8250</v>
+        <v>7269</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="Q928" t="n">
         <v>15</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K929" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L929" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M929" t="n">
-        <v>6500</v>
+        <v>5904</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67320,13 +67320,13 @@
         <v>60</v>
       </c>
       <c r="K930" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L930" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M930" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,32 +67389,32 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K931" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L931" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>6000</v>
+        <v>5240</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>600</v>
+        <v>262</v>
       </c>
       <c r="Q931" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,20 +67461,20 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L932" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M932" t="n">
-        <v>7238</v>
+        <v>6250</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,20 +67533,20 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K933" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L933" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M933" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
@@ -67555,10 +67555,10 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K934" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M934" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,20 +67677,20 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K935" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L935" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M935" t="n">
-        <v>5738</v>
+        <v>6500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
@@ -67699,10 +67699,10 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="Q935" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K936" t="n">
         <v>6000</v>
       </c>
       <c r="L936" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M936" t="n">
-        <v>6231</v>
+        <v>6000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="Q936" t="n">
         <v>10</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K937" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M937" t="n">
-        <v>8731</v>
+        <v>7238</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K938" t="n">
         <v>6000</v>
       </c>
       <c r="L938" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M938" t="n">
-        <v>6233</v>
+        <v>6000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,7 +67965,7 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K939" t="n">
         <v>6000</v>
@@ -67978,7 +67978,7 @@
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
@@ -67987,10 +67987,10 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q939" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,20 +68037,20 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K940" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L940" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,10 +68059,10 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>650</v>
+        <v>287</v>
       </c>
       <c r="Q940" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,20 +68109,20 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K941" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L941" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M941" t="n">
-        <v>8236</v>
+        <v>6231</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,20 +68181,20 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L942" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M942" t="n">
-        <v>6000</v>
+        <v>8731</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
@@ -68203,10 +68203,10 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>333</v>
+        <v>582</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,20 +68253,20 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="K943" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L943" t="n">
         <v>6500</v>
       </c>
       <c r="M943" t="n">
-        <v>6500</v>
+        <v>6233</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
@@ -68275,10 +68275,10 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="Q943" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68321,24 +68321,24 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K944" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L944" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M944" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q944" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,20 +68397,20 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K945" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L945" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M945" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
@@ -68419,10 +68419,10 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>367</v>
+        <v>650</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68469,20 +68469,20 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="K946" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L946" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M946" t="n">
-        <v>5500</v>
+        <v>8236</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
@@ -68491,10 +68491,10 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>306</v>
+        <v>549</v>
       </c>
       <c r="Q946" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68541,20 +68541,20 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68616,13 +68616,13 @@
         <v>68</v>
       </c>
       <c r="K948" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L948" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M948" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68676,29 +68676,29 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K949" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L949" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M949" t="n">
-        <v>4733</v>
+        <v>5500</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
@@ -68707,10 +68707,10 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>473</v>
+        <v>229</v>
       </c>
       <c r="Q949" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="K950" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L950" t="n">
-        <v>6800</v>
+        <v>5500</v>
       </c>
       <c r="M950" t="n">
-        <v>6416</v>
+        <v>5500</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,20 +68829,20 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K951" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L951" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M951" t="n">
-        <v>4269</v>
+        <v>5500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68901,20 +68901,20 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="K952" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L952" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M952" t="n">
-        <v>4269</v>
+        <v>5000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K953" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L953" t="n">
         <v>4500</v>
       </c>
       <c r="M953" t="n">
-        <v>4269</v>
+        <v>4500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K954" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L954" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M954" t="n">
-        <v>5762</v>
+        <v>4733</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="Q954" t="n">
         <v>10</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="K955" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L955" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="M955" t="n">
-        <v>8740</v>
+        <v>6416</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>583</v>
+        <v>428</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K956" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M956" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K957" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L957" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M957" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K958" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M958" t="n">
-        <v>5500</v>
+        <v>4269</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K959" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L959" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M959" t="n">
-        <v>4740</v>
+        <v>5762</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="Q959" t="n">
         <v>10</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K960" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L960" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M960" t="n">
-        <v>6738</v>
+        <v>8740</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>449</v>
+        <v>583</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69549,7 +69549,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K961" t="n">
         <v>6000</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K964" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L964" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M964" t="n">
-        <v>5500</v>
+        <v>4740</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="Q964" t="n">
         <v>10</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K965" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L965" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M965" t="n">
-        <v>6250</v>
+        <v>6738</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K966" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L966" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M966" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,7 +69981,7 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K967" t="n">
         <v>6000</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K968" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L968" t="n">
         <v>5500</v>
       </c>
       <c r="M968" t="n">
-        <v>5231</v>
+        <v>5500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q968" t="n">
         <v>20</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K969" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L969" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M969" t="n">
-        <v>4138</v>
+        <v>5500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>414</v>
+        <v>550</v>
       </c>
       <c r="Q969" t="n">
         <v>10</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K970" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L970" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M970" t="n">
-        <v>5261</v>
+        <v>6250</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L971" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M971" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K972" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L972" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M972" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70416,13 +70416,13 @@
         <v>130</v>
       </c>
       <c r="K973" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L973" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M973" t="n">
-        <v>4269</v>
+        <v>5231</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="Q973" t="n">
         <v>20</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70488,13 +70488,13 @@
         <v>130</v>
       </c>
       <c r="K974" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L974" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="M974" t="n">
-        <v>4731</v>
+        <v>4138</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="Q974" t="n">
         <v>10</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70560,13 +70560,13 @@
         <v>115</v>
       </c>
       <c r="K975" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L975" t="n">
         <v>5500</v>
       </c>
-      <c r="L975" t="n">
-        <v>6000</v>
-      </c>
       <c r="M975" t="n">
-        <v>5739</v>
+        <v>5261</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="Q975" t="n">
         <v>15</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K976" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M976" t="n">
-        <v>4650</v>
+        <v>5000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70704,13 +70704,13 @@
         <v>60</v>
       </c>
       <c r="K977" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L977" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M977" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,20 +70773,20 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K978" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L978" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M978" t="n">
-        <v>5000</v>
+        <v>4269</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
@@ -70795,10 +70795,10 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="Q978" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K979" t="n">
         <v>4500</v>
       </c>
       <c r="L979" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M979" t="n">
-        <v>4500</v>
+        <v>4731</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="Q979" t="n">
         <v>10</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K980" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L980" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M980" t="n">
-        <v>6500</v>
+        <v>5739</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="Q980" t="n">
         <v>15</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K981" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L981" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M981" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K982" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L982" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M982" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,20 +71133,20 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K983" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L983" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M983" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
@@ -71155,10 +71155,10 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="Q983" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71196,29 +71196,29 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K984" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L984" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M984" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
@@ -71227,10 +71227,10 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q984" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71268,29 +71268,29 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K985" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L985" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M985" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="Q985" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71340,29 +71340,29 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K986" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L986" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M986" t="n">
-        <v>5273</v>
+        <v>6000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="Q986" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,20 +71421,20 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K987" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L987" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M987" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
@@ -71443,10 +71443,10 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>550</v>
+        <v>306</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K988" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L988" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M988" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,20 +71565,20 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71633,24 +71633,24 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K990" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L990" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M990" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
@@ -71659,10 +71659,10 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="Q990" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L991" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M991" t="n">
-        <v>6241</v>
+        <v>5273</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="Q991" t="n">
         <v>10</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71781,7 +71781,7 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K992" t="n">
         <v>8000</v>
@@ -71790,7 +71790,7 @@
         <v>8500</v>
       </c>
       <c r="M992" t="n">
-        <v>8236</v>
+        <v>8250</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q992" t="n">
         <v>15</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K993" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L993" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M993" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K994" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L994" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M994" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K995" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L995" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M995" t="n">
-        <v>6268</v>
+        <v>5500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="Q995" t="n">
         <v>20</v>
@@ -72060,29 +72060,29 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="K996" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M996" t="n">
-        <v>5000</v>
+        <v>6241</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
@@ -72091,10 +72091,10 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>208</v>
+        <v>624</v>
       </c>
       <c r="Q996" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,20 +72141,20 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K997" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L997" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M997" t="n">
-        <v>6808</v>
+        <v>8236</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
@@ -72163,10 +72163,10 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>681</v>
+        <v>549</v>
       </c>
       <c r="Q997" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,20 +72213,20 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="K998" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L998" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M998" t="n">
-        <v>8286</v>
+        <v>6500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>552</v>
+        <v>361</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K999" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L999" t="n">
         <v>6500</v>
       </c>
       <c r="M999" t="n">
-        <v>6321</v>
+        <v>6500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,7 +72357,7 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K1000" t="n">
         <v>6000</v>
@@ -72366,11 +72366,11 @@
         <v>6500</v>
       </c>
       <c r="M1000" t="n">
-        <v>6227</v>
+        <v>6268</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72425,24 +72425,24 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="K1001" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1001" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1001" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="Q1001" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72504,13 +72504,13 @@
         <v>130</v>
       </c>
       <c r="K1002" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1002" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1002" t="n">
-        <v>5769</v>
+        <v>6808</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="Q1002" t="n">
         <v>10</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K1003" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1003" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1003" t="n">
-        <v>7750</v>
+        <v>8286</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="Q1003" t="n">
         <v>15</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K1004" t="n">
         <v>6000</v>
       </c>
       <c r="L1004" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1004" t="n">
-        <v>6000</v>
+        <v>6321</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K1005" t="n">
         <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1005" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1006" t="n">
         <v>6000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q1006" t="n">
         <v>20</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,7 +72861,7 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1007" t="n">
         <v>5500</v>
@@ -72870,7 +72870,7 @@
         <v>6000</v>
       </c>
       <c r="M1007" t="n">
-        <v>5739</v>
+        <v>5769</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q1007" t="n">
         <v>10</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K1008" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1008" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1008" t="n">
-        <v>6766</v>
+        <v>7750</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="Q1008" t="n">
         <v>15</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73005,7 +73005,7 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1009" t="n">
         <v>6000</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K1010" t="n">
         <v>6000</v>
       </c>
       <c r="L1010" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1010" t="n">
-        <v>6261</v>
+        <v>6000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1011" t="n">
         <v>6000</v>
       </c>
       <c r="L1011" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>6164</v>
+        <v>6000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,12 +73171,372 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q1011" t="n">
         <v>20</v>
       </c>
       <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>115</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>5739</v>
+      </c>
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1012" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1012" t="n">
+        <v>574</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1012" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1013" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>128</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>6766</v>
+      </c>
+      <c r="N1013" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1013" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1013" t="n">
+        <v>451</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1013" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1014" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1014" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1014" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1014" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1014" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1015" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1015" t="n">
+        <v>115</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>6261</v>
+      </c>
+      <c r="N1015" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1015" t="n">
+        <v>348</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1016" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>6300</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>6164</v>
+      </c>
+      <c r="N1016" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1016" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1016" t="n">
+        <v>308</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1016" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1060"/>
+  <dimension ref="A1:R1065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K926" t="n">
         <v>4000</v>
       </c>
       <c r="L926" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="M926" t="n">
-        <v>4143</v>
+        <v>4273</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q926" t="n">
         <v>10</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L927" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>5250</v>
+        <v>5821</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K928" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L928" t="n">
         <v>5000</v>
       </c>
       <c r="M928" t="n">
-        <v>5000</v>
+        <v>4727</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K929" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L929" t="n">
         <v>5000</v>
       </c>
       <c r="M929" t="n">
-        <v>5000</v>
+        <v>4773</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67320,13 +67320,13 @@
         <v>130</v>
       </c>
       <c r="K930" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L930" t="n">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="M930" t="n">
-        <v>4138</v>
+        <v>4638</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67392,13 +67392,13 @@
         <v>105</v>
       </c>
       <c r="K931" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L931" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="M931" t="n">
-        <v>6762</v>
+        <v>4143</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>676</v>
+        <v>414</v>
       </c>
       <c r="Q931" t="n">
         <v>10</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K932" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L932" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M932" t="n">
-        <v>8769</v>
+        <v>5250</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>585</v>
+        <v>350</v>
       </c>
       <c r="Q932" t="n">
         <v>15</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K933" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L933" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M933" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K934" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M934" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K935" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L935" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M935" t="n">
-        <v>6281</v>
+        <v>4138</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K936" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L936" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>6144</v>
+        <v>6762</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>614</v>
+        <v>676</v>
       </c>
       <c r="Q936" t="n">
         <v>10</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K937" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L937" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M937" t="n">
-        <v>7260</v>
+        <v>8769</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K938" t="n">
         <v>6000</v>
       </c>
       <c r="L938" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M938" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K939" t="n">
         <v>6000</v>
       </c>
       <c r="L939" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M939" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L940" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M940" t="n">
-        <v>5000</v>
+        <v>6281</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K941" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L941" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M941" t="n">
-        <v>5727</v>
+        <v>6144</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q941" t="n">
         <v>10</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K942" t="n">
         <v>7000</v>
       </c>
       <c r="L942" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="M942" t="n">
-        <v>7155</v>
+        <v>7260</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68253,7 +68253,7 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K943" t="n">
         <v>6000</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K945" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M945" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68472,13 +68472,13 @@
         <v>110</v>
       </c>
       <c r="K946" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L946" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M946" t="n">
-        <v>6136</v>
+        <v>5727</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="Q946" t="n">
         <v>10</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K947" t="n">
         <v>7000</v>
       </c>
       <c r="L947" t="n">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="M947" t="n">
-        <v>7227</v>
+        <v>7155</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K948" t="n">
         <v>6000</v>
       </c>
       <c r="L948" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M948" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K949" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L949" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M949" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K950" t="n">
         <v>6000</v>
       </c>
       <c r="L950" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M950" t="n">
-        <v>6125</v>
+        <v>6000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K951" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L951" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M951" t="n">
-        <v>4246</v>
+        <v>6136</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>425</v>
+        <v>614</v>
       </c>
       <c r="Q951" t="n">
         <v>10</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K952" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M952" t="n">
-        <v>5740</v>
+        <v>7227</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K953" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="L953" t="n">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="M953" t="n">
-        <v>5200</v>
+        <v>6227</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69048,13 +69048,13 @@
         <v>50</v>
       </c>
       <c r="K954" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L954" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M954" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K955" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L955" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M955" t="n">
-        <v>4500</v>
+        <v>6125</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="Q955" t="n">
         <v>20</v>
@@ -69180,29 +69180,29 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="K956" t="n">
         <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M956" t="n">
-        <v>4000</v>
+        <v>4246</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
@@ -69211,10 +69211,10 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="Q956" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,20 +69261,20 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K957" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L957" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>6235</v>
+        <v>5740</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
@@ -69283,10 +69283,10 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>624</v>
+        <v>383</v>
       </c>
       <c r="Q957" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69329,24 +69329,24 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K958" t="n">
-        <v>8500</v>
+        <v>5200</v>
       </c>
       <c r="L958" t="n">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="M958" t="n">
-        <v>8769</v>
+        <v>5200</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
@@ -69355,10 +69355,10 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>585</v>
+        <v>289</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K959" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L959" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M959" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,20 +69477,20 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K960" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L960" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M960" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
@@ -69499,10 +69499,10 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69545,24 +69545,24 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K961" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L961" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M961" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
@@ -69571,10 +69571,10 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="Q961" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="K962" t="n">
         <v>6000</v>
@@ -69630,7 +69630,7 @@
         <v>6500</v>
       </c>
       <c r="M962" t="n">
-        <v>6239</v>
+        <v>6235</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K963" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L963" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M963" t="n">
-        <v>7260</v>
+        <v>8769</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q963" t="n">
         <v>15</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K964" t="n">
         <v>6000</v>
       </c>
       <c r="L964" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M964" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K966" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L966" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M966" t="n">
-        <v>5750</v>
+        <v>6500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="Q966" t="n">
         <v>20</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69981,7 +69981,7 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K967" t="n">
         <v>6000</v>
@@ -69990,7 +69990,7 @@
         <v>6500</v>
       </c>
       <c r="M967" t="n">
-        <v>6238</v>
+        <v>6239</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K968" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L968" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M968" t="n">
-        <v>8238</v>
+        <v>7260</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="Q968" t="n">
         <v>15</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70125,7 +70125,7 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K969" t="n">
         <v>6000</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70210,7 +70210,7 @@
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q970" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,20 +70269,20 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L971" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
-        <v>5269</v>
+        <v>5750</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
@@ -70291,10 +70291,10 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>527</v>
+        <v>288</v>
       </c>
       <c r="Q971" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,20 +70341,20 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K972" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L972" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M972" t="n">
-        <v>7269</v>
+        <v>6238</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
@@ -70363,10 +70363,10 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="Q972" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,20 +70413,20 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K973" t="n">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="L973" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M973" t="n">
-        <v>5904</v>
+        <v>8238</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
@@ -70435,10 +70435,10 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K975" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L975" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M975" t="n">
-        <v>5240</v>
+        <v>6000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="Q975" t="n">
         <v>20</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K976" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M976" t="n">
-        <v>6250</v>
+        <v>5269</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>625</v>
+        <v>527</v>
       </c>
       <c r="Q976" t="n">
         <v>10</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K977" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L977" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M977" t="n">
-        <v>8250</v>
+        <v>7269</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K978" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L978" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>6500</v>
+        <v>5904</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70848,13 +70848,13 @@
         <v>60</v>
       </c>
       <c r="K979" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L979" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M979" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K980" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L980" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M980" t="n">
-        <v>6000</v>
+        <v>5240</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>600</v>
+        <v>262</v>
       </c>
       <c r="Q980" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K981" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L981" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M981" t="n">
-        <v>7238</v>
+        <v>6250</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="Q981" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,20 +71061,20 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K982" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L982" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M982" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>333</v>
+        <v>550</v>
       </c>
       <c r="Q982" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K983" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L983" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M983" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,20 +71205,20 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K984" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L984" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M984" t="n">
-        <v>5738</v>
+        <v>6500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
@@ -71227,10 +71227,10 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="Q984" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K985" t="n">
         <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M985" t="n">
-        <v>6231</v>
+        <v>6000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="Q985" t="n">
         <v>10</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K986" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L986" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M986" t="n">
-        <v>8731</v>
+        <v>7238</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>582</v>
+        <v>483</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K987" t="n">
         <v>6000</v>
       </c>
       <c r="L987" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M987" t="n">
-        <v>6233</v>
+        <v>6000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,7 +71493,7 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K988" t="n">
         <v>6000</v>
@@ -71506,7 +71506,7 @@
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
@@ -71515,10 +71515,10 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q988" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,20 +71565,20 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K989" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L989" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M989" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>650</v>
+        <v>287</v>
       </c>
       <c r="Q989" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,20 +71637,20 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K990" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L990" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M990" t="n">
-        <v>8236</v>
+        <v>6231</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
@@ -71659,10 +71659,10 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="Q990" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,20 +71709,20 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L991" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>8731</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>333</v>
+        <v>582</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,20 +71781,20 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="K992" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L992" t="n">
         <v>6500</v>
       </c>
       <c r="M992" t="n">
-        <v>6500</v>
+        <v>6233</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
@@ -71803,10 +71803,10 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="Q992" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71849,24 +71849,24 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K993" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L993" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M993" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="Q993" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,20 +71925,20 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K994" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L994" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M994" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
@@ -71947,10 +71947,10 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>367</v>
+        <v>650</v>
       </c>
       <c r="Q994" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,20 +71997,20 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="K995" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M995" t="n">
-        <v>5500</v>
+        <v>8236</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>306</v>
+        <v>549</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72069,20 +72069,20 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K996" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M996" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72144,13 +72144,13 @@
         <v>68</v>
       </c>
       <c r="K997" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L997" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M997" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="Q997" t="n">
         <v>20</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,29 +72204,29 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K998" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L998" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M998" t="n">
-        <v>4733</v>
+        <v>5500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>473</v>
+        <v>229</v>
       </c>
       <c r="Q998" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="K999" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L999" t="n">
-        <v>6800</v>
+        <v>5500</v>
       </c>
       <c r="M999" t="n">
-        <v>6416</v>
+        <v>5500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>428</v>
+        <v>367</v>
       </c>
       <c r="Q999" t="n">
         <v>15</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,20 +72357,20 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K1000" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1000" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1000" t="n">
-        <v>4269</v>
+        <v>5500</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72429,20 +72429,20 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="K1001" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1001" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1001" t="n">
-        <v>4269</v>
+        <v>5000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K1002" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1002" t="n">
         <v>4500</v>
       </c>
       <c r="M1002" t="n">
-        <v>4269</v>
+        <v>4500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q1002" t="n">
         <v>20</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="K1003" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1003" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1003" t="n">
-        <v>5762</v>
+        <v>4733</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="Q1003" t="n">
         <v>10</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="K1004" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1004" t="n">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="M1004" t="n">
-        <v>8740</v>
+        <v>6416</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>583</v>
+        <v>428</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1005" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1005" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1005" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1007" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1007" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1007" t="n">
-        <v>5500</v>
+        <v>4269</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="Q1007" t="n">
         <v>20</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1008" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1008" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1008" t="n">
-        <v>4740</v>
+        <v>5762</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="Q1008" t="n">
         <v>10</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K1009" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1009" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1009" t="n">
-        <v>6738</v>
+        <v>8740</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>449</v>
+        <v>583</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1010" t="n">
         <v>6000</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K1013" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1013" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1013" t="n">
-        <v>5500</v>
+        <v>4740</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="Q1013" t="n">
         <v>10</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K1014" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1014" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1014" t="n">
-        <v>6250</v>
+        <v>6738</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="Q1014" t="n">
         <v>15</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1015" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1015" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1015" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,7 +73509,7 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1016" t="n">
         <v>6000</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1017" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1017" t="n">
         <v>5500</v>
       </c>
       <c r="M1017" t="n">
-        <v>5231</v>
+        <v>5500</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q1017" t="n">
         <v>20</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="K1018" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1018" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M1018" t="n">
-        <v>4138</v>
+        <v>5500</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>414</v>
+        <v>550</v>
       </c>
       <c r="Q1018" t="n">
         <v>10</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K1019" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1019" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M1019" t="n">
-        <v>5261</v>
+        <v>6250</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="Q1019" t="n">
         <v>15</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K1020" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1020" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1020" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1021" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1021" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1021" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73944,13 +73944,13 @@
         <v>130</v>
       </c>
       <c r="K1022" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1022" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1022" t="n">
-        <v>4269</v>
+        <v>5231</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="Q1022" t="n">
         <v>20</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74016,13 +74016,13 @@
         <v>130</v>
       </c>
       <c r="K1023" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1023" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="M1023" t="n">
-        <v>4731</v>
+        <v>4138</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="Q1023" t="n">
         <v>10</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74088,13 +74088,13 @@
         <v>115</v>
       </c>
       <c r="K1024" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1024" t="n">
         <v>5500</v>
       </c>
-      <c r="L1024" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1024" t="n">
-        <v>5739</v>
+        <v>5261</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K1025" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1025" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1025" t="n">
-        <v>4650</v>
+        <v>5000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74232,13 +74232,13 @@
         <v>60</v>
       </c>
       <c r="K1026" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1026" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1026" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,20 +74301,20 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1027" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1027" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1027" t="n">
-        <v>5000</v>
+        <v>4269</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
@@ -74323,10 +74323,10 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="Q1027" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="K1028" t="n">
         <v>4500</v>
       </c>
       <c r="L1028" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1028" t="n">
-        <v>4500</v>
+        <v>4731</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="Q1028" t="n">
         <v>10</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K1029" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1029" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1029" t="n">
-        <v>6500</v>
+        <v>5739</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74508,25 +74508,25 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K1030" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1030" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M1030" t="n">
-        <v>6000</v>
+        <v>4650</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1031" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1031" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1031" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,20 +74661,20 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K1032" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1032" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
@@ -74683,10 +74683,10 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74724,29 +74724,29 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K1033" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1033" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1033" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="Q1033" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74796,29 +74796,29 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K1034" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1034" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1034" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="Q1034" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,29 +74868,29 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K1035" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1035" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1035" t="n">
-        <v>5273</v>
+        <v>6000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>527</v>
+        <v>333</v>
       </c>
       <c r="Q1035" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,20 +74949,20 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1036" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1036" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1036" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
@@ -74971,10 +74971,10 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>550</v>
+        <v>306</v>
       </c>
       <c r="Q1036" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K1037" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1037" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1037" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,20 +75093,20 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K1038" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1038" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1038" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
@@ -75115,10 +75115,10 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1038" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75161,24 +75161,24 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K1039" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1039" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1039" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
@@ -75187,10 +75187,10 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="Q1039" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K1040" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1040" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1040" t="n">
-        <v>6241</v>
+        <v>5273</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="Q1040" t="n">
         <v>10</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1041" t="n">
         <v>5</v>
@@ -75309,7 +75309,7 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K1041" t="n">
         <v>8000</v>
@@ -75318,7 +75318,7 @@
         <v>8500</v>
       </c>
       <c r="M1041" t="n">
-        <v>8236</v>
+        <v>8250</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q1041" t="n">
         <v>15</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K1042" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1042" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1042" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1043" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1043" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1043" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K1044" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1044" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1044" t="n">
-        <v>6268</v>
+        <v>5500</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="Q1044" t="n">
         <v>20</v>
@@ -75588,29 +75588,29 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="K1045" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1045" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1045" t="n">
-        <v>5000</v>
+        <v>6241</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
@@ -75619,10 +75619,10 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>208</v>
+        <v>624</v>
       </c>
       <c r="Q1045" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1046" t="n">
         <v>5</v>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,20 +75669,20 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K1046" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1046" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M1046" t="n">
-        <v>6808</v>
+        <v>8236</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
@@ -75691,10 +75691,10 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>681</v>
+        <v>549</v>
       </c>
       <c r="Q1046" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,20 +75741,20 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="K1047" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1047" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M1047" t="n">
-        <v>8286</v>
+        <v>6500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>552</v>
+        <v>361</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K1048" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1048" t="n">
         <v>6500</v>
       </c>
       <c r="M1048" t="n">
-        <v>6321</v>
+        <v>6500</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,7 +75885,7 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K1049" t="n">
         <v>6000</v>
@@ -75894,11 +75894,11 @@
         <v>6500</v>
       </c>
       <c r="M1049" t="n">
-        <v>6227</v>
+        <v>6268</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
@@ -75907,10 +75907,10 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1050" t="n">
         <v>5</v>
@@ -75953,24 +75953,24 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="K1050" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1050" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1050" t="n">
-        <v>6227</v>
+        <v>5000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
@@ -75979,10 +75979,10 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="Q1050" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76032,13 +76032,13 @@
         <v>130</v>
       </c>
       <c r="K1051" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1051" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1051" t="n">
-        <v>5769</v>
+        <v>6808</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="Q1051" t="n">
         <v>10</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K1052" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1052" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1052" t="n">
-        <v>7750</v>
+        <v>8286</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="Q1052" t="n">
         <v>15</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K1053" t="n">
         <v>6000</v>
       </c>
       <c r="L1053" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1053" t="n">
-        <v>6000</v>
+        <v>6321</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1054" t="n">
         <v>5</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K1054" t="n">
         <v>6000</v>
       </c>
       <c r="L1054" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1054" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1055" t="n">
         <v>5</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1055" t="n">
         <v>6000</v>
       </c>
       <c r="L1055" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1055" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="Q1055" t="n">
         <v>20</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76389,7 +76389,7 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1056" t="n">
         <v>5500</v>
@@ -76398,7 +76398,7 @@
         <v>6000</v>
       </c>
       <c r="M1056" t="n">
-        <v>5739</v>
+        <v>5769</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q1056" t="n">
         <v>10</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K1057" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1057" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1057" t="n">
-        <v>6766</v>
+        <v>7750</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76533,7 +76533,7 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1058" t="n">
         <v>6000</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K1059" t="n">
         <v>6000</v>
       </c>
       <c r="L1059" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1059" t="n">
-        <v>6261</v>
+        <v>6000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q1059" t="n">
         <v>18</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1060" t="n">
         <v>6000</v>
       </c>
       <c r="L1060" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M1060" t="n">
-        <v>6164</v>
+        <v>6000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,12 +76699,372 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q1060" t="n">
         <v>20</v>
       </c>
       <c r="R1060" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>115</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>5739</v>
+      </c>
+      <c r="N1061" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1061" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1061" t="n">
+        <v>574</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1061" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1062" t="n">
+        <v>128</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>6766</v>
+      </c>
+      <c r="N1062" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1062" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1062" t="n">
+        <v>451</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1062" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1063" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1063" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1063" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1063" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1063" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1063" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1063" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1064" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1064" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1064" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1064" t="n">
+        <v>115</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>6261</v>
+      </c>
+      <c r="N1064" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1064" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1064" t="n">
+        <v>348</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1064" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1065" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1065" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1065" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1065" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>6300</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>6164</v>
+      </c>
+      <c r="N1065" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1065" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1065" t="n">
+        <v>308</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1065" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1096"/>
+  <dimension ref="A1:R1101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="K937" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L937" t="n">
         <v>4500</v>
       </c>
-      <c r="L937" t="n">
-        <v>5000</v>
-      </c>
       <c r="M937" t="n">
-        <v>4769</v>
+        <v>4269</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="Q937" t="n">
         <v>10</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K938" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L938" t="n">
         <v>6000</v>
       </c>
       <c r="M938" t="n">
-        <v>5514</v>
+        <v>5700</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,7 +67965,7 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K939" t="n">
         <v>4500</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K940" t="n">
         <v>4500</v>
       </c>
       <c r="L940" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M940" t="n">
-        <v>4500</v>
+        <v>4714</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K941" t="n">
         <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M941" t="n">
-        <v>4255</v>
+        <v>4143</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L942" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>6138</v>
+        <v>4769</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>614</v>
+        <v>477</v>
       </c>
       <c r="Q942" t="n">
         <v>10</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K943" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L943" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M943" t="n">
-        <v>7760</v>
+        <v>5514</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K944" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L944" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M944" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68400,13 +68400,13 @@
         <v>50</v>
       </c>
       <c r="K945" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M945" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K946" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L946" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M946" t="n">
-        <v>6000</v>
+        <v>4255</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="Q946" t="n">
         <v>20</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K947" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="L947" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M947" t="n">
-        <v>4396</v>
+        <v>6138</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>440</v>
+        <v>614</v>
       </c>
       <c r="Q947" t="n">
         <v>10</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K948" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L948" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M948" t="n">
-        <v>6738</v>
+        <v>7760</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68685,7 +68685,7 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K949" t="n">
         <v>6000</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68757,7 +68757,7 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K950" t="n">
         <v>6000</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,20 +68829,20 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K951" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L951" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M951" t="n">
-        <v>4269</v>
+        <v>6000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="Q951" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,20 +68901,20 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K952" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L952" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M952" t="n">
-        <v>5714</v>
+        <v>4396</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,10 +68923,10 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="Q952" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,20 +68973,20 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K953" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L953" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M953" t="n">
-        <v>4269</v>
+        <v>6738</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
@@ -68995,10 +68995,10 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>237</v>
+        <v>449</v>
       </c>
       <c r="Q953" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K954" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L954" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M954" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,20 +69117,20 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="K955" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L955" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>4227</v>
+        <v>6000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
@@ -69139,10 +69139,10 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="Q955" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69192,13 +69192,13 @@
         <v>130</v>
       </c>
       <c r="K956" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M956" t="n">
-        <v>6231</v>
+        <v>4269</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>623</v>
+        <v>427</v>
       </c>
       <c r="Q956" t="n">
         <v>10</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K957" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L957" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>8731</v>
+        <v>5714</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>582</v>
+        <v>381</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K958" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M958" t="n">
-        <v>6233</v>
+        <v>4269</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,20 +69405,20 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K959" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L959" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M959" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
@@ -69427,10 +69427,10 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q959" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,20 +69477,20 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K960" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L960" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M960" t="n">
-        <v>6269</v>
+        <v>4227</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
@@ -69499,10 +69499,10 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>627</v>
+        <v>211</v>
       </c>
       <c r="Q960" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69552,17 +69552,17 @@
         <v>130</v>
       </c>
       <c r="K961" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L961" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M961" t="n">
-        <v>7731</v>
+        <v>6231</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
@@ -69571,10 +69571,10 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="Q961" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,20 +69621,20 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K962" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L962" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M962" t="n">
-        <v>6000</v>
+        <v>8731</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
@@ -69643,10 +69643,10 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>333</v>
+        <v>582</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K963" t="n">
         <v>6000</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M963" t="n">
-        <v>6000</v>
+        <v>6233</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K964" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L964" t="n">
         <v>6000</v>
       </c>
       <c r="M964" t="n">
-        <v>5792</v>
+        <v>6000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q964" t="n">
         <v>20</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K965" t="n">
         <v>6000</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M965" t="n">
-        <v>6000</v>
+        <v>6269</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q965" t="n">
         <v>10</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K966" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L966" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M966" t="n">
-        <v>7267</v>
+        <v>7731</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69981,7 +69981,7 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K967" t="n">
         <v>6000</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70053,7 +70053,7 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K968" t="n">
         <v>6000</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K969" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L969" t="n">
         <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>6000</v>
+        <v>5792</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K970" t="n">
         <v>6000</v>
       </c>
       <c r="L970" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M970" t="n">
-        <v>6157</v>
+        <v>6000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="Q970" t="n">
         <v>10</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70269,7 +70269,7 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K971" t="n">
         <v>7000</v>
@@ -70278,7 +70278,7 @@
         <v>7500</v>
       </c>
       <c r="M971" t="n">
-        <v>7259</v>
+        <v>7267</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,20 +70413,20 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K973" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L973" t="n">
         <v>6000</v>
       </c>
       <c r="M973" t="n">
-        <v>5914</v>
+        <v>6000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
@@ -70435,10 +70435,10 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q973" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K974" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L974" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>4239</v>
+        <v>6000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="Q974" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,32 +70557,32 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K975" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L975" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M975" t="n">
-        <v>5740</v>
+        <v>6157</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,20 +70629,20 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M976" t="n">
-        <v>5000</v>
+        <v>7259</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
@@ -70651,10 +70651,10 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>278</v>
+        <v>484</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K977" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L977" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M977" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K978" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="L978" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>4150</v>
+        <v>5914</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="Q978" t="n">
         <v>20</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K979" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L979" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M979" t="n">
-        <v>3727</v>
+        <v>4239</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="Q979" t="n">
         <v>10</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K980" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L980" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M980" t="n">
-        <v>5144</v>
+        <v>5740</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Q980" t="n">
         <v>15</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K981" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L981" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M981" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q981" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71061,20 +71061,20 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K982" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L982" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q982" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K983" t="n">
         <v>4000</v>
       </c>
       <c r="L983" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M983" t="n">
-        <v>4000</v>
+        <v>4150</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="K984" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L984" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M984" t="n">
-        <v>6000</v>
+        <v>3727</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>600</v>
+        <v>373</v>
       </c>
       <c r="Q984" t="n">
         <v>10</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K985" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="M985" t="n">
-        <v>7238</v>
+        <v>5144</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>483</v>
+        <v>343</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71349,20 +71349,20 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K986" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L986" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M986" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q986" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,20 +71421,20 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K987" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L987" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M987" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
@@ -71443,10 +71443,10 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K988" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L988" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M988" t="n">
-        <v>5738</v>
+        <v>4000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K989" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L989" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M989" t="n">
-        <v>5273</v>
+        <v>6000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="Q989" t="n">
         <v>10</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K990" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L990" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M990" t="n">
-        <v>8250</v>
+        <v>7238</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71781,7 +71781,7 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K992" t="n">
         <v>6000</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K993" t="n">
         <v>5500</v>
       </c>
       <c r="L993" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M993" t="n">
-        <v>5500</v>
+        <v>5738</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q993" t="n">
         <v>20</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K994" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L994" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M994" t="n">
-        <v>4269</v>
+        <v>5273</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>427</v>
+        <v>527</v>
       </c>
       <c r="Q994" t="n">
         <v>10</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K995" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M995" t="n">
-        <v>5767</v>
+        <v>8250</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="Q995" t="n">
         <v>15</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K996" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M996" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K997" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L997" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M997" t="n">
-        <v>4227</v>
+        <v>6000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,20 +72213,20 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K998" t="n">
         <v>5500</v>
       </c>
       <c r="L998" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M998" t="n">
-        <v>5727</v>
+        <v>5500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>573</v>
+        <v>275</v>
       </c>
       <c r="Q998" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,20 +72285,20 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K999" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L999" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M999" t="n">
-        <v>7239</v>
+        <v>4269</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
@@ -72307,10 +72307,10 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,20 +72357,20 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1000" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1000" t="n">
         <v>6000</v>
       </c>
       <c r="M1000" t="n">
-        <v>6000</v>
+        <v>5767</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K1001" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1001" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1001" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,20 +72501,20 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K1002" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1002" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1002" t="n">
-        <v>6000</v>
+        <v>4227</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q1002" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1003" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1003" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1003" t="n">
-        <v>4738</v>
+        <v>5727</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="Q1003" t="n">
         <v>10</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72648,13 +72648,13 @@
         <v>115</v>
       </c>
       <c r="K1004" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1004" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1004" t="n">
-        <v>6239</v>
+        <v>7239</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1005" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1005" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72792,13 +72792,13 @@
         <v>60</v>
       </c>
       <c r="K1006" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1006" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1006" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K1007" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1007" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1007" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="Q1007" t="n">
         <v>20</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K1008" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L1008" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1008" t="n">
-        <v>3904</v>
+        <v>4738</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="Q1008" t="n">
         <v>10</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K1009" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1009" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="M1009" t="n">
-        <v>5129</v>
+        <v>6239</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K1010" t="n">
         <v>4500</v>
@@ -73086,7 +73086,7 @@
         <v>5000</v>
       </c>
       <c r="M1010" t="n">
-        <v>4767</v>
+        <v>4762</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,20 +73149,20 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1011" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1011" t="n">
         <v>4500</v>
       </c>
       <c r="M1011" t="n">
-        <v>4231</v>
+        <v>4500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>423</v>
+        <v>250</v>
       </c>
       <c r="Q1011" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73224,17 +73224,17 @@
         <v>105</v>
       </c>
       <c r="K1012" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1012" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1012" t="n">
-        <v>5762</v>
+        <v>4762</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
@@ -73243,10 +73243,10 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="Q1012" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,20 +73293,20 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K1013" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L1013" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1013" t="n">
-        <v>5000</v>
+        <v>3904</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="Q1013" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,20 +73365,20 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K1014" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1014" t="n">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="M1014" t="n">
-        <v>4500</v>
+        <v>5129</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
@@ -73387,10 +73387,10 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="Q1014" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,20 +73437,20 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K1015" t="n">
         <v>4500</v>
       </c>
       <c r="L1015" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1015" t="n">
-        <v>4664</v>
+        <v>4767</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
@@ -73459,10 +73459,10 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="Q1015" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73512,13 +73512,13 @@
         <v>130</v>
       </c>
       <c r="K1016" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1016" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1016" t="n">
-        <v>5269</v>
+        <v>4231</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="Q1016" t="n">
         <v>10</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1017" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1017" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1017" t="n">
-        <v>6731</v>
+        <v>5762</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73656,13 +73656,13 @@
         <v>60</v>
       </c>
       <c r="K1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73728,13 +73728,13 @@
         <v>60</v>
       </c>
       <c r="K1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73800,13 +73800,13 @@
         <v>110</v>
       </c>
       <c r="K1020" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1020" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1020" t="n">
-        <v>5273</v>
+        <v>4664</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Q1020" t="n">
         <v>20</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73872,13 +73872,13 @@
         <v>130</v>
       </c>
       <c r="K1021" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1021" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="M1021" t="n">
-        <v>6138</v>
+        <v>5269</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="Q1021" t="n">
         <v>10</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K1022" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1022" t="n">
         <v>7000</v>
       </c>
-      <c r="L1022" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1022" t="n">
-        <v>7250</v>
+        <v>6731</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,7 +74013,7 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1023" t="n">
         <v>6000</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74085,7 +74085,7 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1024" t="n">
         <v>6000</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1025" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L1025" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1025" t="n">
-        <v>5877</v>
+        <v>5273</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="Q1025" t="n">
         <v>20</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1026" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M1026" t="n">
-        <v>5727</v>
+        <v>6138</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q1026" t="n">
         <v>10</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K1027" t="n">
         <v>7000</v>
       </c>
       <c r="L1027" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="M1027" t="n">
-        <v>7155</v>
+        <v>7250</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74445,7 +74445,7 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1029" t="n">
         <v>6000</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1030" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="L1030" t="n">
         <v>6000</v>
       </c>
       <c r="M1030" t="n">
-        <v>6000</v>
+        <v>5877</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q1030" t="n">
         <v>20</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1031" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1031" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1031" t="n">
-        <v>6762</v>
+        <v>5727</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="Q1031" t="n">
         <v>10</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K1032" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1032" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="M1032" t="n">
-        <v>8769</v>
+        <v>7155</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="Q1032" t="n">
         <v>15</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1033" t="n">
         <v>6000</v>
       </c>
       <c r="L1033" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1033" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1034" t="n">
         <v>6000</v>
       </c>
       <c r="L1034" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1034" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K1035" t="n">
         <v>6000</v>
       </c>
       <c r="L1035" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1035" t="n">
-        <v>6281</v>
+        <v>6000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="Q1035" t="n">
         <v>20</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1036" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1036" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1036" t="n">
-        <v>5727</v>
+        <v>6762</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="Q1036" t="n">
         <v>10</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1037" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L1037" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1037" t="n">
-        <v>7261</v>
+        <v>8769</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,20 +75093,20 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K1038" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1038" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1038" t="n">
-        <v>5762</v>
+        <v>6250</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
@@ -75115,10 +75115,10 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>576</v>
+        <v>347</v>
       </c>
       <c r="Q1038" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,20 +75165,20 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K1039" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1039" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1039" t="n">
-        <v>8740</v>
+        <v>6227</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
@@ -75187,10 +75187,10 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>583</v>
+        <v>346</v>
       </c>
       <c r="Q1039" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,20 +75237,20 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K1040" t="n">
         <v>6000</v>
       </c>
       <c r="L1040" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1040" t="n">
-        <v>6000</v>
+        <v>6281</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
@@ -75259,10 +75259,10 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="Q1040" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1041" t="n">
         <v>5</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75309,20 +75309,20 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1041" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1041" t="n">
         <v>6000</v>
       </c>
       <c r="M1041" t="n">
-        <v>6000</v>
+        <v>5727</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
@@ -75331,10 +75331,10 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>333</v>
+        <v>573</v>
       </c>
       <c r="Q1041" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75381,20 +75381,20 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1042" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1042" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M1042" t="n">
-        <v>5500</v>
+        <v>7261</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
@@ -75403,10 +75403,10 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>275</v>
+        <v>484</v>
       </c>
       <c r="Q1042" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,20 +75453,20 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1043" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1043" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1043" t="n">
-        <v>8269</v>
+        <v>5762</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
@@ -75475,10 +75475,10 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="Q1043" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,20 +75525,20 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1044" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1044" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1044" t="n">
-        <v>6773</v>
+        <v>8740</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
@@ -75547,10 +75547,10 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="Q1044" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1045" t="n">
         <v>5</v>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75600,17 +75600,17 @@
         <v>60</v>
       </c>
       <c r="K1045" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1045" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1045" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
@@ -75619,10 +75619,10 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q1045" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1046" t="n">
         <v>5</v>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,20 +75669,20 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1046" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1046" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1046" t="n">
-        <v>4095</v>
+        <v>6000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
@@ -75691,10 +75691,10 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="Q1046" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,20 +75741,20 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1047" t="n">
         <v>5500</v>
       </c>
       <c r="L1047" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1047" t="n">
-        <v>5739</v>
+        <v>5500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,20 +75813,20 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1048" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1048" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1048" t="n">
-        <v>5000</v>
+        <v>8269</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="Q1048" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1049" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1049" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1049" t="n">
-        <v>5000</v>
+        <v>6773</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="Q1049" t="n">
         <v>18</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1050" t="n">
         <v>5</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1050" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1050" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1050" t="n">
-        <v>4409</v>
+        <v>7000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="Q1050" t="n">
         <v>20</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1051" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1051" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="M1051" t="n">
-        <v>6273</v>
+        <v>4095</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>627</v>
+        <v>410</v>
       </c>
       <c r="Q1051" t="n">
         <v>10</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1052" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1052" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1052" t="n">
-        <v>8238</v>
+        <v>5739</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="Q1052" t="n">
         <v>15</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76176,13 +76176,13 @@
         <v>60</v>
       </c>
       <c r="K1053" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1053" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1053" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1054" t="n">
         <v>5</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K1054" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1054" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1054" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1055" t="n">
         <v>5</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1055" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L1055" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1055" t="n">
-        <v>6000</v>
+        <v>4409</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="Q1055" t="n">
         <v>20</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1056" t="n">
         <v>6000</v>
       </c>
       <c r="L1056" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1056" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q1056" t="n">
         <v>10</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1057" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1057" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1057" t="n">
-        <v>7739</v>
+        <v>8238</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76605,7 +76605,7 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K1059" t="n">
         <v>6000</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76677,7 +76677,7 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1060" t="n">
         <v>6000</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1061" t="n">
         <v>5</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1061" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1061" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1061" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="Q1061" t="n">
         <v>10</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1062" t="n">
         <v>5</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1062" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1062" t="n">
-        <v>6762</v>
+        <v>7739</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="Q1062" t="n">
         <v>15</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1063" t="n">
         <v>5</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1063" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1063" t="n">
         <v>6000</v>
       </c>
       <c r="M1063" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q1063" t="n">
         <v>18</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1064" t="n">
         <v>5</v>
@@ -76965,7 +76965,7 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1064" t="n">
         <v>6000</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1065" t="n">
         <v>5</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1065" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1065" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1065" t="n">
-        <v>5227</v>
+        <v>6000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q1065" t="n">
         <v>20</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1066" t="n">
         <v>5</v>
@@ -77112,13 +77112,13 @@
         <v>105</v>
       </c>
       <c r="K1066" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1066" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1066" t="n">
-        <v>6738</v>
+        <v>4762</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>674</v>
+        <v>476</v>
       </c>
       <c r="Q1066" t="n">
         <v>10</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1067" t="n">
         <v>5</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1067" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1067" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1067" t="n">
-        <v>8480</v>
+        <v>6762</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>565</v>
+        <v>451</v>
       </c>
       <c r="Q1067" t="n">
         <v>15</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1068" t="n">
         <v>5</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1068" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1068" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1068" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q1068" t="n">
         <v>18</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1069" t="n">
         <v>5</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1069" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1069" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1069" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1070" t="n">
         <v>5</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1070" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1070" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1070" t="n">
-        <v>6762</v>
+        <v>5227</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="Q1070" t="n">
         <v>20</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1071" t="n">
         <v>5</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K1071" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1071" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1071" t="n">
-        <v>6229</v>
+        <v>6738</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="Q1071" t="n">
         <v>10</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1072" t="n">
         <v>5</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K1072" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L1072" t="n">
         <v>9000</v>
       </c>
       <c r="M1072" t="n">
-        <v>8765</v>
+        <v>8480</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="Q1072" t="n">
         <v>15</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,20 +77685,20 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1074" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1074" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1074" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
@@ -77707,10 +77707,10 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1074" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,20 +77757,20 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1075" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1075" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1075" t="n">
-        <v>6269</v>
+        <v>6762</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
@@ -77779,10 +77779,10 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>627</v>
+        <v>338</v>
       </c>
       <c r="Q1075" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,20 +77829,20 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K1076" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1076" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1076" t="n">
-        <v>8739</v>
+        <v>6229</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
@@ -77851,10 +77851,10 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="Q1076" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1077" t="n">
         <v>5</v>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,20 +77901,20 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1077" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1077" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1077" t="n">
-        <v>6000</v>
+        <v>8765</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
@@ -77923,10 +77923,10 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="Q1077" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1078" t="n">
         <v>5</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K1078" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1078" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1078" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1078" t="n">
         <v>18</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78048,13 +78048,13 @@
         <v>130</v>
       </c>
       <c r="K1079" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L1079" t="n">
         <v>6000</v>
       </c>
       <c r="M1079" t="n">
-        <v>5908</v>
+        <v>5769</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q1079" t="n">
         <v>20</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1080" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1080" t="n">
         <v>6500</v>
       </c>
-      <c r="L1080" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1080" t="n">
-        <v>6738</v>
+        <v>6269</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="Q1080" t="n">
         <v>10</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78189,7 +78189,7 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K1081" t="n">
         <v>8500</v>
@@ -78198,7 +78198,7 @@
         <v>9000</v>
       </c>
       <c r="M1081" t="n">
-        <v>8765</v>
+        <v>8739</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q1081" t="n">
         <v>15</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78261,7 +78261,7 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1082" t="n">
         <v>6000</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1083" t="n">
         <v>5</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1083" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1083" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1083" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1083" t="n">
         <v>18</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1084" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L1084" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1084" t="n">
-        <v>6762</v>
+        <v>5908</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q1084" t="n">
         <v>20</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K1085" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L1085" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1085" t="n">
-        <v>3905</v>
+        <v>6738</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>390</v>
+        <v>674</v>
       </c>
       <c r="Q1085" t="n">
         <v>10</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K1086" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1086" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M1086" t="n">
-        <v>5242</v>
+        <v>8765</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="Q1086" t="n">
         <v>15</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78612,25 +78612,25 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="K1087" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1087" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1087" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1087" t="n">
         <v>18</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K1088" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1088" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1088" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1088" t="n">
         <v>18</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,20 +78765,20 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1089" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1089" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1089" t="n">
-        <v>5000</v>
+        <v>6762</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
@@ -78787,10 +78787,10 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,20 +78837,20 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1090" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1090" t="n">
         <v>4000</v>
       </c>
-      <c r="L1090" t="n">
-        <v>4500</v>
-      </c>
       <c r="M1090" t="n">
-        <v>4254</v>
+        <v>3905</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
@@ -78859,10 +78859,10 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="Q1090" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78900,29 +78900,29 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K1091" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1091" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1091" t="n">
-        <v>3500</v>
+        <v>5242</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
@@ -78931,10 +78931,10 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="Q1091" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78972,29 +78972,29 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K1092" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1092" t="n">
         <v>4500</v>
       </c>
       <c r="M1092" t="n">
-        <v>4273</v>
+        <v>4500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
@@ -79003,10 +79003,10 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="Q1092" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,20 +79053,20 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="K1093" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1093" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1093" t="n">
-        <v>5821</v>
+        <v>5000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
@@ -79075,10 +79075,10 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="Q1093" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1094" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1094" t="n">
         <v>5000</v>
       </c>
       <c r="M1094" t="n">
-        <v>4727</v>
+        <v>5000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1095" t="n">
         <v>5</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,20 +79197,20 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K1095" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1095" t="n">
         <v>4500</v>
       </c>
-      <c r="L1095" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1095" t="n">
-        <v>4773</v>
+        <v>4254</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
@@ -79219,10 +79219,10 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="Q1095" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,58 +79245,418 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1096" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1096" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1096" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1096" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1096" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1097" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1096" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1096" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1096" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1096" t="inlineStr">
+      <c r="E1097" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1097" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>4273</v>
+      </c>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1097" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1097" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1097" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1098" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>5821</v>
+      </c>
+      <c r="N1098" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1098" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1098" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1098" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1099" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1099" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1099" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1100" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>4773</v>
+      </c>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1100" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1100" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I1096" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J1096" t="n">
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
         <v>130</v>
       </c>
-      <c r="K1096" t="n">
+      <c r="K1101" t="n">
         <v>4500</v>
       </c>
-      <c r="L1096" t="n">
+      <c r="L1101" t="n">
         <v>4800</v>
       </c>
-      <c r="M1096" t="n">
+      <c r="M1101" t="n">
         <v>4638</v>
       </c>
-      <c r="N1096" t="inlineStr">
+      <c r="N1101" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1096" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P1096" t="n">
+      <c r="O1101" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1101" t="n">
         <v>232</v>
       </c>
-      <c r="Q1096" t="n">
+      <c r="Q1101" t="n">
         <v>20</v>
       </c>
-      <c r="R1096" t="inlineStr">
+      <c r="R1101" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1101"/>
+  <dimension ref="A1:R1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K956" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L956" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M956" t="n">
-        <v>4269</v>
+        <v>4762</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Q956" t="n">
         <v>10</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,7 +69261,7 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K957" t="n">
         <v>5500</v>
@@ -69270,7 +69270,7 @@
         <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>5714</v>
+        <v>5762</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K958" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L958" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M958" t="n">
-        <v>4269</v>
+        <v>4636</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K959" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L959" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M959" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K960" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L960" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M960" t="n">
-        <v>4227</v>
+        <v>4738</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Q960" t="n">
         <v>20</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69552,13 +69552,13 @@
         <v>130</v>
       </c>
       <c r="K961" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L961" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M961" t="n">
-        <v>6231</v>
+        <v>4269</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>623</v>
+        <v>427</v>
       </c>
       <c r="Q961" t="n">
         <v>10</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K962" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L962" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M962" t="n">
-        <v>8731</v>
+        <v>5714</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>582</v>
+        <v>381</v>
       </c>
       <c r="Q962" t="n">
         <v>15</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K963" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L963" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M963" t="n">
-        <v>6233</v>
+        <v>4269</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,20 +69765,20 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K964" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L964" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M964" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q964" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,20 +69837,20 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K965" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L965" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M965" t="n">
-        <v>6269</v>
+        <v>4227</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
@@ -69859,10 +69859,10 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>627</v>
+        <v>211</v>
       </c>
       <c r="Q965" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69912,17 +69912,17 @@
         <v>130</v>
       </c>
       <c r="K966" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L966" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M966" t="n">
-        <v>7731</v>
+        <v>6231</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
@@ -69931,10 +69931,10 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="Q966" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,20 +69981,20 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K967" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L967" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M967" t="n">
-        <v>6000</v>
+        <v>8731</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
@@ -70003,10 +70003,10 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>333</v>
+        <v>582</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K968" t="n">
         <v>6000</v>
       </c>
       <c r="L968" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M968" t="n">
-        <v>6000</v>
+        <v>6233</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K969" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L969" t="n">
         <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>5792</v>
+        <v>6000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K970" t="n">
         <v>6000</v>
       </c>
       <c r="L970" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M970" t="n">
-        <v>6000</v>
+        <v>6269</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q970" t="n">
         <v>10</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K971" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L971" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M971" t="n">
-        <v>7267</v>
+        <v>7731</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K972" t="n">
         <v>6000</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70413,7 +70413,7 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K973" t="n">
         <v>6000</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K974" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L974" t="n">
         <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>6000</v>
+        <v>5792</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q974" t="n">
         <v>20</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K975" t="n">
         <v>6000</v>
       </c>
       <c r="L975" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M975" t="n">
-        <v>6157</v>
+        <v>6000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="Q975" t="n">
         <v>10</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,7 +70629,7 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K976" t="n">
         <v>7000</v>
@@ -70638,7 +70638,7 @@
         <v>7500</v>
       </c>
       <c r="M976" t="n">
-        <v>7259</v>
+        <v>7267</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,20 +70773,20 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K978" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L978" t="n">
         <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>5914</v>
+        <v>6000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
@@ -70795,10 +70795,10 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q978" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K979" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L979" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M979" t="n">
-        <v>4239</v>
+        <v>6000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="Q979" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K980" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L980" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M980" t="n">
-        <v>5740</v>
+        <v>6157</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="K981" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L981" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M981" t="n">
-        <v>5000</v>
+        <v>7259</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>278</v>
+        <v>484</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K982" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L982" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M982" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K983" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="L983" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M983" t="n">
-        <v>4150</v>
+        <v>5914</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K984" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L984" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M984" t="n">
-        <v>3727</v>
+        <v>4239</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="Q984" t="n">
         <v>10</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K985" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L985" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M985" t="n">
-        <v>5144</v>
+        <v>5740</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71349,20 +71349,20 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K986" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L986" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M986" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,20 +71421,20 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K987" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L987" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
@@ -71443,10 +71443,10 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K988" t="n">
         <v>4000</v>
       </c>
       <c r="L988" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M988" t="n">
-        <v>4000</v>
+        <v>4150</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L989" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M989" t="n">
-        <v>6000</v>
+        <v>3727</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>600</v>
+        <v>373</v>
       </c>
       <c r="Q989" t="n">
         <v>10</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K990" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L990" t="n">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="M990" t="n">
-        <v>7238</v>
+        <v>5144</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>483</v>
+        <v>343</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71709,20 +71709,20 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L991" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71781,20 +71781,20 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K992" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L992" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M992" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
@@ -71803,10 +71803,10 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q992" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K993" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L993" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M993" t="n">
-        <v>5738</v>
+        <v>4000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="Q993" t="n">
         <v>20</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K994" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L994" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M994" t="n">
-        <v>5273</v>
+        <v>6000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="Q994" t="n">
         <v>10</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K995" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L995" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M995" t="n">
-        <v>8250</v>
+        <v>7238</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q995" t="n">
         <v>15</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72141,7 +72141,7 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K997" t="n">
         <v>6000</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K998" t="n">
         <v>5500</v>
       </c>
       <c r="L998" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M998" t="n">
-        <v>5500</v>
+        <v>5738</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q998" t="n">
         <v>20</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K999" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L999" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M999" t="n">
-        <v>4269</v>
+        <v>5273</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>427</v>
+        <v>527</v>
       </c>
       <c r="Q999" t="n">
         <v>10</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K1000" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1000" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1000" t="n">
-        <v>5767</v>
+        <v>8250</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="Q1000" t="n">
         <v>15</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K1001" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1001" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1001" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1002" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1002" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1002" t="n">
-        <v>4227</v>
+        <v>6000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,20 +72573,20 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1003" t="n">
         <v>5500</v>
       </c>
       <c r="L1003" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1003" t="n">
-        <v>5727</v>
+        <v>5500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>573</v>
+        <v>275</v>
       </c>
       <c r="Q1003" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,20 +72645,20 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1004" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1004" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M1004" t="n">
-        <v>7239</v>
+        <v>4269</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,20 +72717,20 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1005" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1005" t="n">
         <v>6000</v>
       </c>
       <c r="M1005" t="n">
-        <v>6000</v>
+        <v>5767</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q1005" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,20 +72861,20 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K1007" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1007" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1007" t="n">
-        <v>6000</v>
+        <v>4227</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
@@ -72883,10 +72883,10 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q1007" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1008" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1008" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1008" t="n">
-        <v>4738</v>
+        <v>5727</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="Q1008" t="n">
         <v>10</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73008,13 +73008,13 @@
         <v>115</v>
       </c>
       <c r="K1009" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1009" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1009" t="n">
-        <v>6239</v>
+        <v>7239</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1010" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1010" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1010" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73152,13 +73152,13 @@
         <v>60</v>
       </c>
       <c r="K1011" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1011" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K1012" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1012" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1012" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="Q1012" t="n">
         <v>20</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K1013" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L1013" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1013" t="n">
-        <v>3904</v>
+        <v>4738</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="Q1013" t="n">
         <v>10</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K1014" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1014" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="M1014" t="n">
-        <v>5129</v>
+        <v>6239</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="Q1014" t="n">
         <v>15</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,7 +73437,7 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K1015" t="n">
         <v>4500</v>
@@ -73446,7 +73446,7 @@
         <v>5000</v>
       </c>
       <c r="M1015" t="n">
-        <v>4767</v>
+        <v>4762</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,20 +73509,20 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1016" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1016" t="n">
         <v>4500</v>
       </c>
       <c r="M1016" t="n">
-        <v>4231</v>
+        <v>4500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
@@ -73531,10 +73531,10 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>423</v>
+        <v>250</v>
       </c>
       <c r="Q1016" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73584,17 +73584,17 @@
         <v>105</v>
       </c>
       <c r="K1017" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1017" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1017" t="n">
-        <v>5762</v>
+        <v>4762</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,20 +73653,20 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K1018" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L1018" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1018" t="n">
-        <v>5000</v>
+        <v>3904</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,20 +73725,20 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K1019" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1019" t="n">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="M1019" t="n">
-        <v>4500</v>
+        <v>5129</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="Q1019" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,20 +73797,20 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K1020" t="n">
         <v>4500</v>
       </c>
       <c r="L1020" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1020" t="n">
-        <v>4664</v>
+        <v>4767</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
@@ -73819,10 +73819,10 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="Q1020" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73872,13 +73872,13 @@
         <v>130</v>
       </c>
       <c r="K1021" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1021" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1021" t="n">
-        <v>5269</v>
+        <v>4231</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="Q1021" t="n">
         <v>10</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1022" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1022" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1022" t="n">
-        <v>6731</v>
+        <v>5762</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74016,13 +74016,13 @@
         <v>60</v>
       </c>
       <c r="K1023" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1023" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1023" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74088,13 +74088,13 @@
         <v>60</v>
       </c>
       <c r="K1024" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1024" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1024" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74160,13 +74160,13 @@
         <v>110</v>
       </c>
       <c r="K1025" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1025" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1025" t="n">
-        <v>5273</v>
+        <v>4664</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Q1025" t="n">
         <v>20</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74232,13 +74232,13 @@
         <v>130</v>
       </c>
       <c r="K1026" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="M1026" t="n">
-        <v>6138</v>
+        <v>5269</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="Q1026" t="n">
         <v>10</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K1027" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1027" t="n">
         <v>7000</v>
       </c>
-      <c r="L1027" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1027" t="n">
-        <v>7250</v>
+        <v>6731</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,7 +74373,7 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1028" t="n">
         <v>6000</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74445,7 +74445,7 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1029" t="n">
         <v>6000</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1030" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L1030" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1030" t="n">
-        <v>5877</v>
+        <v>5273</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="Q1030" t="n">
         <v>20</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1031" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1031" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M1031" t="n">
-        <v>5727</v>
+        <v>6138</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q1031" t="n">
         <v>10</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K1032" t="n">
         <v>7000</v>
       </c>
       <c r="L1032" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="M1032" t="n">
-        <v>7155</v>
+        <v>7250</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q1032" t="n">
         <v>15</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74805,7 +74805,7 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1034" t="n">
         <v>6000</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1035" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="L1035" t="n">
         <v>6000</v>
       </c>
       <c r="M1035" t="n">
-        <v>6000</v>
+        <v>5877</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q1035" t="n">
         <v>20</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1036" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1036" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1036" t="n">
-        <v>6762</v>
+        <v>5727</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="Q1036" t="n">
         <v>10</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K1037" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1037" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="M1037" t="n">
-        <v>8769</v>
+        <v>7155</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1038" t="n">
         <v>6000</v>
       </c>
       <c r="L1038" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1038" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1039" t="n">
         <v>6000</v>
       </c>
       <c r="L1039" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1039" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K1040" t="n">
         <v>6000</v>
       </c>
       <c r="L1040" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1040" t="n">
-        <v>6281</v>
+        <v>6000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="Q1040" t="n">
         <v>20</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1041" t="n">
         <v>5</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1041" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1041" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1041" t="n">
-        <v>5727</v>
+        <v>6762</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="Q1041" t="n">
         <v>10</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1042" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L1042" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1042" t="n">
-        <v>7261</v>
+        <v>8769</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q1042" t="n">
         <v>15</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,20 +75453,20 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K1043" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1043" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1043" t="n">
-        <v>5762</v>
+        <v>6250</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
@@ -75475,10 +75475,10 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>576</v>
+        <v>347</v>
       </c>
       <c r="Q1043" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,20 +75525,20 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K1044" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1044" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1044" t="n">
-        <v>8740</v>
+        <v>6227</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
@@ -75547,10 +75547,10 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>583</v>
+        <v>346</v>
       </c>
       <c r="Q1044" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1045" t="n">
         <v>5</v>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,20 +75597,20 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K1045" t="n">
         <v>6000</v>
       </c>
       <c r="L1045" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1045" t="n">
-        <v>6000</v>
+        <v>6281</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
@@ -75619,10 +75619,10 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="Q1045" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1046" t="n">
         <v>5</v>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,20 +75669,20 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1046" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1046" t="n">
         <v>6000</v>
       </c>
       <c r="M1046" t="n">
-        <v>6000</v>
+        <v>5727</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
@@ -75691,10 +75691,10 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>333</v>
+        <v>573</v>
       </c>
       <c r="Q1046" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,20 +75741,20 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1047" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1047" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M1047" t="n">
-        <v>5500</v>
+        <v>7261</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>275</v>
+        <v>484</v>
       </c>
       <c r="Q1047" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75813,20 +75813,20 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1048" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1048" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1048" t="n">
-        <v>8269</v>
+        <v>5762</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
@@ -75835,10 +75835,10 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="Q1048" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,20 +75885,20 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1049" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1049" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1049" t="n">
-        <v>6773</v>
+        <v>8740</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
@@ -75907,10 +75907,10 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1050" t="n">
         <v>5</v>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -75960,17 +75960,17 @@
         <v>60</v>
       </c>
       <c r="K1050" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1050" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1050" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
@@ -75979,10 +75979,10 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q1050" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,20 +76029,20 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1051" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1051" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1051" t="n">
-        <v>4095</v>
+        <v>6000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
@@ -76051,10 +76051,10 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="Q1051" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76101,20 +76101,20 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1052" t="n">
         <v>5500</v>
       </c>
       <c r="L1052" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1052" t="n">
-        <v>5739</v>
+        <v>5500</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
@@ -76123,10 +76123,10 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="Q1052" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,20 +76173,20 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1053" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1053" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1053" t="n">
-        <v>5000</v>
+        <v>8269</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
@@ -76195,10 +76195,10 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="Q1053" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1054" t="n">
         <v>5</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1054" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1054" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1054" t="n">
-        <v>5000</v>
+        <v>6773</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1055" t="n">
         <v>5</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1055" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1055" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1055" t="n">
-        <v>4409</v>
+        <v>7000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="Q1055" t="n">
         <v>20</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1056" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1056" t="n">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="M1056" t="n">
-        <v>6273</v>
+        <v>4095</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>627</v>
+        <v>410</v>
       </c>
       <c r="Q1056" t="n">
         <v>10</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1057" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1057" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1057" t="n">
-        <v>8238</v>
+        <v>5739</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>549</v>
+        <v>383</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76536,13 +76536,13 @@
         <v>60</v>
       </c>
       <c r="K1058" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1058" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1058" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K1059" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1059" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1059" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1059" t="n">
         <v>18</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1060" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="L1060" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1060" t="n">
-        <v>6000</v>
+        <v>4409</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="Q1060" t="n">
         <v>20</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1061" t="n">
         <v>5</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1061" t="n">
         <v>6000</v>
       </c>
       <c r="L1061" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1061" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q1061" t="n">
         <v>10</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1062" t="n">
         <v>5</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1062" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1062" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1062" t="n">
-        <v>7739</v>
+        <v>8238</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="Q1062" t="n">
         <v>15</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1063" t="n">
         <v>5</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1064" t="n">
         <v>5</v>
@@ -76965,7 +76965,7 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K1064" t="n">
         <v>6000</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1065" t="n">
         <v>5</v>
@@ -77037,7 +77037,7 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1065" t="n">
         <v>6000</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1066" t="n">
         <v>5</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1066" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1066" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1066" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="Q1066" t="n">
         <v>10</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1067" t="n">
         <v>5</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1067" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1067" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1067" t="n">
-        <v>6762</v>
+        <v>7739</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="Q1067" t="n">
         <v>15</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1068" t="n">
         <v>5</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1068" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1068" t="n">
         <v>6000</v>
       </c>
       <c r="M1068" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q1068" t="n">
         <v>18</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1069" t="n">
         <v>5</v>
@@ -77325,7 +77325,7 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1069" t="n">
         <v>6000</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1070" t="n">
         <v>5</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1070" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1070" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1070" t="n">
-        <v>5227</v>
+        <v>6000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q1070" t="n">
         <v>20</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1071" t="n">
         <v>5</v>
@@ -77472,13 +77472,13 @@
         <v>105</v>
       </c>
       <c r="K1071" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1071" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1071" t="n">
-        <v>6738</v>
+        <v>4762</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>674</v>
+        <v>476</v>
       </c>
       <c r="Q1071" t="n">
         <v>10</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1072" t="n">
         <v>5</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1072" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1072" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1072" t="n">
-        <v>8480</v>
+        <v>6762</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>565</v>
+        <v>451</v>
       </c>
       <c r="Q1072" t="n">
         <v>15</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1073" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1073" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1073" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q1073" t="n">
         <v>18</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1074" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1074" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1074" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1074" t="n">
         <v>18</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1075" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1075" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1075" t="n">
-        <v>6762</v>
+        <v>5227</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="Q1075" t="n">
         <v>20</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K1076" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1076" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1076" t="n">
-        <v>6229</v>
+        <v>6738</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="Q1076" t="n">
         <v>10</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1077" t="n">
         <v>5</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K1077" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L1077" t="n">
         <v>9000</v>
       </c>
       <c r="M1077" t="n">
-        <v>8765</v>
+        <v>8480</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="Q1077" t="n">
         <v>15</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1078" t="n">
         <v>5</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,20 +78045,20 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1079" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1079" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1079" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1079" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78117,20 +78117,20 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1080" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1080" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1080" t="n">
-        <v>6269</v>
+        <v>6762</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>627</v>
+        <v>338</v>
       </c>
       <c r="Q1080" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,20 +78189,20 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K1081" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1081" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1081" t="n">
-        <v>8739</v>
+        <v>6229</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
@@ -78211,10 +78211,10 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="Q1081" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78261,20 +78261,20 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1082" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1082" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1082" t="n">
-        <v>6000</v>
+        <v>8765</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
@@ -78283,10 +78283,10 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="Q1082" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1083" t="n">
         <v>5</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K1083" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1083" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1083" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1083" t="n">
         <v>18</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78408,13 +78408,13 @@
         <v>130</v>
       </c>
       <c r="K1084" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L1084" t="n">
         <v>6000</v>
       </c>
       <c r="M1084" t="n">
-        <v>5908</v>
+        <v>5769</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q1084" t="n">
         <v>20</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1085" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1085" t="n">
         <v>6500</v>
       </c>
-      <c r="L1085" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1085" t="n">
-        <v>6738</v>
+        <v>6269</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="Q1085" t="n">
         <v>10</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78549,7 +78549,7 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K1086" t="n">
         <v>8500</v>
@@ -78558,7 +78558,7 @@
         <v>9000</v>
       </c>
       <c r="M1086" t="n">
-        <v>8765</v>
+        <v>8739</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q1086" t="n">
         <v>15</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78621,7 +78621,7 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1087" t="n">
         <v>6000</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1088" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1088" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1088" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1088" t="n">
         <v>18</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1089" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L1089" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1089" t="n">
-        <v>6762</v>
+        <v>5908</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q1089" t="n">
         <v>20</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1090" t="n">
         <v>5</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K1090" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L1090" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1090" t="n">
-        <v>3905</v>
+        <v>6738</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>390</v>
+        <v>674</v>
       </c>
       <c r="Q1090" t="n">
         <v>10</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1091" t="n">
         <v>5</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K1091" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1091" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M1091" t="n">
-        <v>5242</v>
+        <v>8765</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78972,25 +78972,25 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="K1092" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1092" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1092" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1092" t="n">
         <v>18</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K1093" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1093" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1093" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,20 +79125,20 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1094" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1094" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1094" t="n">
-        <v>5000</v>
+        <v>6762</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
@@ -79147,10 +79147,10 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="Q1094" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,20 +79197,20 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1095" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1095" t="n">
         <v>4000</v>
       </c>
-      <c r="L1095" t="n">
-        <v>4500</v>
-      </c>
       <c r="M1095" t="n">
-        <v>4254</v>
+        <v>3905</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
@@ -79219,10 +79219,10 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="Q1095" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79260,29 +79260,29 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K1096" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1096" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1096" t="n">
-        <v>3500</v>
+        <v>5242</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
@@ -79291,10 +79291,10 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="Q1096" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79332,29 +79332,29 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K1097" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1097" t="n">
         <v>4500</v>
       </c>
       <c r="M1097" t="n">
-        <v>4273</v>
+        <v>4500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
@@ -79363,10 +79363,10 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="Q1097" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,20 +79413,20 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="K1098" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1098" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1098" t="n">
-        <v>5821</v>
+        <v>5000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
@@ -79435,10 +79435,10 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="Q1098" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1099" t="n">
         <v>5</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1099" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1099" t="n">
         <v>5000</v>
       </c>
       <c r="M1099" t="n">
-        <v>4727</v>
+        <v>5000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1099" t="n">
         <v>18</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K1100" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1100" t="n">
         <v>4500</v>
       </c>
-      <c r="L1100" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1100" t="n">
-        <v>4773</v>
+        <v>4254</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="Q1100" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,58 +79605,418 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1101" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1101" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1101" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1101" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1101" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1101" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1101" t="inlineStr">
+      <c r="E1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1102" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>4273</v>
+      </c>
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1102" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1102" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1103" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>5821</v>
+      </c>
+      <c r="N1103" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1103" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1103" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1104" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N1104" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1104" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1104" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1105" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1105" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>4773</v>
+      </c>
+      <c r="N1105" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1105" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1105" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1105" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1106" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1106" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I1101" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J1101" t="n">
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1106" t="n">
         <v>130</v>
       </c>
-      <c r="K1101" t="n">
+      <c r="K1106" t="n">
         <v>4500</v>
       </c>
-      <c r="L1101" t="n">
+      <c r="L1106" t="n">
         <v>4800</v>
       </c>
-      <c r="M1101" t="n">
+      <c r="M1106" t="n">
         <v>4638</v>
       </c>
-      <c r="N1101" t="inlineStr">
+      <c r="N1106" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1101" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P1101" t="n">
+      <c r="O1106" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1106" t="n">
         <v>232</v>
       </c>
-      <c r="Q1101" t="n">
+      <c r="Q1106" t="n">
         <v>20</v>
       </c>
-      <c r="R1101" t="inlineStr">
+      <c r="R1106" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1112"/>
+  <dimension ref="A1:R1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1067" t="n">
         <v>5</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1067" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1067" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1067" t="n">
-        <v>6273</v>
+        <v>4269</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="Q1067" t="n">
         <v>10</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1068" t="n">
         <v>5</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1068" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1068" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1068" t="n">
-        <v>8238</v>
+        <v>5231</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>549</v>
+        <v>349</v>
       </c>
       <c r="Q1068" t="n">
         <v>15</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1069" t="n">
         <v>5</v>
@@ -77316,7 +77316,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K1069" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1069" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1069" t="n">
-        <v>6000</v>
+        <v>4738</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1070" t="n">
         <v>5</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K1070" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1070" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1070" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1070" t="n">
         <v>18</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1071" t="n">
         <v>5</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77472,17 +77472,17 @@
         <v>60</v>
       </c>
       <c r="K1071" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1071" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1071" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
@@ -77491,10 +77491,10 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q1071" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E1072" t="n">
         <v>5</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77541,20 +77541,20 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1072" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1072" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1072" t="n">
-        <v>6000</v>
+        <v>4273</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
@@ -77563,10 +77563,10 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>600</v>
+        <v>214</v>
       </c>
       <c r="Q1072" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,20 +77613,20 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1073" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1073" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M1073" t="n">
-        <v>7739</v>
+        <v>6273</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,10 +77635,10 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="Q1073" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,20 +77685,20 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K1074" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1074" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1074" t="n">
-        <v>6000</v>
+        <v>8238</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
@@ -77707,10 +77707,10 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q1074" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,7 +77829,7 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K1076" t="n">
         <v>6000</v>
@@ -77842,7 +77842,7 @@
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
@@ -77851,10 +77851,10 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q1076" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1077" t="n">
         <v>5</v>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,20 +77901,20 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1077" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1077" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1077" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
@@ -77923,10 +77923,10 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q1077" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1078" t="n">
         <v>5</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,20 +77973,20 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1078" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1078" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1078" t="n">
-        <v>6762</v>
+        <v>6000</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>451</v>
+        <v>600</v>
       </c>
       <c r="Q1078" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,20 +78045,20 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1079" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1079" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1079" t="n">
-        <v>5738</v>
+        <v>7739</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>319</v>
+        <v>516</v>
       </c>
       <c r="Q1079" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78117,7 +78117,7 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1080" t="n">
         <v>6000</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,20 +78189,20 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1081" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1081" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1081" t="n">
-        <v>5227</v>
+        <v>6000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
@@ -78211,10 +78211,10 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="Q1081" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78261,20 +78261,20 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K1082" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1082" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1082" t="n">
-        <v>6738</v>
+        <v>6000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
@@ -78283,10 +78283,10 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>674</v>
+        <v>300</v>
       </c>
       <c r="Q1082" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1083" t="n">
         <v>5</v>
@@ -78324,7 +78324,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -78333,20 +78333,20 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1083" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1083" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M1083" t="n">
-        <v>8480</v>
+        <v>4762</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
@@ -78355,10 +78355,10 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="Q1083" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,20 +78405,20 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1084" t="n">
         <v>6500</v>
       </c>
       <c r="L1084" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1084" t="n">
-        <v>6500</v>
+        <v>6762</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
@@ -78427,10 +78427,10 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>361</v>
+        <v>451</v>
       </c>
       <c r="Q1084" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78468,7 +78468,7 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1085" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1085" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1085" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q1085" t="n">
         <v>18</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,20 +78549,20 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K1086" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1086" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1086" t="n">
-        <v>6762</v>
+        <v>6000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
@@ -78571,10 +78571,10 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q1086" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,20 +78621,20 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="K1087" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1087" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1087" t="n">
-        <v>6229</v>
+        <v>5227</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
@@ -78643,10 +78643,10 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>623</v>
+        <v>261</v>
       </c>
       <c r="Q1087" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,20 +78693,20 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="K1088" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L1088" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1088" t="n">
-        <v>8765</v>
+        <v>6738</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
@@ -78715,10 +78715,10 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="Q1088" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,20 +78765,20 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K1089" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1089" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M1089" t="n">
-        <v>6500</v>
+        <v>8480</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
@@ -78787,10 +78787,10 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>361</v>
+        <v>565</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1090" t="n">
         <v>5</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,20 +78837,20 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1090" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1090" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1090" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
@@ -78859,10 +78859,10 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1090" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1091" t="n">
         <v>5</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,20 +78909,20 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1091" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1091" t="n">
         <v>6500</v>
       </c>
       <c r="M1091" t="n">
-        <v>6269</v>
+        <v>6500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
@@ -78931,10 +78931,10 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>627</v>
+        <v>361</v>
       </c>
       <c r="Q1091" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,20 +78981,20 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1092" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="L1092" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1092" t="n">
-        <v>8739</v>
+        <v>6762</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
@@ -79003,10 +79003,10 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>583</v>
+        <v>338</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,20 +79053,20 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K1093" t="n">
         <v>6000</v>
       </c>
       <c r="L1093" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1093" t="n">
-        <v>6000</v>
+        <v>6229</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
@@ -79075,10 +79075,10 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>333</v>
+        <v>623</v>
       </c>
       <c r="Q1093" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,20 +79125,20 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1094" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1094" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6000</v>
+        <v>8765</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
@@ -79147,10 +79147,10 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="Q1094" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1095" t="n">
         <v>5</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,20 +79197,20 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1095" t="n">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="L1095" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1095" t="n">
-        <v>5908</v>
+        <v>6500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
@@ -79219,10 +79219,10 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="Q1095" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1096" t="n">
         <v>5</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,20 +79269,20 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1096" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1096" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1096" t="n">
-        <v>6738</v>
+        <v>5769</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
@@ -79291,10 +79291,10 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>674</v>
+        <v>288</v>
       </c>
       <c r="Q1096" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,20 +79341,20 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K1097" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1097" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1097" t="n">
-        <v>8765</v>
+        <v>6269</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
@@ -79363,10 +79363,10 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="Q1097" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,20 +79413,20 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1098" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1098" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1098" t="n">
-        <v>6000</v>
+        <v>8739</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
@@ -79435,10 +79435,10 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="Q1098" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1099" t="n">
         <v>5</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1099" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1099" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1099" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1099" t="n">
         <v>18</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K1100" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1100" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1100" t="n">
-        <v>6762</v>
+        <v>6000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q1100" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1101" t="n">
         <v>5</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,20 +79629,20 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K1101" t="n">
-        <v>3800</v>
+        <v>5800</v>
       </c>
       <c r="L1101" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1101" t="n">
-        <v>3905</v>
+        <v>5908</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
@@ -79651,10 +79651,10 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="Q1101" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1102" t="n">
         <v>5</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,20 +79701,20 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="K1102" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1102" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1102" t="n">
-        <v>5242</v>
+        <v>6738</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
@@ -79723,10 +79723,10 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>349</v>
+        <v>674</v>
       </c>
       <c r="Q1102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1103" t="n">
         <v>5</v>
@@ -79769,24 +79769,24 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K1103" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="L1103" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M1103" t="n">
-        <v>4500</v>
+        <v>8765</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>250</v>
+        <v>584</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1104" t="n">
         <v>5</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K1104" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1104" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1104" t="n">
         <v>18</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1105" t="n">
         <v>5</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1105" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1105" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1105" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1106" t="n">
         <v>5</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="K1106" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1106" t="n">
-        <v>4254</v>
+        <v>6762</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="Q1106" t="n">
         <v>20</v>
@@ -80052,29 +80052,29 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="K1107" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L1107" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1107" t="n">
-        <v>3500</v>
+        <v>3905</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
@@ -80083,10 +80083,10 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>146</v>
+        <v>390</v>
       </c>
       <c r="Q1107" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1108" t="n">
         <v>5</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,20 +80133,20 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K1108" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1108" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1108" t="n">
-        <v>4273</v>
+        <v>5242</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
@@ -80155,10 +80155,10 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>427</v>
+        <v>349</v>
       </c>
       <c r="Q1108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1109" t="n">
         <v>5</v>
@@ -80201,24 +80201,24 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="K1109" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1109" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1109" t="n">
-        <v>5821</v>
+        <v>4500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
@@ -80227,10 +80227,10 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1110" t="n">
         <v>5</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="K1110" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1110" t="n">
         <v>5000</v>
       </c>
       <c r="M1110" t="n">
-        <v>4727</v>
+        <v>5000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1111" t="n">
         <v>5</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1111" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1111" t="n">
         <v>5000</v>
       </c>
       <c r="M1111" t="n">
-        <v>4773</v>
+        <v>5000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q1111" t="n">
         <v>18</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1112" t="n">
         <v>5</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K1112" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1112" t="n">
         <v>4500</v>
       </c>
-      <c r="L1112" t="n">
-        <v>4800</v>
-      </c>
       <c r="M1112" t="n">
-        <v>4638</v>
+        <v>4254</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,12 +80443,444 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="Q1112" t="n">
         <v>20</v>
       </c>
       <c r="R1112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1113" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1113" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1113" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1113" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1113" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1114" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>4273</v>
+      </c>
+      <c r="N1114" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1114" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1114" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1115" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1115" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>5821</v>
+      </c>
+      <c r="N1115" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1115" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1115" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1116" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1116" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N1116" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1116" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1116" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1116" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1117" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1117" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>4773</v>
+      </c>
+      <c r="N1117" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1117" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1117" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1117" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1118" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1118" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1118" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>4638</v>
+      </c>
+      <c r="N1118" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1118" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1118" t="n">
+        <v>232</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1118" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1124"/>
+  <dimension ref="A1:R1129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E919" t="n">
         <v>5</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K919" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L919" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>6262</v>
+        <v>4731</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>626</v>
+        <v>473</v>
       </c>
       <c r="Q919" t="n">
         <v>10</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E920" t="n">
         <v>5</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="K920" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L920" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M920" t="n">
-        <v>8762</v>
+        <v>6219</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>584</v>
+        <v>415</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E921" t="n">
         <v>5</v>
@@ -66672,13 +66672,13 @@
         <v>125</v>
       </c>
       <c r="K921" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L921" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M921" t="n">
-        <v>6260</v>
+        <v>5240</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E922" t="n">
         <v>5</v>
@@ -66744,13 +66744,13 @@
         <v>60</v>
       </c>
       <c r="K922" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L922" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M922" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="Q922" t="n">
         <v>18</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E923" t="n">
         <v>5</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K923" t="n">
-        <v>8500</v>
+        <v>4500</v>
       </c>
       <c r="L923" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="M923" t="n">
-        <v>8739</v>
+        <v>4662</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>437</v>
+        <v>233</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E924" t="n">
         <v>5</v>
@@ -66888,13 +66888,13 @@
         <v>105</v>
       </c>
       <c r="K924" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L924" t="n">
-        <v>4200</v>
+        <v>6500</v>
       </c>
       <c r="M924" t="n">
-        <v>4095</v>
+        <v>6262</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>410</v>
+        <v>626</v>
       </c>
       <c r="Q924" t="n">
         <v>10</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E925" t="n">
         <v>5</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K925" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L925" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M925" t="n">
-        <v>5737</v>
+        <v>8762</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>382</v>
+        <v>584</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E926" t="n">
         <v>5</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L926" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M926" t="n">
-        <v>5000</v>
+        <v>6260</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E927" t="n">
         <v>5</v>
@@ -67104,13 +67104,13 @@
         <v>60</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M927" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E928" t="n">
         <v>5</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K928" t="n">
-        <v>4200</v>
+        <v>8500</v>
       </c>
       <c r="L928" t="n">
-        <v>4300</v>
+        <v>9000</v>
       </c>
       <c r="M928" t="n">
-        <v>4254</v>
+        <v>8739</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>213</v>
+        <v>437</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E929" t="n">
         <v>5</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K929" t="n">
         <v>4000</v>
       </c>
       <c r="L929" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M929" t="n">
-        <v>4269</v>
+        <v>4095</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="Q929" t="n">
         <v>10</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E930" t="n">
         <v>5</v>
@@ -67317,7 +67317,7 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K930" t="n">
         <v>5500</v>
@@ -67326,7 +67326,7 @@
         <v>6000</v>
       </c>
       <c r="M930" t="n">
-        <v>5750</v>
+        <v>5737</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E931" t="n">
         <v>5</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K931" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L931" t="n">
         <v>5000</v>
       </c>
       <c r="M931" t="n">
-        <v>4760</v>
+        <v>5000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E932" t="n">
         <v>5</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K932" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L932" t="n">
         <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>4769</v>
+        <v>5000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E933" t="n">
         <v>5</v>
@@ -67536,13 +67536,13 @@
         <v>130</v>
       </c>
       <c r="K933" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="L933" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="M933" t="n">
-        <v>4769</v>
+        <v>4254</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E934" t="n">
         <v>5</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K934" t="n">
         <v>4000</v>
       </c>
       <c r="L934" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="M934" t="n">
-        <v>4136</v>
+        <v>4269</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q934" t="n">
         <v>10</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E935" t="n">
         <v>5</v>
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K935" t="n">
         <v>5500</v>
@@ -67686,7 +67686,7 @@
         <v>6000</v>
       </c>
       <c r="M935" t="n">
-        <v>5763</v>
+        <v>5750</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E936" t="n">
         <v>5</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K936" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L936" t="n">
         <v>5000</v>
       </c>
       <c r="M936" t="n">
-        <v>5000</v>
+        <v>4760</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E937" t="n">
         <v>5</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L937" t="n">
         <v>5000</v>
       </c>
       <c r="M937" t="n">
-        <v>5000</v>
+        <v>4769</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E938" t="n">
         <v>5</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K938" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L938" t="n">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="M938" t="n">
-        <v>4164</v>
+        <v>4769</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E939" t="n">
         <v>5</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L939" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="M939" t="n">
-        <v>6192</v>
+        <v>4136</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>619</v>
+        <v>414</v>
       </c>
       <c r="Q939" t="n">
         <v>10</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E940" t="n">
         <v>5</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K940" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L940" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M940" t="n">
-        <v>7239</v>
+        <v>5763</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>483</v>
+        <v>384</v>
       </c>
       <c r="Q940" t="n">
         <v>15</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E941" t="n">
         <v>5</v>
@@ -68112,13 +68112,13 @@
         <v>60</v>
       </c>
       <c r="K941" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L941" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E942" t="n">
         <v>5</v>
@@ -68184,13 +68184,13 @@
         <v>60</v>
       </c>
       <c r="K942" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L942" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E943" t="n">
         <v>5</v>
@@ -68256,13 +68256,13 @@
         <v>110</v>
       </c>
       <c r="K943" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L943" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M943" t="n">
-        <v>5773</v>
+        <v>4164</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E944" t="n">
         <v>5</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K944" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L944" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M944" t="n">
-        <v>4145</v>
+        <v>6192</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>414</v>
+        <v>619</v>
       </c>
       <c r="Q944" t="n">
         <v>10</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="K945" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L945" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M945" t="n">
-        <v>5242</v>
+        <v>7239</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E946" t="n">
         <v>5</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K946" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L946" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M946" t="n">
-        <v>5262</v>
+        <v>6000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E947" t="n">
         <v>5</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M947" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E948" t="n">
         <v>5</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K948" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="L948" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M948" t="n">
-        <v>4400</v>
+        <v>5773</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E949" t="n">
         <v>5</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K949" t="n">
         <v>4000</v>
       </c>
       <c r="L949" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M949" t="n">
-        <v>4269</v>
+        <v>4145</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Q949" t="n">
         <v>10</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E950" t="n">
         <v>5</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K950" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L950" t="n">
         <v>5500</v>
       </c>
-      <c r="L950" t="n">
-        <v>6000</v>
-      </c>
       <c r="M950" t="n">
-        <v>5700</v>
+        <v>5242</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E951" t="n">
         <v>5</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K951" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L951" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M951" t="n">
-        <v>4500</v>
+        <v>5262</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E952" t="n">
         <v>5</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K952" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L952" t="n">
         <v>5000</v>
       </c>
       <c r="M952" t="n">
-        <v>4714</v>
+        <v>5000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E953" t="n">
         <v>5</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="K953" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L953" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="M953" t="n">
-        <v>4143</v>
+        <v>4400</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E954" t="n">
         <v>5</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="K954" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L954" t="n">
         <v>4500</v>
       </c>
-      <c r="L954" t="n">
-        <v>5000</v>
-      </c>
       <c r="M954" t="n">
-        <v>4769</v>
+        <v>4269</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="Q954" t="n">
         <v>10</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E955" t="n">
         <v>5</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K955" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L955" t="n">
         <v>6000</v>
       </c>
       <c r="M955" t="n">
-        <v>5514</v>
+        <v>5700</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E956" t="n">
         <v>5</v>
@@ -69189,7 +69189,7 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K956" t="n">
         <v>4500</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E957" t="n">
         <v>5</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K957" t="n">
         <v>4500</v>
       </c>
       <c r="L957" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>4500</v>
+        <v>4714</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E958" t="n">
         <v>5</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K958" t="n">
         <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M958" t="n">
-        <v>4255</v>
+        <v>4143</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E959" t="n">
         <v>5</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K959" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L959" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M959" t="n">
-        <v>6138</v>
+        <v>4769</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>614</v>
+        <v>477</v>
       </c>
       <c r="Q959" t="n">
         <v>10</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E960" t="n">
         <v>5</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K960" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L960" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M960" t="n">
-        <v>7760</v>
+        <v>5514</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>517</v>
+        <v>368</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E961" t="n">
         <v>5</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K961" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L961" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M961" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E962" t="n">
         <v>5</v>
@@ -69624,13 +69624,13 @@
         <v>50</v>
       </c>
       <c r="K962" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L962" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M962" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E963" t="n">
         <v>5</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="K963" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M963" t="n">
-        <v>6000</v>
+        <v>4255</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E964" t="n">
         <v>5</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K964" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="L964" t="n">
-        <v>4500</v>
+        <v>6300</v>
       </c>
       <c r="M964" t="n">
-        <v>4396</v>
+        <v>6138</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>440</v>
+        <v>614</v>
       </c>
       <c r="Q964" t="n">
         <v>10</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E965" t="n">
         <v>5</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K965" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L965" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M965" t="n">
-        <v>6738</v>
+        <v>7760</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E966" t="n">
         <v>5</v>
@@ -69909,7 +69909,7 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K966" t="n">
         <v>6000</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E967" t="n">
         <v>5</v>
@@ -69981,7 +69981,7 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K967" t="n">
         <v>6000</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E968" t="n">
         <v>5</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,20 +70053,20 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K968" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L968" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M968" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q968" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E969" t="n">
         <v>5</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,20 +70125,20 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K969" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L969" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M969" t="n">
-        <v>5762</v>
+        <v>4396</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E970" t="n">
         <v>5</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,20 +70197,20 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K970" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L970" t="n">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="M970" t="n">
-        <v>4636</v>
+        <v>6738</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>258</v>
+        <v>449</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E971" t="n">
         <v>5</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E972" t="n">
         <v>5</v>
@@ -70332,7 +70332,7 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -70341,20 +70341,20 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="K972" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L972" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M972" t="n">
-        <v>4738</v>
+        <v>6000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
@@ -70363,10 +70363,10 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="Q972" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E973" t="n">
         <v>5</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K973" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L973" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M973" t="n">
-        <v>4269</v>
+        <v>4762</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Q973" t="n">
         <v>10</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E974" t="n">
         <v>5</v>
@@ -70485,7 +70485,7 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K974" t="n">
         <v>5500</v>
@@ -70494,7 +70494,7 @@
         <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>5714</v>
+        <v>5762</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q974" t="n">
         <v>15</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E975" t="n">
         <v>5</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K975" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L975" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M975" t="n">
-        <v>4269</v>
+        <v>4636</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E976" t="n">
         <v>5</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K976" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M976" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E977" t="n">
         <v>5</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K977" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L977" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M977" t="n">
-        <v>4227</v>
+        <v>4738</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Q977" t="n">
         <v>20</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E978" t="n">
         <v>5</v>
@@ -70776,13 +70776,13 @@
         <v>130</v>
       </c>
       <c r="K978" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L978" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M978" t="n">
-        <v>6231</v>
+        <v>4269</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>623</v>
+        <v>427</v>
       </c>
       <c r="Q978" t="n">
         <v>10</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E979" t="n">
         <v>5</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K979" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L979" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M979" t="n">
-        <v>8731</v>
+        <v>5714</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>582</v>
+        <v>381</v>
       </c>
       <c r="Q979" t="n">
         <v>15</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E980" t="n">
         <v>5</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K980" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L980" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M980" t="n">
-        <v>6233</v>
+        <v>4269</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E981" t="n">
         <v>5</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K981" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L981" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M981" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q981" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E982" t="n">
         <v>5</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,20 +71061,20 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K982" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L982" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M982" t="n">
-        <v>6269</v>
+        <v>4227</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>627</v>
+        <v>211</v>
       </c>
       <c r="Q982" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E983" t="n">
         <v>5</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71136,17 +71136,17 @@
         <v>130</v>
       </c>
       <c r="K983" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L983" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M983" t="n">
-        <v>7731</v>
+        <v>6231</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
@@ -71155,10 +71155,10 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="Q983" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E984" t="n">
         <v>5</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,20 +71205,20 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K984" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L984" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M984" t="n">
-        <v>6000</v>
+        <v>8731</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
@@ -71227,10 +71227,10 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>333</v>
+        <v>582</v>
       </c>
       <c r="Q984" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E985" t="n">
         <v>5</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K985" t="n">
         <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M985" t="n">
-        <v>6000</v>
+        <v>6233</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q985" t="n">
         <v>18</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E986" t="n">
         <v>5</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K986" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L986" t="n">
         <v>6000</v>
       </c>
       <c r="M986" t="n">
-        <v>5792</v>
+        <v>6000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q986" t="n">
         <v>20</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K987" t="n">
         <v>6000</v>
       </c>
       <c r="L987" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M987" t="n">
-        <v>6000</v>
+        <v>6269</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q987" t="n">
         <v>10</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K988" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L988" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M988" t="n">
-        <v>7267</v>
+        <v>7731</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="Q988" t="n">
         <v>15</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71565,7 +71565,7 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K989" t="n">
         <v>6000</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71637,7 +71637,7 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K990" t="n">
         <v>6000</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L991" t="n">
         <v>6000</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>5792</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q991" t="n">
         <v>20</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K992" t="n">
         <v>6000</v>
       </c>
       <c r="L992" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M992" t="n">
-        <v>6157</v>
+        <v>6000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="Q992" t="n">
         <v>10</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71853,7 +71853,7 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K993" t="n">
         <v>7000</v>
@@ -71862,7 +71862,7 @@
         <v>7500</v>
       </c>
       <c r="M993" t="n">
-        <v>7259</v>
+        <v>7267</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,20 +71997,20 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K995" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L995" t="n">
         <v>6000</v>
       </c>
       <c r="M995" t="n">
-        <v>5914</v>
+        <v>6000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q995" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,32 +72069,32 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K996" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M996" t="n">
-        <v>4239</v>
+        <v>6000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="Q996" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K997" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L997" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M997" t="n">
-        <v>5740</v>
+        <v>6157</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,20 +72213,20 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="K998" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L998" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M998" t="n">
-        <v>5000</v>
+        <v>7259</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>278</v>
+        <v>484</v>
       </c>
       <c r="Q998" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K1000" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="L1000" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M1000" t="n">
-        <v>4150</v>
+        <v>5914</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="Q1000" t="n">
         <v>20</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="K1001" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1001" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1001" t="n">
-        <v>3727</v>
+        <v>4239</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="Q1001" t="n">
         <v>10</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K1002" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1002" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="M1002" t="n">
-        <v>5144</v>
+        <v>5740</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="Q1002" t="n">
         <v>15</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72573,20 +72573,20 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K1003" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1003" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1003" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q1003" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72645,20 +72645,20 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1004" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1004" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1004" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K1005" t="n">
         <v>4000</v>
       </c>
       <c r="L1005" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="M1005" t="n">
-        <v>4000</v>
+        <v>4150</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q1005" t="n">
         <v>20</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="K1006" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>3727</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>600</v>
+        <v>373</v>
       </c>
       <c r="Q1006" t="n">
         <v>10</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K1007" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1007" t="n">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="M1007" t="n">
-        <v>7238</v>
+        <v>5144</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>483</v>
+        <v>343</v>
       </c>
       <c r="Q1007" t="n">
         <v>15</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72933,20 +72933,20 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K1008" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1008" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1008" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
@@ -72955,10 +72955,10 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1009" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1009" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1009" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1010" t="n">
         <v>5</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K1010" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1010" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1010" t="n">
-        <v>5738</v>
+        <v>4000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="Q1010" t="n">
         <v>20</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1011" t="n">
         <v>5</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1011" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1011" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>5273</v>
+        <v>6000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="Q1011" t="n">
         <v>10</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1012" t="n">
         <v>5</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1012" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1012" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M1012" t="n">
-        <v>8250</v>
+        <v>7238</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="Q1012" t="n">
         <v>15</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73365,7 +73365,7 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1014" t="n">
         <v>6000</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1015" t="n">
         <v>5500</v>
       </c>
       <c r="L1015" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1015" t="n">
-        <v>5500</v>
+        <v>5738</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1015" t="n">
         <v>20</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1016" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1016" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1016" t="n">
-        <v>4269</v>
+        <v>5273</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>427</v>
+        <v>527</v>
       </c>
       <c r="Q1016" t="n">
         <v>10</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K1017" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1017" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1017" t="n">
-        <v>5767</v>
+        <v>8250</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1018" t="n">
         <v>5</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K1018" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1018" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1018" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>233</v>
+        <v>333</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1019" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1019" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1019" t="n">
-        <v>4227</v>
+        <v>6000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,20 +73797,20 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1020" t="n">
         <v>5500</v>
       </c>
       <c r="L1020" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1020" t="n">
-        <v>5727</v>
+        <v>5500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
@@ -73819,10 +73819,10 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>573</v>
+        <v>275</v>
       </c>
       <c r="Q1020" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,20 +73869,20 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1021" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1021" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M1021" t="n">
-        <v>7239</v>
+        <v>4269</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
@@ -73891,10 +73891,10 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="Q1021" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73932,7 +73932,7 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -73941,20 +73941,20 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1022" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1022" t="n">
         <v>6000</v>
       </c>
       <c r="M1022" t="n">
-        <v>6000</v>
+        <v>5767</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
@@ -73963,10 +73963,10 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q1022" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K1023" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1023" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1023" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,20 +74085,20 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K1024" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1024" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1024" t="n">
-        <v>6000</v>
+        <v>4227</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q1024" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1025" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1025" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1025" t="n">
-        <v>4738</v>
+        <v>5727</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>474</v>
+        <v>573</v>
       </c>
       <c r="Q1025" t="n">
         <v>10</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74232,13 +74232,13 @@
         <v>115</v>
       </c>
       <c r="K1026" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1026" t="n">
-        <v>6239</v>
+        <v>7239</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="Q1026" t="n">
         <v>15</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1027" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1027" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1027" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74376,13 +74376,13 @@
         <v>60</v>
       </c>
       <c r="K1028" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1028" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1028" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K1029" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1029" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1029" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="Q1029" t="n">
         <v>20</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K1030" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="L1030" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1030" t="n">
-        <v>3904</v>
+        <v>4738</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="Q1030" t="n">
         <v>10</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K1031" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1031" t="n">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="M1031" t="n">
-        <v>5129</v>
+        <v>6239</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="Q1031" t="n">
         <v>15</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,7 +74661,7 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K1032" t="n">
         <v>4500</v>
@@ -74670,7 +74670,7 @@
         <v>5000</v>
       </c>
       <c r="M1032" t="n">
-        <v>4767</v>
+        <v>4762</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,20 +74733,20 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1033" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1033" t="n">
         <v>4500</v>
       </c>
       <c r="M1033" t="n">
-        <v>4231</v>
+        <v>4500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>423</v>
+        <v>250</v>
       </c>
       <c r="Q1033" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74808,17 +74808,17 @@
         <v>105</v>
       </c>
       <c r="K1034" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1034" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1034" t="n">
-        <v>5762</v>
+        <v>4762</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="Q1034" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,20 +74877,20 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K1035" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L1035" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1035" t="n">
-        <v>5000</v>
+        <v>3904</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="Q1035" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,20 +74949,20 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K1036" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1036" t="n">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="M1036" t="n">
-        <v>4500</v>
+        <v>5129</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
@@ -74971,10 +74971,10 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="Q1036" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,20 +75021,20 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K1037" t="n">
         <v>4500</v>
       </c>
       <c r="L1037" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1037" t="n">
-        <v>4664</v>
+        <v>4767</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
@@ -75043,10 +75043,10 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="Q1037" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75096,13 +75096,13 @@
         <v>130</v>
       </c>
       <c r="K1038" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1038" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1038" t="n">
-        <v>5269</v>
+        <v>4231</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="Q1038" t="n">
         <v>10</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1039" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1039" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1039" t="n">
-        <v>6731</v>
+        <v>5762</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="Q1039" t="n">
         <v>15</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75240,13 +75240,13 @@
         <v>60</v>
       </c>
       <c r="K1040" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1040" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1040" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1041" t="n">
         <v>5</v>
@@ -75312,13 +75312,13 @@
         <v>60</v>
       </c>
       <c r="K1041" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1041" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1041" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75384,13 +75384,13 @@
         <v>110</v>
       </c>
       <c r="K1042" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1042" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1042" t="n">
-        <v>5273</v>
+        <v>4664</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="Q1042" t="n">
         <v>20</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75456,13 +75456,13 @@
         <v>130</v>
       </c>
       <c r="K1043" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1043" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="M1043" t="n">
-        <v>6138</v>
+        <v>5269</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="Q1043" t="n">
         <v>10</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K1044" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1044" t="n">
         <v>7000</v>
       </c>
-      <c r="L1044" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1044" t="n">
-        <v>7250</v>
+        <v>6731</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q1044" t="n">
         <v>15</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1045" t="n">
         <v>5</v>
@@ -75588,7 +75588,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -75597,7 +75597,7 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1045" t="n">
         <v>6000</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1046" t="n">
         <v>5</v>
@@ -75669,7 +75669,7 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1046" t="n">
         <v>6000</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1047" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="L1047" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1047" t="n">
-        <v>5877</v>
+        <v>5273</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="Q1047" t="n">
         <v>20</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1048" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1048" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M1048" t="n">
-        <v>5727</v>
+        <v>6138</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q1048" t="n">
         <v>10</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K1049" t="n">
         <v>7000</v>
       </c>
       <c r="L1049" t="n">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="M1049" t="n">
-        <v>7155</v>
+        <v>7250</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Q1049" t="n">
         <v>15</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1050" t="n">
         <v>5</v>
@@ -75948,7 +75948,7 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76029,7 +76029,7 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1051" t="n">
         <v>6000</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1052" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="L1052" t="n">
         <v>6000</v>
       </c>
       <c r="M1052" t="n">
-        <v>6000</v>
+        <v>5877</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q1052" t="n">
         <v>20</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1053" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1053" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1053" t="n">
-        <v>6762</v>
+        <v>5727</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="Q1053" t="n">
         <v>10</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1054" t="n">
         <v>5</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K1054" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1054" t="n">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="M1054" t="n">
-        <v>8769</v>
+        <v>7155</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="Q1054" t="n">
         <v>15</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1055" t="n">
         <v>5</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1055" t="n">
         <v>6000</v>
       </c>
       <c r="L1055" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1055" t="n">
-        <v>6250</v>
+        <v>6000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1055" t="n">
         <v>18</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1056" t="n">
         <v>6000</v>
       </c>
       <c r="L1056" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1056" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q1056" t="n">
         <v>18</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K1057" t="n">
         <v>6000</v>
       </c>
       <c r="L1057" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1057" t="n">
-        <v>6281</v>
+        <v>6000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="Q1057" t="n">
         <v>20</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1058" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1058" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1058" t="n">
-        <v>5727</v>
+        <v>6762</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="Q1058" t="n">
         <v>10</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1059" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="L1059" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1059" t="n">
-        <v>7261</v>
+        <v>8769</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="Q1059" t="n">
         <v>15</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,20 +76677,20 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K1060" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1060" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1060" t="n">
-        <v>5762</v>
+        <v>6250</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
@@ -76699,10 +76699,10 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>576</v>
+        <v>347</v>
       </c>
       <c r="Q1060" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1061" t="n">
         <v>5</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,20 +76749,20 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K1061" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1061" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1061" t="n">
-        <v>8740</v>
+        <v>6227</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
@@ -76771,10 +76771,10 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>583</v>
+        <v>346</v>
       </c>
       <c r="Q1061" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1062" t="n">
         <v>5</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,20 +76821,20 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K1062" t="n">
         <v>6000</v>
       </c>
       <c r="L1062" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1062" t="n">
-        <v>6000</v>
+        <v>6281</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
@@ -76843,10 +76843,10 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1063" t="n">
         <v>5</v>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,20 +76893,20 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1063" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1063" t="n">
         <v>6000</v>
       </c>
       <c r="M1063" t="n">
-        <v>6000</v>
+        <v>5727</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
@@ -76915,10 +76915,10 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>333</v>
+        <v>573</v>
       </c>
       <c r="Q1063" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1064" t="n">
         <v>5</v>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76965,20 +76965,20 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1064" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1064" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="M1064" t="n">
-        <v>5500</v>
+        <v>7261</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
@@ -76987,10 +76987,10 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>275</v>
+        <v>484</v>
       </c>
       <c r="Q1064" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1065" t="n">
         <v>5</v>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,20 +77037,20 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1065" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1065" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1065" t="n">
-        <v>8269</v>
+        <v>5762</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
@@ -77059,10 +77059,10 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="Q1065" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1066" t="n">
         <v>5</v>
@@ -77100,7 +77100,7 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -77109,20 +77109,20 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1066" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1066" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1066" t="n">
-        <v>6773</v>
+        <v>8740</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
@@ -77131,10 +77131,10 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="Q1066" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1067" t="n">
         <v>5</v>
@@ -77172,7 +77172,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -77184,17 +77184,17 @@
         <v>60</v>
       </c>
       <c r="K1067" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1067" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1067" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
@@ -77203,10 +77203,10 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q1067" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1068" t="n">
         <v>5</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77253,20 +77253,20 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1068" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1068" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1068" t="n">
-        <v>4095</v>
+        <v>6000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
@@ -77275,10 +77275,10 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="Q1068" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1069" t="n">
         <v>5</v>
@@ -77316,7 +77316,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -77325,20 +77325,20 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1069" t="n">
         <v>5500</v>
       </c>
       <c r="L1069" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1069" t="n">
-        <v>5739</v>
+        <v>5500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
@@ -77347,10 +77347,10 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="Q1069" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1070" t="n">
         <v>5</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,20 +77397,20 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1070" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1070" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1070" t="n">
-        <v>5000</v>
+        <v>8269</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
@@ -77419,10 +77419,10 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="Q1070" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1071" t="n">
         <v>5</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1071" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1071" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1071" t="n">
-        <v>5000</v>
+        <v>6773</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="Q1071" t="n">
         <v>18</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1072" t="n">
         <v>5</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1072" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1072" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1072" t="n">
-        <v>4409</v>
+        <v>7000</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="Q1072" t="n">
         <v>20</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1073" t="n">
         <v>4000</v>
       </c>
       <c r="L1073" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M1073" t="n">
-        <v>4269</v>
+        <v>4095</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="Q1073" t="n">
         <v>10</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K1074" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1074" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1074" t="n">
-        <v>5231</v>
+        <v>5739</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1075" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1075" t="n">
         <v>5000</v>
       </c>
       <c r="M1075" t="n">
-        <v>4738</v>
+        <v>5000</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1075" t="n">
         <v>18</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1076" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1076" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1076" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1076" t="n">
         <v>18</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1077" t="n">
         <v>5</v>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,20 +77901,20 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1077" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="L1077" t="n">
         <v>4500</v>
       </c>
       <c r="M1077" t="n">
-        <v>4500</v>
+        <v>4409</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
@@ -77923,10 +77923,10 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q1077" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,7 +77973,7 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1078" t="n">
         <v>4000</v>
@@ -77982,11 +77982,11 @@
         <v>4500</v>
       </c>
       <c r="M1078" t="n">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="Q1078" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,20 +78045,20 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1079" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1079" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1079" t="n">
-        <v>6273</v>
+        <v>5231</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>627</v>
+        <v>349</v>
       </c>
       <c r="Q1079" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78120,17 +78120,17 @@
         <v>105</v>
       </c>
       <c r="K1080" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1080" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M1080" t="n">
-        <v>8238</v>
+        <v>4738</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>549</v>
+        <v>263</v>
       </c>
       <c r="Q1080" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1081" t="n">
         <v>18</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K1082" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1082" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1082" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1082" t="n">
         <v>18</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1083" t="n">
         <v>5</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1083" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1083" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1083" t="n">
-        <v>6000</v>
+        <v>4273</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="Q1083" t="n">
         <v>20</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1084" t="n">
         <v>6000</v>
       </c>
       <c r="L1084" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1084" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q1084" t="n">
         <v>10</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1085" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1085" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1085" t="n">
-        <v>7739</v>
+        <v>8238</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78621,7 +78621,7 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K1087" t="n">
         <v>6000</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78693,7 +78693,7 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1088" t="n">
         <v>6000</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1089" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1089" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1089" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="Q1089" t="n">
         <v>10</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1090" t="n">
         <v>5</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1090" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1090" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1090" t="n">
-        <v>6762</v>
+        <v>7739</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="Q1090" t="n">
         <v>15</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1091" t="n">
         <v>5</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1091" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1091" t="n">
         <v>6000</v>
       </c>
       <c r="M1091" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q1091" t="n">
         <v>18</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78981,7 +78981,7 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1092" t="n">
         <v>6000</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1093" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1093" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1093" t="n">
-        <v>5227</v>
+        <v>6000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q1093" t="n">
         <v>20</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79128,13 +79128,13 @@
         <v>105</v>
       </c>
       <c r="K1094" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1094" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6738</v>
+        <v>4762</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>674</v>
+        <v>476</v>
       </c>
       <c r="Q1094" t="n">
         <v>10</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1095" t="n">
         <v>5</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1095" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1095" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1095" t="n">
-        <v>8480</v>
+        <v>6762</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>565</v>
+        <v>451</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1096" t="n">
         <v>5</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1096" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1096" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1096" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q1096" t="n">
         <v>18</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1097" t="n">
         <v>18</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1098" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1098" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1098" t="n">
-        <v>6762</v>
+        <v>5227</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="Q1098" t="n">
         <v>20</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1099" t="n">
         <v>5</v>
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K1099" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1099" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1099" t="n">
-        <v>6229</v>
+        <v>6738</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="Q1099" t="n">
         <v>10</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K1100" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L1100" t="n">
         <v>9000</v>
       </c>
       <c r="M1100" t="n">
-        <v>8765</v>
+        <v>8480</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="Q1100" t="n">
         <v>15</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1101" t="n">
         <v>5</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1102" t="n">
         <v>5</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,20 +79701,20 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1102" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1102" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1102" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
@@ -79723,10 +79723,10 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1102" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1103" t="n">
         <v>5</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,20 +79773,20 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1103" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1103" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1103" t="n">
-        <v>6269</v>
+        <v>6762</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>627</v>
+        <v>338</v>
       </c>
       <c r="Q1103" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1104" t="n">
         <v>5</v>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,20 +79845,20 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K1104" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1104" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1104" t="n">
-        <v>8739</v>
+        <v>6229</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="Q1104" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1105" t="n">
         <v>5</v>
@@ -79908,7 +79908,7 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -79917,20 +79917,20 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1105" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1105" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1105" t="n">
-        <v>6000</v>
+        <v>8765</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
@@ -79939,10 +79939,10 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1106" t="n">
         <v>5</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K1106" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1106" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1106" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1106" t="n">
         <v>18</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1107" t="n">
         <v>5</v>
@@ -80064,13 +80064,13 @@
         <v>130</v>
       </c>
       <c r="K1107" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L1107" t="n">
         <v>6000</v>
       </c>
       <c r="M1107" t="n">
-        <v>5908</v>
+        <v>5769</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q1107" t="n">
         <v>20</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1108" t="n">
         <v>5</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1108" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1108" t="n">
         <v>6500</v>
       </c>
-      <c r="L1108" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1108" t="n">
-        <v>6738</v>
+        <v>6269</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="Q1108" t="n">
         <v>10</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1109" t="n">
         <v>5</v>
@@ -80205,7 +80205,7 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K1109" t="n">
         <v>8500</v>
@@ -80214,7 +80214,7 @@
         <v>9000</v>
       </c>
       <c r="M1109" t="n">
-        <v>8765</v>
+        <v>8739</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q1109" t="n">
         <v>15</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1110" t="n">
         <v>5</v>
@@ -80277,7 +80277,7 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1110" t="n">
         <v>6000</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1111" t="n">
         <v>5</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1111" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1111" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1111" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1111" t="n">
         <v>18</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1112" t="n">
         <v>5</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1112" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L1112" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1112" t="n">
-        <v>6762</v>
+        <v>5908</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q1112" t="n">
         <v>20</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1113" t="n">
         <v>5</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K1113" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L1113" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1113" t="n">
-        <v>3905</v>
+        <v>6738</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>390</v>
+        <v>674</v>
       </c>
       <c r="Q1113" t="n">
         <v>10</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1114" t="n">
         <v>5</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K1114" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1114" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M1114" t="n">
-        <v>5242</v>
+        <v>8765</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="Q1114" t="n">
         <v>15</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1115" t="n">
         <v>5</v>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="K1115" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1115" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1115" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1115" t="n">
         <v>18</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1116" t="n">
         <v>5</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K1116" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1116" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1116" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1116" t="n">
         <v>18</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1117" t="n">
         <v>5</v>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,20 +80781,20 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1117" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1117" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1117" t="n">
-        <v>5000</v>
+        <v>6762</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
@@ -80803,10 +80803,10 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="Q1117" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,20 +80853,20 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1118" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1118" t="n">
         <v>4000</v>
       </c>
-      <c r="L1118" t="n">
-        <v>4500</v>
-      </c>
       <c r="M1118" t="n">
-        <v>4254</v>
+        <v>3905</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
@@ -80875,10 +80875,10 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="Q1118" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80916,29 +80916,29 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K1119" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1119" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1119" t="n">
-        <v>3500</v>
+        <v>5242</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
@@ -80947,10 +80947,10 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="Q1119" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1120" t="n">
         <v>5</v>
@@ -80988,29 +80988,29 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K1120" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1120" t="n">
         <v>4500</v>
       </c>
       <c r="M1120" t="n">
-        <v>4273</v>
+        <v>4500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
@@ -81019,10 +81019,10 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="Q1120" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1121" t="n">
         <v>5</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,20 +81069,20 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="K1121" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1121" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1121" t="n">
-        <v>5821</v>
+        <v>5000</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
@@ -81091,10 +81091,10 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="Q1121" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1122" t="n">
         <v>5</v>
@@ -81132,7 +81132,7 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1122" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1122" t="n">
         <v>5000</v>
       </c>
       <c r="M1122" t="n">
-        <v>4727</v>
+        <v>5000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1122" t="n">
         <v>18</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1123" t="n">
         <v>5</v>
@@ -81204,7 +81204,7 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -81213,20 +81213,20 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K1123" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1123" t="n">
         <v>4500</v>
       </c>
-      <c r="L1123" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1123" t="n">
-        <v>4773</v>
+        <v>4254</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
@@ -81235,10 +81235,10 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="Q1123" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,58 +81261,418 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1124" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1124" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1124" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1124" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1124" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1124" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1125" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1124" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1124" t="inlineStr">
+      <c r="E1125" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1125" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1125" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1125" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>4273</v>
+      </c>
+      <c r="N1125" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1125" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1125" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1126" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1126" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1126" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>5821</v>
+      </c>
+      <c r="N1126" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1126" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1126" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1126" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1127" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1127" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N1127" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1127" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1127" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1128" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1128" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>4773</v>
+      </c>
+      <c r="N1128" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1128" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1128" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1129" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I1124" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J1124" t="n">
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1129" t="n">
         <v>130</v>
       </c>
-      <c r="K1124" t="n">
+      <c r="K1129" t="n">
         <v>4500</v>
       </c>
-      <c r="L1124" t="n">
+      <c r="L1129" t="n">
         <v>4800</v>
       </c>
-      <c r="M1124" t="n">
+      <c r="M1129" t="n">
         <v>4638</v>
       </c>
-      <c r="N1124" t="inlineStr">
+      <c r="N1129" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1124" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P1124" t="n">
+      <c r="O1129" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1129" t="n">
         <v>232</v>
       </c>
-      <c r="Q1124" t="n">
+      <c r="Q1129" t="n">
         <v>20</v>
       </c>
-      <c r="R1124" t="inlineStr">
+      <c r="R1129" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1137"/>
+  <dimension ref="A1:R1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1073" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1073" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1073" t="n">
-        <v>5762</v>
+        <v>4269</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>576</v>
+        <v>427</v>
       </c>
       <c r="Q1073" t="n">
         <v>10</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77688,13 +77688,13 @@
         <v>125</v>
       </c>
       <c r="K1074" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L1074" t="n">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="M1074" t="n">
-        <v>8740</v>
+        <v>5656</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>583</v>
+        <v>377</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77760,13 +77760,13 @@
         <v>60</v>
       </c>
       <c r="K1075" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1075" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1075" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1075" t="n">
         <v>18</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77832,13 +77832,13 @@
         <v>60</v>
       </c>
       <c r="K1076" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1076" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1076" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1076" t="n">
         <v>18</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1077" t="n">
         <v>5</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1077" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1077" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1077" t="n">
-        <v>5500</v>
+        <v>4650</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="Q1077" t="n">
         <v>20</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1078" t="n">
         <v>5</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,20 +77973,20 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1078" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1078" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1078" t="n">
-        <v>8269</v>
+        <v>5762</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="Q1078" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,20 +78045,20 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1079" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1079" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1079" t="n">
-        <v>6773</v>
+        <v>8740</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>376</v>
+        <v>583</v>
       </c>
       <c r="Q1079" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78120,17 +78120,17 @@
         <v>60</v>
       </c>
       <c r="K1080" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1080" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1080" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q1080" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78189,20 +78189,20 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1081" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1081" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="M1081" t="n">
-        <v>4095</v>
+        <v>6000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
@@ -78211,10 +78211,10 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>410</v>
+        <v>333</v>
       </c>
       <c r="Q1081" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78261,20 +78261,20 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1082" t="n">
         <v>5500</v>
       </c>
       <c r="L1082" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1082" t="n">
-        <v>5739</v>
+        <v>5500</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
@@ -78283,10 +78283,10 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="Q1082" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1083" t="n">
         <v>5</v>
@@ -78324,7 +78324,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -78333,20 +78333,20 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1083" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1083" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1083" t="n">
-        <v>5000</v>
+        <v>8269</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
@@ -78355,10 +78355,10 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="Q1083" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1084" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1084" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1084" t="n">
-        <v>5000</v>
+        <v>6773</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="Q1084" t="n">
         <v>18</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1085" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="L1085" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1085" t="n">
-        <v>4409</v>
+        <v>7000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="Q1085" t="n">
         <v>20</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1086" t="n">
         <v>4000</v>
       </c>
       <c r="L1086" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="M1086" t="n">
-        <v>4269</v>
+        <v>4095</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="Q1086" t="n">
         <v>10</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K1087" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1087" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1087" t="n">
-        <v>5231</v>
+        <v>5739</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="Q1087" t="n">
         <v>15</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1088" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1088" t="n">
         <v>5000</v>
       </c>
       <c r="M1088" t="n">
-        <v>4738</v>
+        <v>5000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1088" t="n">
         <v>18</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1089" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1089" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1089" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1089" t="n">
         <v>18</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1090" t="n">
         <v>5</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,20 +78837,20 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1090" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="L1090" t="n">
         <v>4500</v>
       </c>
       <c r="M1090" t="n">
-        <v>4500</v>
+        <v>4409</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
@@ -78859,10 +78859,10 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q1090" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,7 +78909,7 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1091" t="n">
         <v>4000</v>
@@ -78918,11 +78918,11 @@
         <v>4500</v>
       </c>
       <c r="M1091" t="n">
-        <v>4273</v>
+        <v>4269</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
@@ -78931,10 +78931,10 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="Q1091" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,20 +78981,20 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1092" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1092" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1092" t="n">
-        <v>6273</v>
+        <v>5231</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
@@ -79003,10 +79003,10 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>627</v>
+        <v>349</v>
       </c>
       <c r="Q1092" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79056,17 +79056,17 @@
         <v>105</v>
       </c>
       <c r="K1093" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1093" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M1093" t="n">
-        <v>8238</v>
+        <v>4738</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
@@ -79075,10 +79075,10 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>549</v>
+        <v>263</v>
       </c>
       <c r="Q1093" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1094" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1094" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1094" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1095" t="n">
         <v>5</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K1095" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1095" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1095" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1095" t="n">
         <v>18</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1096" t="n">
         <v>5</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1096" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1096" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1096" t="n">
-        <v>6000</v>
+        <v>4273</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="Q1096" t="n">
         <v>20</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1097" t="n">
         <v>6000</v>
       </c>
       <c r="L1097" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1097" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="Q1097" t="n">
         <v>10</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1098" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1098" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1098" t="n">
-        <v>7739</v>
+        <v>8238</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="Q1098" t="n">
         <v>15</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1099" t="n">
         <v>5</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79557,7 +79557,7 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K1100" t="n">
         <v>6000</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1101" t="n">
         <v>5</v>
@@ -79629,7 +79629,7 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1101" t="n">
         <v>6000</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1102" t="n">
         <v>5</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1102" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1102" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1102" t="n">
-        <v>4762</v>
+        <v>6000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="Q1102" t="n">
         <v>10</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1103" t="n">
         <v>5</v>
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1103" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1103" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1103" t="n">
-        <v>6762</v>
+        <v>7739</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="Q1103" t="n">
         <v>15</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1104" t="n">
         <v>5</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1104" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1104" t="n">
         <v>6000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5738</v>
+        <v>6000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q1104" t="n">
         <v>18</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1105" t="n">
         <v>5</v>
@@ -79917,7 +79917,7 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1105" t="n">
         <v>6000</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1106" t="n">
         <v>5</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1106" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1106" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1106" t="n">
-        <v>5227</v>
+        <v>6000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q1106" t="n">
         <v>20</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1107" t="n">
         <v>5</v>
@@ -80064,13 +80064,13 @@
         <v>105</v>
       </c>
       <c r="K1107" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1107" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1107" t="n">
-        <v>6738</v>
+        <v>4762</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>674</v>
+        <v>476</v>
       </c>
       <c r="Q1107" t="n">
         <v>10</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1108" t="n">
         <v>5</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1108" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L1108" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M1108" t="n">
-        <v>8480</v>
+        <v>6762</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>565</v>
+        <v>451</v>
       </c>
       <c r="Q1108" t="n">
         <v>15</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1109" t="n">
         <v>5</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K1109" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1109" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1109" t="n">
-        <v>6500</v>
+        <v>5738</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="Q1109" t="n">
         <v>18</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1110" t="n">
         <v>5</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1110" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1110" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1110" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1111" t="n">
         <v>5</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1111" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1111" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1111" t="n">
-        <v>6762</v>
+        <v>5227</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="Q1111" t="n">
         <v>20</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1112" t="n">
         <v>5</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="K1112" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1112" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1112" t="n">
-        <v>6229</v>
+        <v>6738</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="Q1112" t="n">
         <v>10</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1113" t="n">
         <v>5</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K1113" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L1113" t="n">
         <v>9000</v>
       </c>
       <c r="M1113" t="n">
-        <v>8765</v>
+        <v>8480</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="Q1113" t="n">
         <v>15</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1114" t="n">
         <v>5</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1115" t="n">
         <v>5</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,20 +80637,20 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1115" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1115" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1115" t="n">
-        <v>5769</v>
+        <v>6500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
@@ -80659,10 +80659,10 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>288</v>
+        <v>361</v>
       </c>
       <c r="Q1115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1116" t="n">
         <v>5</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,20 +80709,20 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1116" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1116" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1116" t="n">
-        <v>6269</v>
+        <v>6762</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
@@ -80731,10 +80731,10 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>627</v>
+        <v>338</v>
       </c>
       <c r="Q1116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1117" t="n">
         <v>5</v>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,20 +80781,20 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K1117" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1117" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1117" t="n">
-        <v>8739</v>
+        <v>6229</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
@@ -80803,10 +80803,10 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="Q1117" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1118" t="n">
         <v>5</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,20 +80853,20 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1118" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1118" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1118" t="n">
-        <v>6000</v>
+        <v>8765</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
@@ -80875,10 +80875,10 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="Q1118" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1119" t="n">
         <v>5</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K1119" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1119" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1119" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1119" t="n">
         <v>18</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1120" t="n">
         <v>5</v>
@@ -81000,13 +81000,13 @@
         <v>130</v>
       </c>
       <c r="K1120" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="L1120" t="n">
         <v>6000</v>
       </c>
       <c r="M1120" t="n">
-        <v>5908</v>
+        <v>5769</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q1120" t="n">
         <v>20</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1121" t="n">
         <v>5</v>
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1121" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1121" t="n">
         <v>6500</v>
       </c>
-      <c r="L1121" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1121" t="n">
-        <v>6738</v>
+        <v>6269</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="Q1121" t="n">
         <v>10</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1122" t="n">
         <v>5</v>
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="K1122" t="n">
         <v>8500</v>
@@ -81150,7 +81150,7 @@
         <v>9000</v>
       </c>
       <c r="M1122" t="n">
-        <v>8765</v>
+        <v>8739</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Q1122" t="n">
         <v>15</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1123" t="n">
         <v>5</v>
@@ -81213,7 +81213,7 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1123" t="n">
         <v>6000</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1124" t="n">
         <v>5</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1124" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1124" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1124" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1124" t="n">
         <v>18</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1125" t="n">
         <v>5</v>
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1125" t="n">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="L1125" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1125" t="n">
-        <v>6762</v>
+        <v>5908</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="Q1125" t="n">
         <v>20</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1126" t="n">
         <v>5</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="K1126" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L1126" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1126" t="n">
-        <v>3905</v>
+        <v>6738</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>390</v>
+        <v>674</v>
       </c>
       <c r="Q1126" t="n">
         <v>10</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1127" t="n">
         <v>5</v>
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="K1127" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1127" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="M1127" t="n">
-        <v>5242</v>
+        <v>8765</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="Q1127" t="n">
         <v>15</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1128" t="n">
         <v>5</v>
@@ -81564,25 +81564,25 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="K1128" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1128" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1128" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1128" t="n">
         <v>18</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1129" t="n">
         <v>5</v>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81645,16 +81645,16 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K1129" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1129" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1129" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1129" t="n">
         <v>18</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1130" t="n">
         <v>5</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,20 +81717,20 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1130" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1130" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1130" t="n">
-        <v>5000</v>
+        <v>6762</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
@@ -81739,10 +81739,10 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="Q1130" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,20 +81789,20 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K1131" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1131" t="n">
         <v>4000</v>
       </c>
-      <c r="L1131" t="n">
-        <v>4500</v>
-      </c>
       <c r="M1131" t="n">
-        <v>4254</v>
+        <v>3905</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
@@ -81811,10 +81811,10 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="Q1131" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81852,29 +81852,29 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K1132" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1132" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1132" t="n">
-        <v>3500</v>
+        <v>5242</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
@@ -81883,10 +81883,10 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="Q1132" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1133" t="n">
         <v>5</v>
@@ -81924,29 +81924,29 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K1133" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1133" t="n">
         <v>4500</v>
       </c>
       <c r="M1133" t="n">
-        <v>4273</v>
+        <v>4500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
@@ -81955,10 +81955,10 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>427</v>
+        <v>250</v>
       </c>
       <c r="Q1133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1134" t="n">
         <v>5</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,20 +82005,20 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="K1134" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1134" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1134" t="n">
-        <v>5821</v>
+        <v>5000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
@@ -82027,10 +82027,10 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="Q1134" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1135" t="n">
         <v>5</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K1135" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1135" t="n">
         <v>5000</v>
       </c>
       <c r="M1135" t="n">
-        <v>4727</v>
+        <v>5000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q1135" t="n">
         <v>18</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1136" t="n">
         <v>5</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,20 +82149,20 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="K1136" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1136" t="n">
         <v>4500</v>
       </c>
-      <c r="L1136" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1136" t="n">
-        <v>4773</v>
+        <v>4254</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
@@ -82171,10 +82171,10 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="Q1136" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,58 +82197,418 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1137" t="n">
+        <v>56</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1137" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1137" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1137" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1138" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1137" t="n">
-        <v>5</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1137" t="inlineStr">
+      <c r="E1138" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1138" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>4273</v>
+      </c>
+      <c r="N1138" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1138" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1138" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1138" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1139" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1139" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1139" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1139" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>5821</v>
+      </c>
+      <c r="N1139" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1139" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1139" t="n">
+        <v>388</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1139" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1140" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1140" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>4727</v>
+      </c>
+      <c r="N1140" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1140" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1140" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1141" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1141" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1141" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1141" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>4773</v>
+      </c>
+      <c r="N1141" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1141" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1141" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1142" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1142" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1142" t="inlineStr">
         <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I1137" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J1137" t="n">
+      <c r="I1142" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1142" t="n">
         <v>130</v>
       </c>
-      <c r="K1137" t="n">
+      <c r="K1142" t="n">
         <v>4500</v>
       </c>
-      <c r="L1137" t="n">
+      <c r="L1142" t="n">
         <v>4800</v>
       </c>
-      <c r="M1137" t="n">
+      <c r="M1142" t="n">
         <v>4638</v>
       </c>
-      <c r="N1137" t="inlineStr">
+      <c r="N1142" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1137" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="P1137" t="n">
+      <c r="O1142" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1142" t="n">
         <v>232</v>
       </c>
-      <c r="Q1137" t="n">
+      <c r="Q1142" t="n">
         <v>20</v>
       </c>
-      <c r="R1137" t="inlineStr">
+      <c r="R1142" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1160"/>
+  <dimension ref="A1:R1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E987" t="n">
         <v>5</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K987" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L987" t="n">
         <v>4500</v>
       </c>
       <c r="M987" t="n">
-        <v>4396</v>
+        <v>4269</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="Q987" t="n">
         <v>10</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E988" t="n">
         <v>5</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K988" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L988" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M988" t="n">
-        <v>6738</v>
+        <v>5759</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="Q988" t="n">
         <v>15</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E989" t="n">
         <v>5</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M989" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E990" t="n">
         <v>5</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K990" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L990" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M990" t="n">
-        <v>6000</v>
+        <v>4773</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E991" t="n">
         <v>5</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,7 +71709,7 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K991" t="n">
         <v>4000</v>
@@ -71718,11 +71718,11 @@
         <v>4500</v>
       </c>
       <c r="M991" t="n">
-        <v>4273</v>
+        <v>4240</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
@@ -71731,10 +71731,10 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>427</v>
+        <v>212</v>
       </c>
       <c r="Q991" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E992" t="n">
         <v>5</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,20 +71781,20 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K992" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="L992" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M992" t="n">
-        <v>5821</v>
+        <v>4396</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
@@ -71803,10 +71803,10 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="Q992" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E993" t="n">
         <v>5</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,20 +71853,20 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K993" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L993" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M993" t="n">
-        <v>4727</v>
+        <v>6738</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>263</v>
+        <v>449</v>
       </c>
       <c r="Q993" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E994" t="n">
         <v>5</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K994" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L994" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M994" t="n">
-        <v>4773</v>
+        <v>6000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E995" t="n">
         <v>5</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,20 +71997,20 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K995" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L995" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M995" t="n">
-        <v>4638</v>
+        <v>6000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="Q995" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E996" t="n">
         <v>5</v>
@@ -72072,13 +72072,13 @@
         <v>110</v>
       </c>
       <c r="K996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L996" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M996" t="n">
-        <v>6273</v>
+        <v>4273</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="Q996" t="n">
         <v>10</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E997" t="n">
         <v>5</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K997" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L997" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M997" t="n">
-        <v>8238</v>
+        <v>5821</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>549</v>
+        <v>388</v>
       </c>
       <c r="Q997" t="n">
         <v>15</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E998" t="n">
         <v>5</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K998" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L998" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M998" t="n">
-        <v>6500</v>
+        <v>4727</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E999" t="n">
         <v>5</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,20 +72285,20 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K999" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L999" t="n">
         <v>5000</v>
       </c>
-      <c r="L999" t="n">
-        <v>5500</v>
-      </c>
       <c r="M999" t="n">
-        <v>5239</v>
+        <v>4773</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
@@ -72307,10 +72307,10 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q999" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1000" t="n">
         <v>5</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,20 +72357,20 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K1000" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1000" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="M1000" t="n">
-        <v>6265</v>
+        <v>4638</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
@@ -72379,10 +72379,10 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>626</v>
+        <v>232</v>
       </c>
       <c r="Q1000" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1001" t="n">
         <v>5</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,20 +72429,20 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K1001" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1001" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1001" t="n">
-        <v>8760</v>
+        <v>6273</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="Q1001" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1002" t="n">
         <v>5</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72504,17 +72504,17 @@
         <v>105</v>
       </c>
       <c r="K1002" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1002" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M1002" t="n">
-        <v>6762</v>
+        <v>8238</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>376</v>
+        <v>549</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1003" t="n">
         <v>5</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1003" t="n">
         <v>6500</v>
       </c>
       <c r="L1003" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1003" t="n">
-        <v>6727</v>
+        <v>6500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1004" t="n">
         <v>5</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1004" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1004" t="n">
-        <v>6738</v>
+        <v>5239</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="Q1004" t="n">
         <v>20</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1005" t="n">
         <v>5</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K1005" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1005" t="n">
-        <v>4265</v>
+        <v>6265</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>426</v>
+        <v>626</v>
       </c>
       <c r="Q1005" t="n">
         <v>10</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1006" t="n">
         <v>5</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K1006" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1006" t="n">
-        <v>5773</v>
+        <v>8760</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>385</v>
+        <v>584</v>
       </c>
       <c r="Q1006" t="n">
         <v>15</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1007" t="n">
         <v>5</v>
@@ -72852,25 +72852,25 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K1007" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1007" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1007" t="n">
-        <v>5000</v>
+        <v>6762</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1008" t="n">
         <v>5</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K1008" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1008" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1008" t="n">
-        <v>6000</v>
+        <v>6727</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1009" t="n">
         <v>5</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="K1009" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1009" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1009" t="n">
-        <v>6000</v>
+        <v>6738</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,20 +73077,20 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K1010" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1010" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1010" t="n">
-        <v>6000</v>
+        <v>4265</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>333</v>
+        <v>426</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73149,20 +73149,20 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K1011" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="L1011" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>4903</v>
+        <v>5773</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="Q1011" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,20 +73221,20 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K1012" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1012" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1012" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
@@ -73243,10 +73243,10 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="Q1012" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1013" t="n">
         <v>5</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,20 +73293,20 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="K1013" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1013" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1013" t="n">
-        <v>4260</v>
+        <v>6000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="Q1013" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1014" t="n">
         <v>5</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,20 +73365,20 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="K1014" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1014" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1014" t="n">
-        <v>7260</v>
+        <v>6000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
@@ -73387,10 +73387,10 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="Q1014" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1015" t="n">
         <v>5</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1015" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1015" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1015" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1016" t="n">
         <v>5</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,20 +73509,20 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K1016" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="L1016" t="n">
         <v>5000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5000</v>
+        <v>4903</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
@@ -73531,10 +73531,10 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1017" t="n">
         <v>5</v>
@@ -73577,24 +73577,24 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K1017" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1017" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1017" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="Q1017" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73644,29 +73644,29 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K1018" t="n">
         <v>4000</v>
       </c>
       <c r="L1018" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1018" t="n">
-        <v>4000</v>
+        <v>4260</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>167</v>
+        <v>426</v>
       </c>
       <c r="Q1018" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1019" t="n">
         <v>5</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73728,17 +73728,17 @@
         <v>125</v>
       </c>
       <c r="K1019" t="n">
-        <v>5800</v>
+        <v>7000</v>
       </c>
       <c r="L1019" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1019" t="n">
-        <v>5896</v>
+        <v>7260</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>590</v>
+        <v>484</v>
       </c>
       <c r="Q1019" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1020" t="n">
         <v>5</v>
@@ -73793,24 +73793,24 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K1020" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1020" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M1020" t="n">
-        <v>7239</v>
+        <v>6500</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1020" t="inlineStr">
@@ -73819,10 +73819,10 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>483</v>
+        <v>361</v>
       </c>
       <c r="Q1020" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1021" t="n">
         <v>5</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K1021" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1021" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M1021" t="n">
-        <v>6150</v>
+        <v>5000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1022" t="n">
         <v>5</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K1022" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1022" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="M1022" t="n">
-        <v>5656</v>
+        <v>4500</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="Q1022" t="n">
         <v>20</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1023" t="n">
         <v>5</v>
@@ -74004,29 +74004,29 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="K1023" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1023" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1023" t="n">
-        <v>6231</v>
+        <v>4000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
@@ -74035,10 +74035,10 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>623</v>
+        <v>167</v>
       </c>
       <c r="Q1023" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1024" t="n">
         <v>5</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,20 +74085,20 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K1024" t="n">
-        <v>8500</v>
+        <v>5800</v>
       </c>
       <c r="L1024" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1024" t="n">
-        <v>8731</v>
+        <v>5896</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="Q1024" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1025" t="n">
         <v>5</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,20 +74157,20 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K1025" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1025" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1025" t="n">
-        <v>6233</v>
+        <v>7239</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
@@ -74179,10 +74179,10 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>346</v>
+        <v>483</v>
       </c>
       <c r="Q1025" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1026" t="n">
         <v>5</v>
@@ -74220,7 +74220,7 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -74229,20 +74229,20 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K1026" t="n">
         <v>6000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M1026" t="n">
-        <v>6000</v>
+        <v>6150</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
@@ -74251,10 +74251,10 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="Q1026" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E1027" t="n">
         <v>5</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,20 +74301,20 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K1027" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1027" t="n">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="M1027" t="n">
-        <v>6750</v>
+        <v>5656</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
@@ -74323,10 +74323,10 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>675</v>
+        <v>283</v>
       </c>
       <c r="Q1027" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1028" t="n">
         <v>5</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74376,17 +74376,17 @@
         <v>130</v>
       </c>
       <c r="K1028" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1028" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="M1028" t="n">
-        <v>8231</v>
+        <v>6231</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
@@ -74395,10 +74395,10 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1029" t="n">
         <v>5</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,20 +74445,20 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1029" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1029" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M1029" t="n">
-        <v>6273</v>
+        <v>8731</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1029" t="inlineStr">
@@ -74467,10 +74467,10 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>348</v>
+        <v>582</v>
       </c>
       <c r="Q1029" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1030" t="n">
         <v>5</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K1030" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1030" t="n">
         <v>6500</v>
       </c>
-      <c r="L1030" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1030" t="n">
-        <v>6783</v>
+        <v>6233</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1031" t="n">
         <v>5</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,20 +74589,20 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1031" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1031" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1031" t="n">
-        <v>4773</v>
+        <v>6000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
@@ -74611,10 +74611,10 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>477</v>
+        <v>300</v>
       </c>
       <c r="Q1031" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1032" t="n">
         <v>5</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,20 +74661,20 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K1032" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1032" t="n">
         <v>7000</v>
       </c>
-      <c r="L1032" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1032" t="n">
-        <v>7240</v>
+        <v>6750</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
@@ -74683,10 +74683,10 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>483</v>
+        <v>675</v>
       </c>
       <c r="Q1032" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1033" t="n">
         <v>5</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,20 +74733,20 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1033" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1033" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1033" t="n">
-        <v>6000</v>
+        <v>8231</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
@@ -74755,10 +74755,10 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q1033" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1034" t="n">
         <v>5</v>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1034" t="n">
         <v>6000</v>
       </c>
       <c r="L1034" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1034" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1035" t="n">
         <v>5</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,20 +74877,20 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K1035" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1035" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1035" t="n">
-        <v>5250</v>
+        <v>6783</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="Q1035" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1036" t="n">
         <v>5</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K1036" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1036" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1036" t="n">
-        <v>5792</v>
+        <v>4773</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>579</v>
+        <v>477</v>
       </c>
       <c r="Q1036" t="n">
         <v>10</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1037" t="n">
         <v>5</v>
@@ -75021,7 +75021,7 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K1037" t="n">
         <v>7000</v>
@@ -75030,7 +75030,7 @@
         <v>7500</v>
       </c>
       <c r="M1037" t="n">
-        <v>7269</v>
+        <v>7240</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q1037" t="n">
         <v>15</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1038" t="n">
         <v>5</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K1038" t="n">
         <v>6000</v>
       </c>
       <c r="L1038" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1038" t="n">
-        <v>6240</v>
+        <v>6000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1039" t="n">
         <v>5</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1039" t="n">
         <v>6000</v>
       </c>
       <c r="L1039" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1039" t="n">
-        <v>6262</v>
+        <v>6000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1040" t="n">
         <v>5</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K1040" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1040" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1040" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q1040" t="n">
         <v>20</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1041" t="n">
         <v>5</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K1041" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1041" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1041" t="n">
-        <v>4261</v>
+        <v>5792</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>426</v>
+        <v>579</v>
       </c>
       <c r="Q1041" t="n">
         <v>10</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1042" t="n">
         <v>5</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K1042" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1042" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1042" t="n">
-        <v>5760</v>
+        <v>7269</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="Q1042" t="n">
         <v>15</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1043" t="n">
         <v>5</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K1043" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1043" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1043" t="n">
-        <v>4769</v>
+        <v>6240</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1044" t="n">
         <v>5</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K1044" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1044" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1044" t="n">
-        <v>4500</v>
+        <v>6262</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1045" t="n">
         <v>5</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K1045" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1045" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1045" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q1045" t="n">
         <v>20</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1046" t="n">
         <v>5</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1046" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1046" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1046" t="n">
-        <v>5262</v>
+        <v>4261</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>526</v>
+        <v>426</v>
       </c>
       <c r="Q1046" t="n">
         <v>10</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1047" t="n">
         <v>5</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1047" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1047" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1047" t="n">
-        <v>7273</v>
+        <v>5760</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="Q1047" t="n">
         <v>15</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1048" t="n">
         <v>5</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1048" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1048" t="n">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="M1048" t="n">
-        <v>5636</v>
+        <v>4769</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1049" t="n">
         <v>5</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1049" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1049" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1049" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="Q1049" t="n">
         <v>18</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1050" t="n">
         <v>5</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1050" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1050" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1050" t="n">
-        <v>5231</v>
+        <v>4500</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="Q1050" t="n">
         <v>20</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1051" t="n">
         <v>5</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1051" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1051" t="n">
         <v>5500</v>
       </c>
-      <c r="L1051" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1051" t="n">
-        <v>5727</v>
+        <v>5262</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="Q1051" t="n">
         <v>10</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1052" t="n">
         <v>5</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1053" t="n">
         <v>5</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1053" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1053" t="n">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="M1053" t="n">
-        <v>6000</v>
+        <v>5636</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1054" t="n">
         <v>5</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K1054" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1054" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1054" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1055" t="n">
         <v>5</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1055" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1055" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1055" t="n">
-        <v>6000</v>
+        <v>5231</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="Q1055" t="n">
         <v>20</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1056" t="n">
         <v>5</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1056" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1056" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1056" t="n">
-        <v>4769</v>
+        <v>5727</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>477</v>
+        <v>573</v>
       </c>
       <c r="Q1056" t="n">
         <v>10</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1057" t="n">
         <v>5</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1057" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1057" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1057" t="n">
-        <v>5769</v>
+        <v>7273</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1058" t="n">
         <v>5</v>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1058" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1058" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1058" t="n">
-        <v>4269</v>
+        <v>6000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="Q1058" t="n">
         <v>18</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1059" t="n">
         <v>5</v>
@@ -76596,7 +76596,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
@@ -76608,13 +76608,13 @@
         <v>80</v>
       </c>
       <c r="K1059" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1059" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1059" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1059" t="n">
         <v>18</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1060" t="n">
         <v>5</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,20 +76677,20 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1060" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1060" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1060" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
@@ -76699,10 +76699,10 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q1060" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,20 +76749,20 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1061" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1061" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1061" t="n">
-        <v>4239</v>
+        <v>4769</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
@@ -76771,10 +76771,10 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>212</v>
+        <v>477</v>
       </c>
       <c r="Q1061" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1062" t="n">
         <v>5</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,20 +76821,20 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K1062" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1062" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M1062" t="n">
-        <v>4124</v>
+        <v>5769</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
@@ -76843,10 +76843,10 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="Q1062" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1063" t="n">
         <v>5</v>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,20 +76893,20 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K1063" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1063" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1063" t="n">
-        <v>5765</v>
+        <v>4269</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
@@ -76915,10 +76915,10 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="Q1063" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1064" t="n">
         <v>5</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1064" t="n">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="M1064" t="n">
-        <v>5103</v>
+        <v>4500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1065" t="n">
         <v>5</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1065" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1065" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1065" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1065" t="n">
         <v>18</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1066" t="n">
         <v>5</v>
@@ -77109,7 +77109,7 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="K1066" t="n">
         <v>4000</v>
@@ -77118,7 +77118,7 @@
         <v>4500</v>
       </c>
       <c r="M1066" t="n">
-        <v>4257</v>
+        <v>4239</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q1066" t="n">
         <v>20</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1067" t="n">
         <v>5</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K1067" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1067" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="M1067" t="n">
-        <v>4731</v>
+        <v>4124</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>473</v>
+        <v>412</v>
       </c>
       <c r="Q1067" t="n">
         <v>10</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1068" t="n">
         <v>5</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K1068" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1068" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1068" t="n">
-        <v>6259</v>
+        <v>5765</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="Q1068" t="n">
         <v>15</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1069" t="n">
         <v>5</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K1069" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1069" t="n">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="M1069" t="n">
-        <v>4638</v>
+        <v>5103</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1070" t="n">
         <v>5</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K1070" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1070" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1070" t="n">
-        <v>4231</v>
+        <v>5000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="Q1070" t="n">
         <v>18</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1071" t="n">
         <v>5</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="K1071" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1071" t="n">
         <v>4500</v>
       </c>
-      <c r="L1071" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1071" t="n">
-        <v>4731</v>
+        <v>4257</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="Q1071" t="n">
         <v>20</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1072" t="n">
         <v>5</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1072" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1072" t="n">
         <v>5000</v>
       </c>
-      <c r="L1072" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1072" t="n">
-        <v>5239</v>
+        <v>4731</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="Q1072" t="n">
         <v>10</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1073" t="n">
         <v>5</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K1073" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1073" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1073" t="n">
-        <v>5731</v>
+        <v>6259</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="Q1073" t="n">
         <v>15</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1074" t="n">
         <v>5</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,7 +77685,7 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1074" t="n">
         <v>4500</v>
@@ -77694,7 +77694,7 @@
         <v>4800</v>
       </c>
       <c r="M1074" t="n">
-        <v>4657</v>
+        <v>4638</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q1074" t="n">
         <v>18</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1075" t="n">
         <v>5</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1075" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1075" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1075" t="n">
-        <v>5000</v>
+        <v>4231</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="Q1075" t="n">
         <v>18</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1076" t="n">
         <v>5</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,20 +77829,20 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1076" t="n">
         <v>4500</v>
       </c>
       <c r="L1076" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1076" t="n">
-        <v>4500</v>
+        <v>4731</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
@@ -77851,10 +77851,10 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q1076" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77892,7 +77892,7 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
@@ -77901,20 +77901,20 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K1077" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1077" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="M1077" t="n">
-        <v>4638</v>
+        <v>5239</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
@@ -77923,10 +77923,10 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>232</v>
+        <v>524</v>
       </c>
       <c r="Q1077" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1078" t="n">
         <v>5</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,20 +77973,20 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K1078" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1078" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M1078" t="n">
-        <v>4644</v>
+        <v>5731</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="Q1078" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1079" t="n">
         <v>5</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,20 +78045,20 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K1079" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1079" t="n">
-        <v>7000</v>
+        <v>4800</v>
       </c>
       <c r="M1079" t="n">
-        <v>6750</v>
+        <v>4657</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>450</v>
+        <v>259</v>
       </c>
       <c r="Q1079" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1080" t="n">
         <v>5</v>
@@ -78108,29 +78108,29 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1080" t="n">
         <v>60</v>
       </c>
       <c r="K1080" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1080" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1080" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="Q1080" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1081" t="n">
         <v>5</v>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78192,13 +78192,13 @@
         <v>60</v>
       </c>
       <c r="K1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1081" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1081" t="n">
         <v>18</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1082" t="n">
         <v>5</v>
@@ -78252,7 +78252,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -78261,20 +78261,20 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K1082" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1082" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M1082" t="n">
-        <v>6000</v>
+        <v>4638</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
@@ -78283,10 +78283,10 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="Q1082" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78324,7 +78324,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -78333,20 +78333,20 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K1083" t="n">
         <v>4500</v>
       </c>
       <c r="L1083" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M1083" t="n">
-        <v>4775</v>
+        <v>4644</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
@@ -78355,10 +78355,10 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>239</v>
+        <v>464</v>
       </c>
       <c r="Q1083" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1084" t="n">
         <v>5</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,20 +78405,20 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K1084" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1084" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1084" t="n">
-        <v>6260</v>
+        <v>6750</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
@@ -78427,10 +78427,10 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>626</v>
+        <v>450</v>
       </c>
       <c r="Q1084" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1085" t="n">
         <v>5</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1085" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1085" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1085" t="n">
-        <v>8238</v>
+        <v>5500</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>549</v>
+        <v>367</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1086" t="n">
         <v>5</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1086" t="n">
         <v>6000</v>
       </c>
       <c r="L1086" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1086" t="n">
-        <v>6262</v>
+        <v>6000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Q1086" t="n">
         <v>18</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1087" t="n">
         <v>5</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1088" t="n">
         <v>5</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K1088" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1088" t="n">
-        <v>6000</v>
+        <v>4775</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q1088" t="n">
         <v>20</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1089" t="n">
         <v>5</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1089" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1089" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1089" t="n">
-        <v>4773</v>
+        <v>6260</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>477</v>
+        <v>626</v>
       </c>
       <c r="Q1089" t="n">
         <v>10</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1090" t="n">
         <v>5</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1090" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1090" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M1090" t="n">
-        <v>7261</v>
+        <v>8238</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>484</v>
+        <v>549</v>
       </c>
       <c r="Q1090" t="n">
         <v>15</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1091" t="n">
         <v>5</v>
@@ -78909,7 +78909,7 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1091" t="n">
         <v>6000</v>
@@ -78918,7 +78918,7 @@
         <v>6500</v>
       </c>
       <c r="M1091" t="n">
-        <v>6250</v>
+        <v>6262</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q1091" t="n">
         <v>18</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1092" t="n">
         <v>5</v>
@@ -78981,7 +78981,7 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1092" t="n">
         <v>6000</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1093" t="n">
         <v>5</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K1093" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1093" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1093" t="n">
-        <v>5239</v>
+        <v>6000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="Q1093" t="n">
         <v>20</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1094" t="n">
         <v>5</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K1094" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1094" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6241</v>
+        <v>4773</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>624</v>
+        <v>477</v>
       </c>
       <c r="Q1094" t="n">
         <v>10</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1095" t="n">
         <v>5</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K1095" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1095" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M1095" t="n">
-        <v>8236</v>
+        <v>7261</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1096" t="n">
         <v>5</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K1096" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1096" t="n">
         <v>6500</v>
       </c>
       <c r="M1096" t="n">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q1096" t="n">
         <v>18</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1097" t="n">
         <v>5</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1097" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1097" t="n">
         <v>18</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1098" t="n">
         <v>5</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K1098" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1098" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1098" t="n">
-        <v>6268</v>
+        <v>5239</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="Q1098" t="n">
         <v>20</v>
@@ -79476,29 +79476,29 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="K1099" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1099" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1099" t="n">
-        <v>5000</v>
+        <v>6241</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
@@ -79507,10 +79507,10 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>208</v>
+        <v>624</v>
       </c>
       <c r="Q1099" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1100" t="n">
         <v>5</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K1100" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1100" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1100" t="n">
-        <v>4737</v>
+        <v>8236</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="Q1100" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1101" t="n">
         <v>5</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,20 +79629,20 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K1101" t="n">
         <v>6500</v>
       </c>
       <c r="L1101" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1101" t="n">
-        <v>6773</v>
+        <v>6500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
@@ -79651,10 +79651,10 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="Q1101" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1102" t="n">
         <v>5</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1102" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1102" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1102" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1102" t="n">
         <v>18</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1103" t="n">
         <v>5</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,20 +79773,20 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K1103" t="n">
         <v>6000</v>
       </c>
       <c r="L1103" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1103" t="n">
-        <v>6000</v>
+        <v>6268</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1104" t="n">
         <v>5</v>
@@ -79841,24 +79841,24 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="K1104" t="n">
         <v>5000</v>
       </c>
       <c r="L1104" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5214</v>
+        <v>5000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="Q1104" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1105" t="n">
         <v>5</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="K1105" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1105" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1105" t="n">
-        <v>5780</v>
+        <v>4737</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="Q1105" t="n">
         <v>10</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1106" t="n">
         <v>5</v>
@@ -79989,7 +79989,7 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K1106" t="n">
         <v>6500</v>
@@ -79998,7 +79998,7 @@
         <v>7000</v>
       </c>
       <c r="M1106" t="n">
-        <v>6743</v>
+        <v>6773</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q1106" t="n">
         <v>15</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1107" t="n">
         <v>5</v>
@@ -80061,7 +80061,7 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K1107" t="n">
         <v>6000</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1108" t="n">
         <v>5</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1108" t="n">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="L1108" t="n">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="M1108" t="n">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q1108" t="n">
         <v>18</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1109" t="n">
         <v>5</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K1109" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1109" t="n">
         <v>5500</v>
       </c>
-      <c r="L1109" t="n">
-        <v>5700</v>
-      </c>
       <c r="M1109" t="n">
-        <v>5594</v>
+        <v>5214</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="Q1109" t="n">
         <v>20</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1110" t="n">
         <v>5</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="K1110" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1110" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1110" t="n">
-        <v>4727</v>
+        <v>5780</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="Q1110" t="n">
         <v>10</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1111" t="n">
         <v>5</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="K1111" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1111" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1111" t="n">
-        <v>5269</v>
+        <v>6743</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="Q1111" t="n">
         <v>15</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1112" t="n">
         <v>5</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K1112" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1112" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1112" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q1112" t="n">
         <v>18</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1113" t="n">
         <v>5</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,20 +80493,20 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K1113" t="n">
-        <v>4000</v>
+        <v>6800</v>
       </c>
       <c r="L1113" t="n">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="M1113" t="n">
-        <v>4269</v>
+        <v>6800</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
@@ -80515,10 +80515,10 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="Q1113" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E1114" t="n">
         <v>5</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,20 +80565,20 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K1114" t="n">
         <v>5500</v>
       </c>
       <c r="L1114" t="n">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="M1114" t="n">
-        <v>5727</v>
+        <v>5594</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>573</v>
+        <v>280</v>
       </c>
       <c r="Q1114" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1115" t="n">
         <v>5</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,20 +80637,20 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1115" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1115" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M1115" t="n">
-        <v>7261</v>
+        <v>4727</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
@@ -80659,10 +80659,10 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="Q1115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1116" t="n">
         <v>5</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,20 +80709,20 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1116" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1116" t="n">
         <v>5500</v>
       </c>
-      <c r="L1116" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1116" t="n">
-        <v>5739</v>
+        <v>5269</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
@@ -80731,10 +80731,10 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>574</v>
+        <v>351</v>
       </c>
       <c r="Q1116" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1117" t="n">
         <v>5</v>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,20 +80781,20 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="K1117" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1117" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1117" t="n">
-        <v>6766</v>
+        <v>5500</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
@@ -80803,10 +80803,10 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>451</v>
+        <v>306</v>
       </c>
       <c r="Q1117" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1118" t="n">
         <v>5</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,20 +80853,20 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1118" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1118" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1118" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
@@ -80875,10 +80875,10 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="Q1118" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1119" t="n">
         <v>5</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,20 +80925,20 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1119" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1119" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1119" t="n">
-        <v>6261</v>
+        <v>5727</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
@@ -80947,10 +80947,10 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="Q1119" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1120" t="n">
         <v>5</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,20 +80997,20 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K1120" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1120" t="n">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="M1120" t="n">
-        <v>6164</v>
+        <v>7261</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
@@ -81019,10 +81019,10 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>308</v>
+        <v>484</v>
       </c>
       <c r="Q1120" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1121" t="n">
         <v>5</v>
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="K1121" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="L1121" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1121" t="n">
-        <v>3904</v>
+        <v>5739</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>390</v>
+        <v>574</v>
       </c>
       <c r="Q1121" t="n">
         <v>10</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1122" t="n">
         <v>5</v>
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K1122" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1122" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="M1122" t="n">
-        <v>5129</v>
+        <v>6766</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="Q1122" t="n">
         <v>15</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1123" t="n">
         <v>5</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K1123" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1123" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1123" t="n">
-        <v>4767</v>
+        <v>6000</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="Q1123" t="n">
         <v>18</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1124" t="n">
         <v>5</v>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81285,20 +81285,20 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="K1124" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1124" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1124" t="n">
-        <v>4235</v>
+        <v>6261</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
@@ -81307,10 +81307,10 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="Q1124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1125" t="n">
         <v>5</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81360,17 +81360,17 @@
         <v>110</v>
       </c>
       <c r="K1125" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1125" t="n">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="M1125" t="n">
-        <v>5773</v>
+        <v>6164</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
@@ -81379,10 +81379,10 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>385</v>
+        <v>308</v>
       </c>
       <c r="Q1125" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1126" t="n">
         <v>5</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,20 +81429,20 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K1126" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L1126" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1126" t="n">
-        <v>5000</v>
+        <v>3904</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
@@ -81451,10 +81451,10 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="Q1126" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1127" t="n">
         <v>5</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81501,20 +81501,20 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K1127" t="n">
         <v>5000</v>
       </c>
       <c r="L1127" t="n">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="M1127" t="n">
-        <v>5000</v>
+        <v>5129</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
@@ -81523,10 +81523,10 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Q1127" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1128" t="n">
         <v>5</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,20 +81573,20 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1128" t="n">
         <v>4500</v>
       </c>
       <c r="L1128" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1128" t="n">
-        <v>4500</v>
+        <v>4767</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
@@ -81595,10 +81595,10 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="Q1128" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1129" t="n">
         <v>5</v>
@@ -81645,16 +81645,16 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K1129" t="n">
         <v>4000</v>
       </c>
       <c r="L1129" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1129" t="n">
-        <v>4000</v>
+        <v>4235</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="Q1129" t="n">
         <v>10</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1130" t="n">
         <v>5</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1130" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L1130" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1130" t="n">
-        <v>8762</v>
+        <v>5773</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>584</v>
+        <v>385</v>
       </c>
       <c r="Q1130" t="n">
         <v>15</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1131" t="n">
         <v>5</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1131" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1131" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1131" t="n">
-        <v>6308</v>
+        <v>5000</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="Q1131" t="n">
         <v>18</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1132" t="n">
         <v>5</v>
@@ -81864,13 +81864,13 @@
         <v>60</v>
       </c>
       <c r="K1132" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1132" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1132" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81883,7 +81883,7 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1132" t="n">
         <v>18</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1133" t="n">
         <v>5</v>
@@ -81933,16 +81933,16 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K1133" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1133" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="M1133" t="n">
-        <v>6175</v>
+        <v>4500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="Q1133" t="n">
         <v>20</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1134" t="n">
         <v>5</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K1134" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1134" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1134" t="n">
-        <v>6738</v>
+        <v>4000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82027,7 +82027,7 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>674</v>
+        <v>400</v>
       </c>
       <c r="Q1134" t="n">
         <v>10</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1135" t="n">
         <v>5</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1135" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L1135" t="n">
         <v>9000</v>
       </c>
       <c r="M1135" t="n">
-        <v>8480</v>
+        <v>8762</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="Q1135" t="n">
         <v>15</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1136" t="n">
         <v>5</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1136" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1136" t="n">
         <v>6500</v>
       </c>
       <c r="M1136" t="n">
-        <v>6500</v>
+        <v>6308</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q1136" t="n">
         <v>18</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1137" t="n">
         <v>5</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1137" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1137" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1137" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="Q1137" t="n">
         <v>18</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1138" t="n">
         <v>5</v>
@@ -82293,16 +82293,16 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K1138" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1138" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1138" t="n">
-        <v>6762</v>
+        <v>6175</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Q1138" t="n">
         <v>20</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1139" t="n">
         <v>5</v>
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1139" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1139" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1139" t="n">
-        <v>5727</v>
+        <v>6738</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="Q1139" t="n">
         <v>10</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1140" t="n">
         <v>5</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K1140" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1140" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1140" t="n">
-        <v>7239</v>
+        <v>8480</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="Q1140" t="n">
         <v>15</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1141" t="n">
         <v>5</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K1141" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1141" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1141" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1141" t="n">
         <v>18</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1142" t="n">
         <v>5</v>
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K1142" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1142" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1142" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1142" t="n">
         <v>18</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1143" t="n">
         <v>5</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1143" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1143" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1143" t="n">
-        <v>6000</v>
+        <v>6762</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="Q1143" t="n">
         <v>20</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1144" t="n">
         <v>5</v>
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K1144" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1144" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1144" t="n">
-        <v>6700</v>
+        <v>5727</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>670</v>
+        <v>573</v>
       </c>
       <c r="Q1144" t="n">
         <v>10</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1145" t="n">
         <v>5</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K1145" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1145" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M1145" t="n">
-        <v>8269</v>
+        <v>7239</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="Q1145" t="n">
         <v>15</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1146" t="n">
         <v>5</v>
@@ -82860,25 +82860,25 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1146" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1146" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1146" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q1146" t="n">
         <v>18</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1147" t="n">
         <v>5</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,7 +82941,7 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1147" t="n">
         <v>6000</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1148" t="n">
         <v>5</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83026,7 +83026,7 @@
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="Q1148" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,7 +83085,7 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K1149" t="n">
         <v>6500</v>
@@ -83094,11 +83094,11 @@
         <v>7000</v>
       </c>
       <c r="M1149" t="n">
-        <v>6769</v>
+        <v>6700</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
@@ -83107,10 +83107,10 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>338</v>
+        <v>670</v>
       </c>
       <c r="Q1149" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1150" t="n">
         <v>5</v>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,20 +83157,20 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1150" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1150" t="n">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="M1150" t="n">
-        <v>4262</v>
+        <v>8269</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
@@ -83179,10 +83179,10 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>426</v>
+        <v>551</v>
       </c>
       <c r="Q1150" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1151" t="n">
         <v>5</v>
@@ -83225,24 +83225,24 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K1151" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1151" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1151" t="n">
-        <v>5762</v>
+        <v>7500</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
@@ -83251,10 +83251,10 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="Q1151" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1152" t="n">
         <v>5</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1152" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1152" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1152" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="Q1152" t="n">
         <v>18</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1153" t="n">
         <v>5</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83376,13 +83376,13 @@
         <v>70</v>
       </c>
       <c r="K1153" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1153" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1153" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1153" t="n">
         <v>18</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1154" t="n">
         <v>5</v>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,20 +83445,20 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K1154" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1154" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1154" t="n">
-        <v>4500</v>
+        <v>6769</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
@@ -83467,10 +83467,10 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="Q1154" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83520,17 +83520,17 @@
         <v>105</v>
       </c>
       <c r="K1155" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1155" t="n">
         <v>4500</v>
       </c>
-      <c r="L1155" t="n">
-        <v>4800</v>
-      </c>
       <c r="M1155" t="n">
-        <v>4657</v>
+        <v>4262</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
@@ -83539,10 +83539,10 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="Q1155" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1156" t="n">
         <v>5</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,20 +83589,20 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1156" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1156" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="M1156" t="n">
-        <v>4138</v>
+        <v>5762</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
@@ -83611,10 +83611,10 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="Q1156" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1157" t="n">
         <v>5</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,20 +83661,20 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K1157" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1157" t="n">
         <v>5000</v>
       </c>
-      <c r="L1157" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1157" t="n">
-        <v>5261</v>
+        <v>4750</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
@@ -83683,10 +83683,10 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="Q1157" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1158" t="n">
         <v>5</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1158" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1158" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1158" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1158" t="n">
         <v>18</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1159" t="n">
         <v>5</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1159" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1159" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1159" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1159" t="n">
         <v>18</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1160" t="n">
         <v>5</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1160" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1160" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M1160" t="n">
-        <v>4269</v>
+        <v>4657</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,12 +83899,372 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Q1160" t="n">
         <v>20</v>
       </c>
       <c r="R1160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1161" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1161" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1161" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1161" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>4138</v>
+      </c>
+      <c r="N1161" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1161" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1161" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1162" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1162" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1162" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1162" t="n">
+        <v>115</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>5261</v>
+      </c>
+      <c r="N1162" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1162" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1162" t="n">
+        <v>351</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1163" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1163" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1163" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1163" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1163" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1163" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1164" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1164" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1164" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1164" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1164" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1164" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1165" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1165" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1165" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>4269</v>
+      </c>
+      <c r="N1165" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1165" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1165" t="n">
+        <v>213</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1345"/>
+  <dimension ref="A1:R1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1242" t="n">
         <v>5</v>
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K1242" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1242" t="n">
         <v>4500</v>
       </c>
-      <c r="L1242" t="n">
-        <v>5000</v>
-      </c>
       <c r="M1242" t="n">
-        <v>4769</v>
+        <v>4233</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="Q1242" t="n">
         <v>10</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1243" t="n">
         <v>5</v>
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K1243" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1243" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1243" t="n">
-        <v>5731</v>
+        <v>6250</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1244" t="n">
         <v>5</v>
@@ -89916,7 +89916,7 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K1244" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="L1244" t="n">
         <v>5000</v>
       </c>
       <c r="M1244" t="n">
-        <v>4908</v>
+        <v>5000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q1244" t="n">
         <v>18</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1245" t="n">
         <v>5</v>
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1245" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1245" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1245" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1245" t="n">
         <v>18</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1246" t="n">
         <v>5</v>
@@ -90072,13 +90072,13 @@
         <v>145</v>
       </c>
       <c r="K1246" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1246" t="n">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="M1246" t="n">
-        <v>5145</v>
+        <v>4259</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="Q1246" t="n">
         <v>20</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1247" t="n">
         <v>5</v>
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1247" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1247" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1247" t="n">
-        <v>6262</v>
+        <v>4769</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="Q1247" t="n">
         <v>10</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1248" t="n">
         <v>5</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1248" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1248" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1248" t="n">
-        <v>8262</v>
+        <v>5731</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>551</v>
+        <v>382</v>
       </c>
       <c r="Q1248" t="n">
         <v>15</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1249" t="n">
         <v>5</v>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1249" t="n">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="L1249" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1249" t="n">
-        <v>6500</v>
+        <v>4908</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="Q1249" t="n">
         <v>18</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1250" t="n">
         <v>5</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1250" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1250" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1250" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="Q1250" t="n">
         <v>18</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1251" t="n">
         <v>5</v>
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="K1251" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1251" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="M1251" t="n">
-        <v>5727</v>
+        <v>5145</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="Q1251" t="n">
         <v>20</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1252" t="n">
         <v>5</v>
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1252" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1252" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1252" t="n">
-        <v>4273</v>
+        <v>6262</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>427</v>
+        <v>626</v>
       </c>
       <c r="Q1252" t="n">
         <v>10</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1253" t="n">
         <v>5</v>
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K1253" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1253" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1253" t="n">
-        <v>5821</v>
+        <v>8262</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>388</v>
+        <v>551</v>
       </c>
       <c r="Q1253" t="n">
         <v>15</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1254" t="n">
         <v>5</v>
@@ -90645,16 +90645,16 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1254" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1254" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1254" t="n">
-        <v>4727</v>
+        <v>6500</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="Q1254" t="n">
         <v>18</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1255" t="n">
         <v>5</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K1255" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1255" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1255" t="n">
-        <v>4773</v>
+        <v>6500</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="Q1255" t="n">
         <v>18</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1256" t="n">
         <v>5</v>
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1256" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1256" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="M1256" t="n">
-        <v>4638</v>
+        <v>5727</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="Q1256" t="n">
         <v>20</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1257" t="n">
         <v>5</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1257" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1257" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1257" t="n">
-        <v>5761</v>
+        <v>4273</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>576</v>
+        <v>427</v>
       </c>
       <c r="Q1257" t="n">
         <v>10</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1258" t="n">
         <v>5</v>
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K1258" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1258" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1258" t="n">
-        <v>8217</v>
+        <v>5821</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>548</v>
+        <v>388</v>
       </c>
       <c r="Q1258" t="n">
         <v>15</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1259" t="n">
         <v>5</v>
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1259" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1259" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1259" t="n">
-        <v>6500</v>
+        <v>4727</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="Q1259" t="n">
         <v>18</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1260" t="n">
         <v>5</v>
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1260" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1260" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1260" t="n">
-        <v>6000</v>
+        <v>4773</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="Q1260" t="n">
         <v>18</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1261" t="n">
         <v>5</v>
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1261" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1261" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1261" t="n">
-        <v>5500</v>
+        <v>4638</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="Q1261" t="n">
         <v>20</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1262" t="n">
         <v>5</v>
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1262" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1262" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1262" t="n">
-        <v>6238</v>
+        <v>5761</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91243,7 +91243,7 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>624</v>
+        <v>576</v>
       </c>
       <c r="Q1262" t="n">
         <v>10</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1263" t="n">
         <v>5</v>
@@ -91293,16 +91293,16 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K1263" t="n">
         <v>8000</v>
       </c>
       <c r="L1263" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="M1263" t="n">
-        <v>8470</v>
+        <v>8217</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91315,7 +91315,7 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="Q1263" t="n">
         <v>15</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1264" t="n">
         <v>5</v>
@@ -91365,16 +91365,16 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K1264" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1264" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1264" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q1264" t="n">
         <v>18</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1265" t="n">
         <v>5</v>
@@ -91437,7 +91437,7 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K1265" t="n">
         <v>6000</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1266" t="n">
         <v>5</v>
@@ -91509,16 +91509,16 @@
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1266" t="n">
         <v>5500</v>
       </c>
       <c r="L1266" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1266" t="n">
-        <v>5738</v>
+        <v>5500</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q1266" t="n">
         <v>20</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1267" t="n">
         <v>5</v>
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1267" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1267" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M1267" t="n">
-        <v>4664</v>
+        <v>6238</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>466</v>
+        <v>624</v>
       </c>
       <c r="Q1267" t="n">
         <v>10</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1268" t="n">
         <v>5</v>
@@ -91653,16 +91653,16 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="K1268" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1268" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1268" t="n">
-        <v>5762</v>
+        <v>8470</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>384</v>
+        <v>565</v>
       </c>
       <c r="Q1268" t="n">
         <v>15</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1269" t="n">
         <v>5</v>
@@ -91725,16 +91725,16 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K1269" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1269" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1269" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1269" t="n">
         <v>18</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1270" t="n">
         <v>5</v>
@@ -91800,13 +91800,13 @@
         <v>50</v>
       </c>
       <c r="K1270" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1270" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1270" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1270" t="n">
         <v>18</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1271" t="n">
         <v>5</v>
@@ -91869,16 +91869,16 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K1271" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1271" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1271" t="n">
-        <v>4000</v>
+        <v>5738</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="Q1271" t="n">
         <v>20</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1272" t="n">
         <v>5</v>
@@ -91944,13 +91944,13 @@
         <v>110</v>
       </c>
       <c r="K1272" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1272" t="n">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="M1272" t="n">
-        <v>5273</v>
+        <v>4664</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91963,7 +91963,7 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="Q1272" t="n">
         <v>10</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1273" t="n">
         <v>5</v>
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1273" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1273" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1273" t="n">
-        <v>8273</v>
+        <v>5762</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>552</v>
+        <v>384</v>
       </c>
       <c r="Q1273" t="n">
         <v>15</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1274" t="n">
         <v>5</v>
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1274" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1274" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1274" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1274" t="n">
         <v>18</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1275" t="n">
         <v>5</v>
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1275" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1275" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1275" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1275" t="n">
         <v>18</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1276" t="n">
         <v>5</v>
@@ -92229,20 +92229,20 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K1276" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1276" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1276" t="n">
-        <v>4773</v>
+        <v>4000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
@@ -92251,10 +92251,10 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="Q1276" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1277" t="n">
         <v>5</v>
@@ -92301,16 +92301,16 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1277" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1277" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1277" t="n">
-        <v>4231</v>
+        <v>5273</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>423</v>
+        <v>527</v>
       </c>
       <c r="Q1277" t="n">
         <v>10</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1278" t="n">
         <v>5</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1278" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1278" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1278" t="n">
-        <v>5762</v>
+        <v>8273</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>384</v>
+        <v>552</v>
       </c>
       <c r="Q1278" t="n">
         <v>15</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1279" t="n">
         <v>5</v>
@@ -92445,16 +92445,16 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92467,7 +92467,7 @@
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1279" t="n">
         <v>18</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1280" t="n">
         <v>5</v>
@@ -92520,13 +92520,13 @@
         <v>60</v>
       </c>
       <c r="K1280" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1280" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1280" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1280" t="n">
         <v>18</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1281" t="n">
         <v>5</v>
@@ -92595,14 +92595,14 @@
         <v>4500</v>
       </c>
       <c r="L1281" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1281" t="n">
-        <v>4664</v>
+        <v>4773</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1281" t="inlineStr">
@@ -92611,10 +92611,10 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="Q1281" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1281" t="inlineStr">
         <is>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1282" t="n">
         <v>5</v>
@@ -92661,7 +92661,7 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K1282" t="n">
         <v>4000</v>
@@ -92670,7 +92670,7 @@
         <v>4500</v>
       </c>
       <c r="M1282" t="n">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1283" t="n">
         <v>5</v>
@@ -92733,7 +92733,7 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1283" t="n">
         <v>5500</v>
@@ -92742,7 +92742,7 @@
         <v>6000</v>
       </c>
       <c r="M1283" t="n">
-        <v>5769</v>
+        <v>5762</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q1283" t="n">
         <v>15</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1284" t="n">
         <v>5</v>
@@ -92805,7 +92805,7 @@
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K1284" t="n">
         <v>5000</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1285" t="n">
         <v>5</v>
@@ -92880,13 +92880,13 @@
         <v>60</v>
       </c>
       <c r="K1285" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1285" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1285" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1285" t="n">
         <v>18</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1286" t="n">
         <v>5</v>
@@ -92949,16 +92949,16 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K1286" t="n">
         <v>4500</v>
       </c>
       <c r="L1286" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="M1286" t="n">
-        <v>4767</v>
+        <v>4664</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q1286" t="n">
         <v>20</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1287" t="n">
         <v>5</v>
@@ -93021,16 +93021,16 @@
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K1287" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1287" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1287" t="n">
-        <v>6500</v>
+        <v>4233</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>650</v>
+        <v>423</v>
       </c>
       <c r="Q1287" t="n">
         <v>10</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1288" t="n">
         <v>5</v>
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K1288" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1288" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="M1288" t="n">
-        <v>8236</v>
+        <v>5769</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>549</v>
+        <v>385</v>
       </c>
       <c r="Q1288" t="n">
         <v>15</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1289" t="n">
         <v>5</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K1289" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1289" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1289" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1289" t="n">
         <v>18</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1290" t="n">
         <v>5</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,20 +93237,20 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K1290" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1290" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1290" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1290" t="inlineStr">
@@ -93259,10 +93259,10 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="Q1290" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1290" t="inlineStr">
         <is>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1291" t="n">
         <v>5</v>
@@ -93305,24 +93305,24 @@
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K1291" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1291" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1291" t="n">
-        <v>5500</v>
+        <v>4767</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1291" t="inlineStr">
@@ -93331,10 +93331,10 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q1291" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R1291" t="inlineStr">
         <is>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1292" t="n">
         <v>5</v>
@@ -93381,16 +93381,16 @@
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K1292" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1292" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1292" t="n">
-        <v>5738</v>
+        <v>6500</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="Q1292" t="n">
         <v>10</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1293" t="n">
         <v>5</v>
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K1293" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L1293" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="M1293" t="n">
-        <v>9231</v>
+        <v>8236</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="Q1293" t="n">
         <v>15</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1294" t="n">
         <v>5</v>
@@ -93516,7 +93516,7 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -93525,16 +93525,16 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K1294" t="n">
         <v>6000</v>
       </c>
       <c r="L1294" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1294" t="n">
-        <v>6240</v>
+        <v>6000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1294" t="n">
         <v>18</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1295" t="n">
         <v>5</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,20 +93597,20 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K1295" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1295" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1295" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1295" t="inlineStr">
@@ -93619,10 +93619,10 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q1295" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1295" t="inlineStr">
         <is>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1296" t="n">
         <v>5</v>
@@ -93665,24 +93665,24 @@
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K1296" t="n">
         <v>5500</v>
       </c>
       <c r="L1296" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1296" t="n">
-        <v>5761</v>
+        <v>5500</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1296" t="inlineStr">
@@ -93691,10 +93691,10 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="Q1296" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1296" t="inlineStr">
         <is>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1297" t="n">
         <v>5</v>
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K1297" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1297" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1297" t="n">
-        <v>4769</v>
+        <v>5738</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>477</v>
+        <v>574</v>
       </c>
       <c r="Q1297" t="n">
         <v>10</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1298" t="n">
         <v>5</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K1298" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L1298" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="M1298" t="n">
-        <v>5514</v>
+        <v>9231</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>368</v>
+        <v>615</v>
       </c>
       <c r="Q1298" t="n">
         <v>15</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1299" t="n">
         <v>5</v>
@@ -93885,16 +93885,16 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="K1299" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1299" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1299" t="n">
-        <v>4500</v>
+        <v>6240</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="Q1299" t="n">
         <v>18</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1300" t="n">
         <v>5</v>
@@ -93957,16 +93957,16 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K1300" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1300" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1300" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1300" t="n">
         <v>18</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1301" t="n">
         <v>5</v>
@@ -94029,16 +94029,16 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K1301" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1301" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1301" t="n">
-        <v>4255</v>
+        <v>5761</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="Q1301" t="n">
         <v>20</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1302" t="n">
         <v>5</v>
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K1302" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1302" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1302" t="n">
-        <v>6262</v>
+        <v>4769</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="Q1302" t="n">
         <v>10</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1303" t="n">
         <v>5</v>
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K1303" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="L1303" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1303" t="n">
-        <v>8704</v>
+        <v>5514</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94195,7 +94195,7 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>580</v>
+        <v>368</v>
       </c>
       <c r="Q1303" t="n">
         <v>15</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1304" t="n">
         <v>5</v>
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K1304" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1304" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1304" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1304" t="n">
         <v>18</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1305" t="n">
         <v>5</v>
@@ -94320,13 +94320,13 @@
         <v>50</v>
       </c>
       <c r="K1305" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1305" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1305" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94339,7 +94339,7 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1305" t="n">
         <v>18</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1306" t="n">
         <v>5</v>
@@ -94389,16 +94389,16 @@
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K1306" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1306" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1306" t="n">
-        <v>6262</v>
+        <v>4255</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="Q1306" t="n">
         <v>20</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1307" t="n">
         <v>5</v>
@@ -94461,16 +94461,16 @@
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K1307" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1307" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1307" t="n">
-        <v>4741</v>
+        <v>6262</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="Q1307" t="n">
         <v>10</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1308" t="n">
         <v>5</v>
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="K1308" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1308" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1308" t="n">
-        <v>5742</v>
+        <v>8704</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>383</v>
+        <v>580</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1309" t="n">
         <v>5</v>
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1309" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1309" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1309" t="n">
-        <v>4269</v>
+        <v>6000</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="Q1309" t="n">
         <v>18</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1310" t="n">
         <v>5</v>
@@ -94677,16 +94677,16 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1310" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1310" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1310" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1310" t="n">
         <v>18</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1311" t="n">
         <v>5</v>
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="K1311" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1311" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1311" t="n">
-        <v>4500</v>
+        <v>6262</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="Q1311" t="n">
         <v>20</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1312" t="n">
         <v>5</v>
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K1312" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1312" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1312" t="n">
-        <v>5727</v>
+        <v>4741</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>573</v>
+        <v>474</v>
       </c>
       <c r="Q1312" t="n">
         <v>10</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1313" t="n">
         <v>5</v>
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K1313" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1313" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1313" t="n">
-        <v>7273</v>
+        <v>5742</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="Q1313" t="n">
         <v>15</v>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1314" t="n">
         <v>5</v>
@@ -94965,16 +94965,16 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K1314" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1314" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1314" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q1314" t="n">
         <v>18</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1315" t="n">
         <v>5</v>
@@ -95040,13 +95040,13 @@
         <v>80</v>
       </c>
       <c r="K1315" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1315" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1315" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="Q1315" t="n">
         <v>18</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1316" t="n">
         <v>5</v>
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K1316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q1316" t="n">
         <v>20</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1317" t="n">
         <v>5</v>
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1317" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1317" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1317" t="n">
-        <v>4731</v>
+        <v>5727</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="Q1317" t="n">
         <v>10</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1318" t="n">
         <v>5</v>
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1318" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1318" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M1318" t="n">
-        <v>5739</v>
+        <v>7273</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="Q1318" t="n">
         <v>15</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1319" t="n">
         <v>5</v>
@@ -95325,16 +95325,16 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K1319" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1319" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1319" t="n">
-        <v>4739</v>
+        <v>6000</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95347,7 +95347,7 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1320" t="n">
         <v>5</v>
@@ -95397,16 +95397,16 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K1320" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1320" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1320" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95419,7 +95419,7 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1320" t="n">
         <v>18</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1321" t="n">
         <v>5</v>
@@ -95469,16 +95469,16 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1321" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1321" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1321" t="n">
-        <v>4739</v>
+        <v>6000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95491,7 +95491,7 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="Q1321" t="n">
         <v>20</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1322" t="n">
         <v>5</v>
@@ -95541,7 +95541,7 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K1322" t="n">
         <v>4500</v>
@@ -95550,7 +95550,7 @@
         <v>5000</v>
       </c>
       <c r="M1322" t="n">
-        <v>4759</v>
+        <v>4731</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q1322" t="n">
         <v>10</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1323" t="n">
         <v>5</v>
@@ -95613,16 +95613,16 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K1323" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1323" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1323" t="n">
-        <v>6233</v>
+        <v>5739</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95635,7 +95635,7 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="Q1323" t="n">
         <v>15</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1324" t="n">
         <v>5</v>
@@ -95685,7 +95685,7 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K1324" t="n">
         <v>4500</v>
@@ -95694,7 +95694,7 @@
         <v>5000</v>
       </c>
       <c r="M1324" t="n">
-        <v>4767</v>
+        <v>4739</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1325" t="n">
         <v>5</v>
@@ -95757,16 +95757,16 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1325" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1325" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1325" t="n">
-        <v>4269</v>
+        <v>5000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95779,7 +95779,7 @@
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1326" t="n">
         <v>5</v>
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K1326" t="n">
         <v>4500</v>
       </c>
       <c r="L1326" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M1326" t="n">
-        <v>4660</v>
+        <v>4739</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q1326" t="n">
         <v>20</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1327" t="n">
         <v>5</v>
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K1327" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1327" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="M1327" t="n">
-        <v>6138</v>
+        <v>4759</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>614</v>
+        <v>476</v>
       </c>
       <c r="Q1327" t="n">
         <v>10</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1328" t="n">
         <v>5</v>
@@ -95973,16 +95973,16 @@
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K1328" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1328" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M1328" t="n">
-        <v>7760</v>
+        <v>6233</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>517</v>
+        <v>416</v>
       </c>
       <c r="Q1328" t="n">
         <v>15</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1329" t="n">
         <v>5</v>
@@ -96045,16 +96045,16 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1329" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1329" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1329" t="n">
-        <v>6000</v>
+        <v>4767</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="Q1329" t="n">
         <v>18</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1330" t="n">
         <v>5</v>
@@ -96117,16 +96117,16 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K1330" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1330" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1330" t="n">
-        <v>6000</v>
+        <v>4269</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1331" t="n">
         <v>5</v>
@@ -96189,16 +96189,16 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K1331" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1331" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M1331" t="n">
-        <v>6000</v>
+        <v>4660</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96211,7 +96211,7 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="Q1331" t="n">
         <v>20</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1332" t="n">
         <v>5</v>
@@ -96264,13 +96264,13 @@
         <v>130</v>
       </c>
       <c r="K1332" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1332" t="n">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="M1332" t="n">
-        <v>4662</v>
+        <v>6138</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>466</v>
+        <v>614</v>
       </c>
       <c r="Q1332" t="n">
         <v>10</v>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1333" t="n">
         <v>5</v>
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K1333" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1333" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1333" t="n">
-        <v>5769</v>
+        <v>7760</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>385</v>
+        <v>517</v>
       </c>
       <c r="Q1333" t="n">
         <v>15</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1334" t="n">
         <v>5</v>
@@ -96408,13 +96408,13 @@
         <v>60</v>
       </c>
       <c r="K1334" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1334" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1334" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1334" t="n">
         <v>18</v>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1335" t="n">
         <v>5</v>
@@ -96477,16 +96477,16 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1335" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1335" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1335" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96499,7 +96499,7 @@
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1335" t="n">
         <v>18</v>
@@ -96525,7 +96525,7 @@
         </is>
       </c>
       <c r="D1336" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1336" t="n">
         <v>5</v>
@@ -96540,7 +96540,7 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
@@ -96549,20 +96549,20 @@
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1336" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1336" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1336" t="n">
-        <v>6808</v>
+        <v>6000</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1336" t="inlineStr">
@@ -96571,10 +96571,10 @@
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>681</v>
+        <v>300</v>
       </c>
       <c r="Q1336" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1336" t="inlineStr">
         <is>
@@ -96597,7 +96597,7 @@
         </is>
       </c>
       <c r="D1337" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1337" t="n">
         <v>5</v>
@@ -96612,7 +96612,7 @@
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1337" t="inlineStr">
@@ -96621,20 +96621,20 @@
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K1337" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1337" t="n">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="M1337" t="n">
-        <v>8286</v>
+        <v>4662</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1337" t="inlineStr">
@@ -96643,10 +96643,10 @@
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>552</v>
+        <v>466</v>
       </c>
       <c r="Q1337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1337" t="inlineStr">
         <is>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1338" t="n">
         <v>5</v>
@@ -96684,7 +96684,7 @@
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1338" t="inlineStr">
@@ -96693,20 +96693,20 @@
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K1338" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1338" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1338" t="n">
-        <v>6321</v>
+        <v>5769</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1338" t="inlineStr">
@@ -96715,10 +96715,10 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="Q1338" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1338" t="inlineStr">
         <is>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1339" t="n">
         <v>5</v>
@@ -96756,7 +96756,7 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -96765,16 +96765,16 @@
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1339" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1339" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1339" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
@@ -96787,7 +96787,7 @@
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="Q1339" t="n">
         <v>18</v>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1340" t="n">
         <v>5</v>
@@ -96828,7 +96828,7 @@
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">
@@ -96837,20 +96837,20 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1340" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1340" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1340" t="n">
-        <v>6227</v>
+        <v>4500</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1340" t="inlineStr">
@@ -96859,10 +96859,10 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="Q1340" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1340" t="inlineStr">
         <is>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1341" t="n">
         <v>5</v>
@@ -96912,13 +96912,13 @@
         <v>130</v>
       </c>
       <c r="K1341" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1341" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1341" t="n">
-        <v>4731</v>
+        <v>6808</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96927,11 +96927,11 @@
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>473</v>
+        <v>681</v>
       </c>
       <c r="Q1341" t="n">
         <v>10</v>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1342" t="n">
         <v>5</v>
@@ -96981,16 +96981,16 @@
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K1342" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1342" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M1342" t="n">
-        <v>6219</v>
+        <v>8286</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="Q1342" t="n">
         <v>15</v>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1343" t="n">
         <v>5</v>
@@ -97053,16 +97053,16 @@
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K1343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1343" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M1343" t="n">
-        <v>5240</v>
+        <v>6321</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97075,7 +97075,7 @@
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="Q1343" t="n">
         <v>18</v>
@@ -97101,7 +97101,7 @@
         </is>
       </c>
       <c r="D1344" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1344" t="n">
         <v>5</v>
@@ -97125,16 +97125,16 @@
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1344" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1344" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1344" t="n">
-        <v>5000</v>
+        <v>6227</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="Q1344" t="n">
         <v>18</v>
@@ -97173,7 +97173,7 @@
         </is>
       </c>
       <c r="D1345" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1345" t="n">
         <v>5</v>
@@ -97197,16 +97197,16 @@
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1345" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1345" t="n">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="M1345" t="n">
-        <v>4662</v>
+        <v>6227</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97219,12 +97219,372 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="Q1345" t="n">
         <v>20</v>
       </c>
       <c r="R1345" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1346" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1346" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1346" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>4731</v>
+      </c>
+      <c r="N1346" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1346" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+      <c r="P1346" t="n">
+        <v>473</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1346" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1347" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1347" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1347" t="n">
+        <v>137</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>6219</v>
+      </c>
+      <c r="N1347" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1347" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1347" t="n">
+        <v>415</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1347" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1348" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1348" t="n">
+        <v>125</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>5240</v>
+      </c>
+      <c r="N1348" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1348" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1348" t="n">
+        <v>291</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1349" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1349" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1349" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1349" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1349" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1349" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1349" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1349" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1350" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1350" t="n">
+        <v>130</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>4800</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>4662</v>
+      </c>
+      <c r="N1350" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1350" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1350" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1350" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1370"/>
+  <dimension ref="A1:R1375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1291" t="n">
         <v>5</v>
@@ -93309,16 +93309,16 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K1291" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1291" t="n">
         <v>5500</v>
       </c>
-      <c r="L1291" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1291" t="n">
-        <v>5733</v>
+        <v>5278</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="Q1291" t="n">
         <v>10</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1292" t="n">
         <v>5</v>
@@ -93381,16 +93381,16 @@
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K1292" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1292" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1292" t="n">
-        <v>7278</v>
+        <v>5765</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>485</v>
+        <v>384</v>
       </c>
       <c r="Q1292" t="n">
         <v>15</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1293" t="n">
         <v>5</v>
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K1293" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1293" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1293" t="n">
-        <v>5765</v>
+        <v>5000</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="Q1293" t="n">
         <v>18</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1294" t="n">
         <v>5</v>
@@ -93528,13 +93528,13 @@
         <v>80</v>
       </c>
       <c r="K1294" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1294" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1294" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1294" t="n">
         <v>18</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1295" t="n">
         <v>5</v>
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K1295" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1295" t="n">
         <v>5000</v>
       </c>
-      <c r="L1295" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1295" t="n">
-        <v>5257</v>
+        <v>4773</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="Q1295" t="n">
         <v>20</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1296" t="n">
         <v>5</v>
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K1296" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1296" t="n">
         <v>6000</v>
       </c>
-      <c r="L1296" t="n">
-        <v>6500</v>
-      </c>
       <c r="M1296" t="n">
-        <v>6273</v>
+        <v>5733</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>627</v>
+        <v>573</v>
       </c>
       <c r="Q1296" t="n">
         <v>10</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1297" t="n">
         <v>5</v>
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="K1297" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1297" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="M1297" t="n">
-        <v>8238</v>
+        <v>7278</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>549</v>
+        <v>485</v>
       </c>
       <c r="Q1297" t="n">
         <v>15</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1298" t="n">
         <v>5</v>
@@ -93804,7 +93804,7 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K1298" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1298" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1298" t="n">
-        <v>6500</v>
+        <v>5765</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93835,7 +93835,7 @@
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Q1298" t="n">
         <v>18</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1299" t="n">
         <v>5</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93885,20 +93885,20 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K1299" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1299" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1299" t="n">
-        <v>5239</v>
+        <v>6000</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1299" t="inlineStr">
@@ -93907,10 +93907,10 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="Q1299" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1299" t="inlineStr">
         <is>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1300" t="n">
         <v>5</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93957,20 +93957,20 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="K1300" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1300" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1300" t="n">
-        <v>6267</v>
+        <v>5257</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1300" t="inlineStr">
@@ -93979,10 +93979,10 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>627</v>
+        <v>263</v>
       </c>
       <c r="Q1300" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1300" t="inlineStr">
         <is>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1301" t="n">
         <v>5</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94029,20 +94029,20 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K1301" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1301" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M1301" t="n">
-        <v>7759</v>
+        <v>6273</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1301" t="inlineStr">
@@ -94051,10 +94051,10 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>517</v>
+        <v>627</v>
       </c>
       <c r="Q1301" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1301" t="inlineStr">
         <is>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1302" t="n">
         <v>5</v>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,20 +94101,20 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K1302" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1302" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M1302" t="n">
-        <v>6000</v>
+        <v>8238</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1302" t="inlineStr">
@@ -94123,10 +94123,10 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q1302" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1302" t="inlineStr">
         <is>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1303" t="n">
         <v>5</v>
@@ -94164,7 +94164,7 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -94173,20 +94173,20 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K1303" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1303" t="n">
         <v>6500</v>
       </c>
       <c r="M1303" t="n">
-        <v>6269</v>
+        <v>6500</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1303" t="inlineStr">
@@ -94195,10 +94195,10 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="Q1303" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1303" t="inlineStr">
         <is>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E1304" t="n">
         <v>5</v>
@@ -94236,7 +94236,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -94248,17 +94248,17 @@
         <v>115</v>
       </c>
       <c r="K1304" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1304" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="M1304" t="n">
-        <v>4157</v>
+        <v>5239</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1304" t="inlineStr">
@@ -94267,10 +94267,10 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>416</v>
+        <v>262</v>
       </c>
       <c r="Q1304" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1304" t="inlineStr">
         <is>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1305" t="n">
         <v>5</v>
@@ -94308,7 +94308,7 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
@@ -94317,20 +94317,20 @@
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="K1305" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1305" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1305" t="n">
-        <v>5776</v>
+        <v>6267</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
@@ -94339,10 +94339,10 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>385</v>
+        <v>627</v>
       </c>
       <c r="Q1305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1306" t="n">
         <v>5</v>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94389,20 +94389,20 @@
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K1306" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1306" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1306" t="n">
-        <v>5000</v>
+        <v>7759</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1306" t="inlineStr">
@@ -94411,10 +94411,10 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>278</v>
+        <v>517</v>
       </c>
       <c r="Q1306" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1306" t="inlineStr">
         <is>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1307" t="n">
         <v>5</v>
@@ -94464,13 +94464,13 @@
         <v>60</v>
       </c>
       <c r="K1307" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1307" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1307" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1307" t="n">
         <v>18</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1308" t="n">
         <v>5</v>
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1308" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1308" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="M1308" t="n">
-        <v>4143</v>
+        <v>6269</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="Q1308" t="n">
         <v>20</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1309" t="n">
         <v>5</v>
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K1309" t="n">
         <v>4000</v>
       </c>
       <c r="L1309" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M1309" t="n">
-        <v>4238</v>
+        <v>4157</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q1309" t="n">
         <v>10</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1310" t="n">
         <v>5</v>
@@ -94677,16 +94677,16 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K1310" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1310" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1310" t="n">
-        <v>5260</v>
+        <v>5776</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="Q1310" t="n">
         <v>15</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1311" t="n">
         <v>5</v>
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K1311" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1311" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1311" t="n">
-        <v>4239</v>
+        <v>5000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="Q1311" t="n">
         <v>18</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1312" t="n">
         <v>5</v>
@@ -94824,13 +94824,13 @@
         <v>60</v>
       </c>
       <c r="K1312" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1312" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1312" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1312" t="n">
         <v>18</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1313" t="n">
         <v>5</v>
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K1313" t="n">
         <v>4000</v>
       </c>
       <c r="L1313" t="n">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="M1313" t="n">
-        <v>4240</v>
+        <v>4143</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q1313" t="n">
         <v>20</v>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1314" t="n">
         <v>5</v>
@@ -94968,13 +94968,13 @@
         <v>105</v>
       </c>
       <c r="K1314" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1314" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1314" t="n">
-        <v>6238</v>
+        <v>4238</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>624</v>
+        <v>424</v>
       </c>
       <c r="Q1314" t="n">
         <v>10</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1315" t="n">
         <v>5</v>
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K1315" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1315" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="M1315" t="n">
-        <v>8238</v>
+        <v>5260</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>549</v>
+        <v>351</v>
       </c>
       <c r="Q1315" t="n">
         <v>15</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1316" t="n">
         <v>5</v>
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1316" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1316" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1316" t="n">
-        <v>6000</v>
+        <v>4239</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1317" t="n">
         <v>5</v>
@@ -95172,7 +95172,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -95184,17 +95184,17 @@
         <v>60</v>
       </c>
       <c r="K1317" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1317" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1317" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1317" t="inlineStr">
@@ -95203,10 +95203,10 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q1317" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1317" t="inlineStr">
         <is>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1318" t="n">
         <v>5</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,20 +95253,20 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K1318" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1318" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="M1318" t="n">
-        <v>6238</v>
+        <v>4240</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1318" t="inlineStr">
@@ -95275,10 +95275,10 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>624</v>
+        <v>212</v>
       </c>
       <c r="Q1318" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1318" t="inlineStr">
         <is>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1319" t="n">
         <v>5</v>
@@ -95316,7 +95316,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -95325,20 +95325,20 @@
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1319" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="M1319" t="n">
-        <v>7227</v>
+        <v>6238</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1319" t="inlineStr">
@@ -95347,10 +95347,10 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>482</v>
+        <v>624</v>
       </c>
       <c r="Q1319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1319" t="inlineStr">
         <is>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1320" t="n">
         <v>5</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95397,20 +95397,20 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K1320" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1320" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M1320" t="n">
-        <v>6500</v>
+        <v>8238</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1320" t="inlineStr">
@@ -95419,10 +95419,10 @@
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>361</v>
+        <v>549</v>
       </c>
       <c r="Q1320" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1320" t="inlineStr">
         <is>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1321" t="n">
         <v>5</v>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95469,20 +95469,20 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1321" t="n">
         <v>6000</v>
       </c>
       <c r="L1321" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1321" t="n">
-        <v>6238</v>
+        <v>6000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1321" t="inlineStr">
@@ -95491,10 +95491,10 @@
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="Q1321" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1321" t="inlineStr">
         <is>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44306</v>
+        <v>44414</v>
       </c>
       <c r="E1322" t="n">
         <v>5</v>
@@ -95532,7 +95532,7 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
@@ -95541,20 +95541,20 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1322" t="n">
         <v>6000</v>
       </c>
       <c r="L1322" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1322" t="n">
-        <v>6262</v>
+        <v>6000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1322" t="inlineStr">
@@ -95563,10 +95563,10 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>626</v>
+        <v>300</v>
       </c>
       <c r="Q1322" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1322" t="inlineStr">
         <is>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1323" t="n">
         <v>5</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95616,17 +95616,17 @@
         <v>105</v>
       </c>
       <c r="K1323" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1323" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1323" t="n">
-        <v>8762</v>
+        <v>6238</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1323" t="inlineStr">
@@ -95635,10 +95635,10 @@
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="Q1323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1323" t="inlineStr">
         <is>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1324" t="n">
         <v>5</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95685,20 +95685,20 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K1324" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1324" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="M1324" t="n">
-        <v>6260</v>
+        <v>7227</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1324" t="inlineStr">
@@ -95707,10 +95707,10 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>348</v>
+        <v>482</v>
       </c>
       <c r="Q1324" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1324" t="inlineStr">
         <is>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1325" t="n">
         <v>5</v>
@@ -95748,7 +95748,7 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1326" t="n">
         <v>5</v>
@@ -95829,16 +95829,16 @@
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K1326" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1326" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1326" t="n">
-        <v>8739</v>
+        <v>6238</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95851,7 +95851,7 @@
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>437</v>
+        <v>312</v>
       </c>
       <c r="Q1326" t="n">
         <v>20</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1327" t="n">
         <v>5</v>
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1327" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1327" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1327" t="n">
-        <v>4731</v>
+        <v>6262</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>473</v>
+        <v>626</v>
       </c>
       <c r="Q1327" t="n">
         <v>10</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1328" t="n">
         <v>5</v>
@@ -95973,16 +95973,16 @@
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="K1328" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1328" t="n">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="M1328" t="n">
-        <v>6129</v>
+        <v>8762</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95995,7 +95995,7 @@
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>409</v>
+        <v>584</v>
       </c>
       <c r="Q1328" t="n">
         <v>15</v>
@@ -96021,7 +96021,7 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1329" t="n">
         <v>5</v>
@@ -96045,16 +96045,16 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1329" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1329" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M1329" t="n">
-        <v>5227</v>
+        <v>6260</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96067,7 +96067,7 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="Q1329" t="n">
         <v>18</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1330" t="n">
         <v>5</v>
@@ -96117,16 +96117,16 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1330" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1330" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M1330" t="n">
-        <v>5227</v>
+        <v>6500</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="Q1330" t="n">
         <v>18</v>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1331" t="n">
         <v>5</v>
@@ -96189,20 +96189,20 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1331" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1331" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1331" t="n">
-        <v>5000</v>
+        <v>8739</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1331" t="inlineStr">
@@ -96211,10 +96211,10 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>208</v>
+        <v>437</v>
       </c>
       <c r="Q1331" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R1331" t="inlineStr">
         <is>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1332" t="n">
         <v>5</v>
@@ -96261,16 +96261,16 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K1332" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1332" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1332" t="n">
-        <v>6238</v>
+        <v>4731</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96279,11 +96279,11 @@
       </c>
       <c r="O1332" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>624</v>
+        <v>473</v>
       </c>
       <c r="Q1332" t="n">
         <v>10</v>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1333" t="n">
         <v>5</v>
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K1333" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="L1333" t="n">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="M1333" t="n">
-        <v>8727</v>
+        <v>6129</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96355,7 +96355,7 @@
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>582</v>
+        <v>409</v>
       </c>
       <c r="Q1333" t="n">
         <v>15</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1334" t="n">
         <v>5</v>
@@ -96408,13 +96408,13 @@
         <v>110</v>
       </c>
       <c r="K1334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1334" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1334" t="n">
-        <v>6273</v>
+        <v>5227</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="Q1334" t="n">
         <v>18</v>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1335" t="n">
         <v>5</v>
@@ -96477,16 +96477,16 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K1335" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1335" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1335" t="n">
-        <v>6000</v>
+        <v>5227</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96499,7 +96499,7 @@
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="Q1335" t="n">
         <v>18</v>
@@ -96525,7 +96525,7 @@
         </is>
       </c>
       <c r="D1336" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1336" t="n">
         <v>5</v>
@@ -96549,20 +96549,20 @@
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K1336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1336" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1336" t="n">
-        <v>6262</v>
+        <v>5000</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1336" t="inlineStr">
@@ -96571,10 +96571,10 @@
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="Q1336" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1336" t="inlineStr">
         <is>
@@ -96597,7 +96597,7 @@
         </is>
       </c>
       <c r="D1337" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1337" t="n">
         <v>5</v>
@@ -96621,16 +96621,16 @@
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K1337" t="n">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="L1337" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1337" t="n">
-        <v>5911</v>
+        <v>6238</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
@@ -96639,11 +96639,11 @@
       </c>
       <c r="O1337" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="Q1337" t="n">
         <v>10</v>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1338" t="n">
         <v>5</v>
@@ -96693,16 +96693,16 @@
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K1338" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L1338" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M1338" t="n">
-        <v>8241</v>
+        <v>8727</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96715,7 +96715,7 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="Q1338" t="n">
         <v>15</v>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1339" t="n">
         <v>5</v>
@@ -96756,7 +96756,7 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -96765,16 +96765,16 @@
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1339" t="n">
         <v>6000</v>
       </c>
       <c r="L1339" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1339" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
@@ -96787,7 +96787,7 @@
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Q1339" t="n">
         <v>18</v>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1340" t="n">
         <v>5</v>
@@ -96837,16 +96837,16 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K1340" t="n">
         <v>6000</v>
       </c>
       <c r="L1340" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1340" t="n">
-        <v>6239</v>
+        <v>6000</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
@@ -96859,7 +96859,7 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1340" t="n">
         <v>18</v>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1341" t="n">
         <v>5</v>
@@ -96909,16 +96909,16 @@
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="K1341" t="n">
         <v>6000</v>
       </c>
       <c r="L1341" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1341" t="n">
-        <v>6000</v>
+        <v>6262</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96931,7 +96931,7 @@
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="Q1341" t="n">
         <v>20</v>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1342" t="n">
         <v>5</v>
@@ -96981,16 +96981,16 @@
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K1342" t="n">
+        <v>5800</v>
+      </c>
+      <c r="L1342" t="n">
         <v>6000</v>
       </c>
-      <c r="L1342" t="n">
-        <v>6300</v>
-      </c>
       <c r="M1342" t="n">
-        <v>6136</v>
+        <v>5911</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="Q1342" t="n">
         <v>10</v>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1343" t="n">
         <v>5</v>
@@ -97053,16 +97053,16 @@
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="K1343" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1343" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="M1343" t="n">
-        <v>7227</v>
+        <v>8241</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97075,7 +97075,7 @@
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="Q1343" t="n">
         <v>15</v>
@@ -97101,7 +97101,7 @@
         </is>
       </c>
       <c r="D1344" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1344" t="n">
         <v>5</v>
@@ -97116,7 +97116,7 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
@@ -97125,16 +97125,16 @@
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K1344" t="n">
         <v>6000</v>
       </c>
       <c r="L1344" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1344" t="n">
-        <v>6227</v>
+        <v>6000</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Q1344" t="n">
         <v>18</v>
@@ -97173,7 +97173,7 @@
         </is>
       </c>
       <c r="D1345" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1345" t="n">
         <v>5</v>
@@ -97197,16 +97197,16 @@
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K1345" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1345" t="n">
         <v>6500</v>
       </c>
       <c r="M1345" t="n">
-        <v>6500</v>
+        <v>6239</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97219,7 +97219,7 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Q1345" t="n">
         <v>18</v>
@@ -97245,7 +97245,7 @@
         </is>
       </c>
       <c r="D1346" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1346" t="n">
         <v>5</v>
@@ -97269,16 +97269,16 @@
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K1346" t="n">
         <v>6000</v>
       </c>
       <c r="L1346" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="M1346" t="n">
-        <v>6125</v>
+        <v>6000</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97291,7 +97291,7 @@
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q1346" t="n">
         <v>20</v>
@@ -97317,7 +97317,7 @@
         </is>
       </c>
       <c r="D1347" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1347" t="n">
         <v>5</v>
@@ -97341,16 +97341,16 @@
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1347" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1347" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1347" t="n">
-        <v>6738</v>
+        <v>6136</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97363,7 +97363,7 @@
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>674</v>
+        <v>614</v>
       </c>
       <c r="Q1347" t="n">
         <v>10</v>
@@ -97389,7 +97389,7 @@
         </is>
       </c>
       <c r="D1348" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1348" t="n">
         <v>5</v>
@@ -97413,16 +97413,16 @@
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K1348" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="L1348" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M1348" t="n">
-        <v>8765</v>
+        <v>7227</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
@@ -97435,7 +97435,7 @@
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>584</v>
+        <v>482</v>
       </c>
       <c r="Q1348" t="n">
         <v>15</v>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1349" t="n">
         <v>5</v>
@@ -97485,16 +97485,16 @@
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K1349" t="n">
         <v>6000</v>
       </c>
       <c r="L1349" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1349" t="n">
-        <v>6000</v>
+        <v>6227</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
@@ -97507,7 +97507,7 @@
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q1349" t="n">
         <v>18</v>
@@ -97533,7 +97533,7 @@
         </is>
       </c>
       <c r="D1350" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1350" t="n">
         <v>5</v>
@@ -97557,7 +97557,7 @@
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1350" t="n">
         <v>6500</v>
@@ -97605,7 +97605,7 @@
         </is>
       </c>
       <c r="D1351" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1351" t="n">
         <v>5</v>
@@ -97629,16 +97629,16 @@
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K1351" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1351" t="n">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="M1351" t="n">
-        <v>6762</v>
+        <v>6125</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97651,7 +97651,7 @@
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="Q1351" t="n">
         <v>20</v>
@@ -97677,7 +97677,7 @@
         </is>
       </c>
       <c r="D1352" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1352" t="n">
         <v>5</v>
@@ -97701,16 +97701,16 @@
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K1352" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1352" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="M1352" t="n">
-        <v>4136</v>
+        <v>6738</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97723,7 +97723,7 @@
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>414</v>
+        <v>674</v>
       </c>
       <c r="Q1352" t="n">
         <v>10</v>
@@ -97749,7 +97749,7 @@
         </is>
       </c>
       <c r="D1353" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1353" t="n">
         <v>5</v>
@@ -97773,16 +97773,16 @@
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="K1353" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1353" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1353" t="n">
-        <v>5759</v>
+        <v>8765</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97795,7 +97795,7 @@
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>384</v>
+        <v>584</v>
       </c>
       <c r="Q1353" t="n">
         <v>15</v>
@@ -97821,7 +97821,7 @@
         </is>
       </c>
       <c r="D1354" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1354" t="n">
         <v>5</v>
@@ -97845,16 +97845,16 @@
         </is>
       </c>
       <c r="J1354" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1354" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1354" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1354" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1354" t="inlineStr">
         <is>
@@ -97867,7 +97867,7 @@
         </is>
       </c>
       <c r="P1354" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Q1354" t="n">
         <v>18</v>
@@ -97893,7 +97893,7 @@
         </is>
       </c>
       <c r="D1355" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1355" t="n">
         <v>5</v>
@@ -97917,16 +97917,16 @@
         </is>
       </c>
       <c r="J1355" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K1355" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1355" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1355" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1355" t="inlineStr">
         <is>
@@ -97939,7 +97939,7 @@
         </is>
       </c>
       <c r="P1355" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1355" t="n">
         <v>18</v>
@@ -97965,7 +97965,7 @@
         </is>
       </c>
       <c r="D1356" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1356" t="n">
         <v>5</v>
@@ -97989,16 +97989,16 @@
         </is>
       </c>
       <c r="J1356" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K1356" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1356" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="M1356" t="n">
-        <v>4138</v>
+        <v>6762</v>
       </c>
       <c r="N1356" t="inlineStr">
         <is>
@@ -98011,7 +98011,7 @@
         </is>
       </c>
       <c r="P1356" t="n">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Q1356" t="n">
         <v>20</v>
@@ -98037,7 +98037,7 @@
         </is>
       </c>
       <c r="D1357" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1357" t="n">
         <v>5</v>
@@ -98061,16 +98061,16 @@
         </is>
       </c>
       <c r="J1357" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K1357" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1357" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="M1357" t="n">
-        <v>5731</v>
+        <v>4136</v>
       </c>
       <c r="N1357" t="inlineStr">
         <is>
@@ -98083,7 +98083,7 @@
         </is>
       </c>
       <c r="P1357" t="n">
-        <v>573</v>
+        <v>414</v>
       </c>
       <c r="Q1357" t="n">
         <v>10</v>
@@ -98109,7 +98109,7 @@
         </is>
       </c>
       <c r="D1358" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1358" t="n">
         <v>5</v>
@@ -98133,16 +98133,16 @@
         </is>
       </c>
       <c r="J1358" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K1358" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L1358" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1358" t="n">
-        <v>8773</v>
+        <v>5759</v>
       </c>
       <c r="N1358" t="inlineStr">
         <is>
@@ -98155,7 +98155,7 @@
         </is>
       </c>
       <c r="P1358" t="n">
-        <v>585</v>
+        <v>384</v>
       </c>
       <c r="Q1358" t="n">
         <v>15</v>
@@ -98181,7 +98181,7 @@
         </is>
       </c>
       <c r="D1359" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1359" t="n">
         <v>5</v>
@@ -98208,13 +98208,13 @@
         <v>80</v>
       </c>
       <c r="K1359" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1359" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1359" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1359" t="inlineStr">
         <is>
@@ -98227,7 +98227,7 @@
         </is>
       </c>
       <c r="P1359" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="Q1359" t="n">
         <v>18</v>
@@ -98253,7 +98253,7 @@
         </is>
       </c>
       <c r="D1360" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1360" t="n">
         <v>5</v>
@@ -98268,7 +98268,7 @@
       </c>
       <c r="H1360" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1360" t="inlineStr">
@@ -98277,20 +98277,20 @@
         </is>
       </c>
       <c r="J1360" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="K1360" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1360" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1360" t="n">
-        <v>5738</v>
+        <v>5000</v>
       </c>
       <c r="N1360" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1360" t="inlineStr">
@@ -98299,10 +98299,10 @@
         </is>
       </c>
       <c r="P1360" t="n">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q1360" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1360" t="inlineStr">
         <is>
@@ -98325,7 +98325,7 @@
         </is>
       </c>
       <c r="D1361" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1361" t="n">
         <v>5</v>
@@ -98340,7 +98340,7 @@
       </c>
       <c r="H1361" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1361" t="inlineStr">
@@ -98352,17 +98352,17 @@
         <v>130</v>
       </c>
       <c r="K1361" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1361" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="M1361" t="n">
-        <v>5269</v>
+        <v>4138</v>
       </c>
       <c r="N1361" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1361" t="inlineStr">
@@ -98371,10 +98371,10 @@
         </is>
       </c>
       <c r="P1361" t="n">
-        <v>527</v>
+        <v>207</v>
       </c>
       <c r="Q1361" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1361" t="inlineStr">
         <is>
@@ -98397,7 +98397,7 @@
         </is>
       </c>
       <c r="D1362" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1362" t="n">
         <v>5</v>
@@ -98412,7 +98412,7 @@
       </c>
       <c r="H1362" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1362" t="inlineStr">
@@ -98421,20 +98421,20 @@
         </is>
       </c>
       <c r="J1362" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K1362" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1362" t="n">
-        <v>6759</v>
+        <v>5731</v>
       </c>
       <c r="N1362" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1362" t="inlineStr">
@@ -98443,10 +98443,10 @@
         </is>
       </c>
       <c r="P1362" t="n">
-        <v>451</v>
+        <v>573</v>
       </c>
       <c r="Q1362" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1362" t="inlineStr">
         <is>
@@ -98469,7 +98469,7 @@
         </is>
       </c>
       <c r="D1363" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1363" t="n">
         <v>5</v>
@@ -98484,7 +98484,7 @@
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1363" t="inlineStr">
@@ -98493,20 +98493,20 @@
         </is>
       </c>
       <c r="J1363" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K1363" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="L1363" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1363" t="n">
-        <v>5761</v>
+        <v>8773</v>
       </c>
       <c r="N1363" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1363" t="inlineStr">
@@ -98515,10 +98515,10 @@
         </is>
       </c>
       <c r="P1363" t="n">
-        <v>320</v>
+        <v>585</v>
       </c>
       <c r="Q1363" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1363" t="inlineStr">
         <is>
@@ -98541,7 +98541,7 @@
         </is>
       </c>
       <c r="D1364" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1364" t="n">
         <v>5</v>
@@ -98556,7 +98556,7 @@
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1364" t="inlineStr">
@@ -98565,7 +98565,7 @@
         </is>
       </c>
       <c r="J1364" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K1364" t="n">
         <v>6000</v>
@@ -98613,7 +98613,7 @@
         </is>
       </c>
       <c r="D1365" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1365" t="n">
         <v>5</v>
@@ -98637,16 +98637,16 @@
         </is>
       </c>
       <c r="J1365" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K1365" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1365" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1365" t="n">
-        <v>5260</v>
+        <v>5738</v>
       </c>
       <c r="N1365" t="inlineStr">
         <is>
@@ -98659,7 +98659,7 @@
         </is>
       </c>
       <c r="P1365" t="n">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="Q1365" t="n">
         <v>20</v>
@@ -98685,7 +98685,7 @@
         </is>
       </c>
       <c r="D1366" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1366" t="n">
         <v>5</v>
@@ -98709,16 +98709,16 @@
         </is>
       </c>
       <c r="J1366" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1366" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1366" t="n">
-        <v>6000</v>
+        <v>5269</v>
       </c>
       <c r="N1366" t="inlineStr">
         <is>
@@ -98727,11 +98727,11 @@
       </c>
       <c r="O1366" t="inlineStr">
         <is>
-          <t>Hijuelas</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1366" t="n">
-        <v>600</v>
+        <v>527</v>
       </c>
       <c r="Q1366" t="n">
         <v>10</v>
@@ -98757,7 +98757,7 @@
         </is>
       </c>
       <c r="D1367" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1367" t="n">
         <v>5</v>
@@ -98781,16 +98781,16 @@
         </is>
       </c>
       <c r="J1367" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="K1367" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1367" t="n">
         <v>7000</v>
       </c>
-      <c r="L1367" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1367" t="n">
-        <v>7238</v>
+        <v>6759</v>
       </c>
       <c r="N1367" t="inlineStr">
         <is>
@@ -98803,7 +98803,7 @@
         </is>
       </c>
       <c r="P1367" t="n">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="Q1367" t="n">
         <v>15</v>
@@ -98829,7 +98829,7 @@
         </is>
       </c>
       <c r="D1368" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1368" t="n">
         <v>5</v>
@@ -98853,16 +98853,16 @@
         </is>
       </c>
       <c r="J1368" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K1368" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1368" t="n">
         <v>6000</v>
       </c>
       <c r="M1368" t="n">
-        <v>6000</v>
+        <v>5761</v>
       </c>
       <c r="N1368" t="inlineStr">
         <is>
@@ -98875,7 +98875,7 @@
         </is>
       </c>
       <c r="P1368" t="n">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="Q1368" t="n">
         <v>18</v>
@@ -98901,7 +98901,7 @@
         </is>
       </c>
       <c r="D1369" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1369" t="n">
         <v>5</v>
@@ -98925,7 +98925,7 @@
         </is>
       </c>
       <c r="J1369" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K1369" t="n">
         <v>6000</v>
@@ -98973,7 +98973,7 @@
         </is>
       </c>
       <c r="D1370" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1370" t="n">
         <v>5</v>
@@ -98997,16 +98997,16 @@
         </is>
       </c>
       <c r="J1370" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K1370" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1370" t="n">
         <v>5500</v>
       </c>
-      <c r="L1370" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1370" t="n">
-        <v>5738</v>
+        <v>5260</v>
       </c>
       <c r="N1370" t="inlineStr">
         <is>
@@ -99019,12 +99019,372 @@
         </is>
       </c>
       <c r="P1370" t="n">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="Q1370" t="n">
         <v>20</v>
       </c>
       <c r="R1370" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1371" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1371" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1371" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1371" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1371" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1371" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+      <c r="P1371" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1371" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1372" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1372" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1372" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1372" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1372" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>7238</v>
+      </c>
+      <c r="N1372" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1372" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1372" t="n">
+        <v>483</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1372" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1373" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1373" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1373" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1373" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1373" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1373" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1373" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1373" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1373" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1374" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1374" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1374" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1374" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1374" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1374" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1374" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1374" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1375" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1375" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1375" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1375" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>5738</v>
+      </c>
+      <c r="N1375" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1375" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1375" t="n">
+        <v>287</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1375" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1405"/>
+  <dimension ref="A1:R1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100125,7 +100125,7 @@
         </is>
       </c>
       <c r="D1386" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1386" t="n">
         <v>5</v>
@@ -100149,16 +100149,16 @@
         </is>
       </c>
       <c r="J1386" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K1386" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1386" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1386" t="n">
-        <v>5740</v>
+        <v>4769</v>
       </c>
       <c r="N1386" t="inlineStr">
         <is>
@@ -100171,7 +100171,7 @@
         </is>
       </c>
       <c r="P1386" t="n">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="Q1386" t="n">
         <v>10</v>
@@ -100197,7 +100197,7 @@
         </is>
       </c>
       <c r="D1387" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1387" t="n">
         <v>5</v>
@@ -100221,16 +100221,16 @@
         </is>
       </c>
       <c r="J1387" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K1387" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1387" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1387" t="n">
-        <v>6761</v>
+        <v>5769</v>
       </c>
       <c r="N1387" t="inlineStr">
         <is>
@@ -100243,7 +100243,7 @@
         </is>
       </c>
       <c r="P1387" t="n">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="Q1387" t="n">
         <v>15</v>
@@ -100269,7 +100269,7 @@
         </is>
       </c>
       <c r="D1388" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1388" t="n">
         <v>5</v>
@@ -100293,16 +100293,16 @@
         </is>
       </c>
       <c r="J1388" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K1388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1388" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1388" t="n">
-        <v>6000</v>
+        <v>5231</v>
       </c>
       <c r="N1388" t="inlineStr">
         <is>
@@ -100315,7 +100315,7 @@
         </is>
       </c>
       <c r="P1388" t="n">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="Q1388" t="n">
         <v>18</v>
@@ -100341,7 +100341,7 @@
         </is>
       </c>
       <c r="D1389" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1389" t="n">
         <v>5</v>
@@ -100365,16 +100365,16 @@
         </is>
       </c>
       <c r="J1389" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K1389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1389" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1389" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N1389" t="inlineStr">
         <is>
@@ -100387,7 +100387,7 @@
         </is>
       </c>
       <c r="P1389" t="n">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Q1389" t="n">
         <v>18</v>
@@ -100413,7 +100413,7 @@
         </is>
       </c>
       <c r="D1390" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1390" t="n">
         <v>5</v>
@@ -100440,13 +100440,13 @@
         <v>130</v>
       </c>
       <c r="K1390" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1390" t="n">
         <v>5000</v>
       </c>
-      <c r="L1390" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1390" t="n">
-        <v>5269</v>
+        <v>4731</v>
       </c>
       <c r="N1390" t="inlineStr">
         <is>
@@ -100459,7 +100459,7 @@
         </is>
       </c>
       <c r="P1390" t="n">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="Q1390" t="n">
         <v>20</v>
@@ -100485,7 +100485,7 @@
         </is>
       </c>
       <c r="D1391" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1391" t="n">
         <v>5</v>
@@ -100509,16 +100509,16 @@
         </is>
       </c>
       <c r="J1391" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="K1391" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1391" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1391" t="n">
-        <v>5257</v>
+        <v>5740</v>
       </c>
       <c r="N1391" t="inlineStr">
         <is>
@@ -100531,7 +100531,7 @@
         </is>
       </c>
       <c r="P1391" t="n">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="Q1391" t="n">
         <v>10</v>
@@ -100557,7 +100557,7 @@
         </is>
       </c>
       <c r="D1392" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1392" t="n">
         <v>5</v>
@@ -100581,16 +100581,16 @@
         </is>
       </c>
       <c r="J1392" t="n">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="K1392" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1392" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1392" t="n">
-        <v>6242</v>
+        <v>6761</v>
       </c>
       <c r="N1392" t="inlineStr">
         <is>
@@ -100603,7 +100603,7 @@
         </is>
       </c>
       <c r="P1392" t="n">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="Q1392" t="n">
         <v>15</v>
@@ -100629,7 +100629,7 @@
         </is>
       </c>
       <c r="D1393" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1393" t="n">
         <v>5</v>
@@ -100653,16 +100653,16 @@
         </is>
       </c>
       <c r="J1393" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K1393" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1393" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1393" t="n">
-        <v>5250</v>
+        <v>6000</v>
       </c>
       <c r="N1393" t="inlineStr">
         <is>
@@ -100675,7 +100675,7 @@
         </is>
       </c>
       <c r="P1393" t="n">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="Q1393" t="n">
         <v>18</v>
@@ -100701,7 +100701,7 @@
         </is>
       </c>
       <c r="D1394" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1394" t="n">
         <v>5</v>
@@ -100725,16 +100725,16 @@
         </is>
       </c>
       <c r="J1394" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K1394" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1394" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1394" t="n">
-        <v>5240</v>
+        <v>6000</v>
       </c>
       <c r="N1394" t="inlineStr">
         <is>
@@ -100747,7 +100747,7 @@
         </is>
       </c>
       <c r="P1394" t="n">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="Q1394" t="n">
         <v>18</v>
@@ -100773,7 +100773,7 @@
         </is>
       </c>
       <c r="D1395" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1395" t="n">
         <v>5</v>
@@ -100797,16 +100797,16 @@
         </is>
       </c>
       <c r="J1395" t="n">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="K1395" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1395" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1395" t="n">
-        <v>4758</v>
+        <v>5269</v>
       </c>
       <c r="N1395" t="inlineStr">
         <is>
@@ -100819,7 +100819,7 @@
         </is>
       </c>
       <c r="P1395" t="n">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Q1395" t="n">
         <v>20</v>
@@ -100845,7 +100845,7 @@
         </is>
       </c>
       <c r="D1396" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1396" t="n">
         <v>5</v>
@@ -100869,16 +100869,16 @@
         </is>
       </c>
       <c r="J1396" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="K1396" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1396" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1396" t="n">
-        <v>4238</v>
+        <v>5257</v>
       </c>
       <c r="N1396" t="inlineStr">
         <is>
@@ -100891,7 +100891,7 @@
         </is>
       </c>
       <c r="P1396" t="n">
-        <v>424</v>
+        <v>526</v>
       </c>
       <c r="Q1396" t="n">
         <v>10</v>
@@ -100917,7 +100917,7 @@
         </is>
       </c>
       <c r="D1397" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1397" t="n">
         <v>5</v>
@@ -100941,16 +100941,16 @@
         </is>
       </c>
       <c r="J1397" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K1397" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1397" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1397" t="n">
-        <v>5750</v>
+        <v>6242</v>
       </c>
       <c r="N1397" t="inlineStr">
         <is>
@@ -100963,7 +100963,7 @@
         </is>
       </c>
       <c r="P1397" t="n">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="Q1397" t="n">
         <v>15</v>
@@ -100989,7 +100989,7 @@
         </is>
       </c>
       <c r="D1398" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1398" t="n">
         <v>5</v>
@@ -101013,16 +101013,16 @@
         </is>
       </c>
       <c r="J1398" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K1398" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1398" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1398" t="n">
-        <v>4500</v>
+        <v>5250</v>
       </c>
       <c r="N1398" t="inlineStr">
         <is>
@@ -101035,7 +101035,7 @@
         </is>
       </c>
       <c r="P1398" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q1398" t="n">
         <v>18</v>
@@ -101061,7 +101061,7 @@
         </is>
       </c>
       <c r="D1399" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1399" t="n">
         <v>5</v>
@@ -101085,16 +101085,16 @@
         </is>
       </c>
       <c r="J1399" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K1399" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1399" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1399" t="n">
-        <v>4500</v>
+        <v>5240</v>
       </c>
       <c r="N1399" t="inlineStr">
         <is>
@@ -101107,7 +101107,7 @@
         </is>
       </c>
       <c r="P1399" t="n">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="Q1399" t="n">
         <v>18</v>
@@ -101133,7 +101133,7 @@
         </is>
       </c>
       <c r="D1400" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1400" t="n">
         <v>5</v>
@@ -101157,16 +101157,16 @@
         </is>
       </c>
       <c r="J1400" t="n">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="K1400" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1400" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1400" t="n">
-        <v>4238</v>
+        <v>4758</v>
       </c>
       <c r="N1400" t="inlineStr">
         <is>
@@ -101179,7 +101179,7 @@
         </is>
       </c>
       <c r="P1400" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q1400" t="n">
         <v>20</v>
@@ -101205,7 +101205,7 @@
         </is>
       </c>
       <c r="D1401" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1401" t="n">
         <v>5</v>
@@ -101229,16 +101229,16 @@
         </is>
       </c>
       <c r="J1401" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K1401" t="n">
         <v>4000</v>
       </c>
       <c r="L1401" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="M1401" t="n">
-        <v>4144</v>
+        <v>4238</v>
       </c>
       <c r="N1401" t="inlineStr">
         <is>
@@ -101251,7 +101251,7 @@
         </is>
       </c>
       <c r="P1401" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="Q1401" t="n">
         <v>10</v>
@@ -101277,7 +101277,7 @@
         </is>
       </c>
       <c r="D1402" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1402" t="n">
         <v>5</v>
@@ -101301,16 +101301,16 @@
         </is>
       </c>
       <c r="J1402" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K1402" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1402" t="n">
         <v>6000</v>
       </c>
       <c r="M1402" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1402" t="inlineStr">
         <is>
@@ -101323,7 +101323,7 @@
         </is>
       </c>
       <c r="P1402" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q1402" t="n">
         <v>15</v>
@@ -101349,7 +101349,7 @@
         </is>
       </c>
       <c r="D1403" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1403" t="n">
         <v>5</v>
@@ -101376,13 +101376,13 @@
         <v>60</v>
       </c>
       <c r="K1403" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1403" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1403" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1403" t="inlineStr">
         <is>
@@ -101395,7 +101395,7 @@
         </is>
       </c>
       <c r="P1403" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1403" t="n">
         <v>18</v>
@@ -101421,7 +101421,7 @@
         </is>
       </c>
       <c r="D1404" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1404" t="n">
         <v>5</v>
@@ -101445,16 +101445,16 @@
         </is>
       </c>
       <c r="J1404" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K1404" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1404" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1404" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1404" t="inlineStr">
         <is>
@@ -101467,7 +101467,7 @@
         </is>
       </c>
       <c r="P1404" t="n">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="Q1404" t="n">
         <v>18</v>
@@ -101493,7 +101493,7 @@
         </is>
       </c>
       <c r="D1405" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1405" t="n">
         <v>5</v>
@@ -101523,10 +101523,10 @@
         <v>4000</v>
       </c>
       <c r="L1405" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="M1405" t="n">
-        <v>4143</v>
+        <v>4238</v>
       </c>
       <c r="N1405" t="inlineStr">
         <is>
@@ -101539,12 +101539,372 @@
         </is>
       </c>
       <c r="P1405" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q1405" t="n">
         <v>20</v>
       </c>
       <c r="R1405" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1406" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1406" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1406" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1406" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1406" t="n">
+        <v>125</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>4144</v>
+      </c>
+      <c r="N1406" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1406" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1406" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1406" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1407" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1407" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1407" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1407" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1407" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1407" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1407" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1407" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1408" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1408" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1408" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1408" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1408" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1408" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1408" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1408" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1408" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1409" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1409" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1409" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1409" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1409" t="n">
+        <v>60</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1409" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1409" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1409" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1409" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="n">
+        <v>3</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D1410" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1410" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1410" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1410" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1410" t="n">
+        <v>105</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>4143</v>
+      </c>
+      <c r="N1410" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1410" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1410" t="n">
+        <v>207</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1410" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
